--- a/excel练习.xlsx
+++ b/excel练习.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\desktop\Rmath\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF1380EC-80FB-47A0-8F66-E7FB043DC0C1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82629470-C3FF-4504-84EF-120ACCE95E87}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="862" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="862" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,17 +27,20 @@
     <sheet name="气泡图" sheetId="12" r:id="rId12"/>
     <sheet name="有空格时" sheetId="13" r:id="rId13"/>
     <sheet name="坐标轴不是整数怎样改乘整数" sheetId="14" r:id="rId14"/>
-    <sheet name="只保留线条的折线图" sheetId="15" r:id="rId15"/>
-    <sheet name="利用滑块来制作动态图" sheetId="16" r:id="rId16"/>
-    <sheet name="Sheet3" sheetId="18" r:id="rId17"/>
-    <sheet name="Sheet4" sheetId="19" r:id="rId18"/>
-    <sheet name="Sheet2" sheetId="17" r:id="rId19"/>
+    <sheet name="Sheet5" sheetId="20" r:id="rId15"/>
+    <sheet name="Sheet6" sheetId="21" r:id="rId16"/>
+    <sheet name="Sheet7" sheetId="22" r:id="rId17"/>
+    <sheet name="只保留线条的折线图" sheetId="15" r:id="rId18"/>
+    <sheet name="利用滑块来制作动态图" sheetId="16" r:id="rId19"/>
+    <sheet name="Sheet3" sheetId="18" r:id="rId20"/>
+    <sheet name="Sheet4" sheetId="19" r:id="rId21"/>
+    <sheet name="Sheet2" sheetId="17" r:id="rId22"/>
   </sheets>
   <definedNames>
     <definedName name="fi">Sheet1!$C$2:$D$11</definedName>
     <definedName name="op">Sheet1!$C$2:$D$10</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="18">Sheet2!$D$1:$N$13</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="18">Sheet2!$1:$1</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="21">Sheet2!$D$1:$N$13</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="21">Sheet2!$1:$1</definedName>
     <definedName name="wa" localSheetId="0">Sheet1!$C$3:$D$16</definedName>
     <definedName name="大哥">dawjd!$T$49</definedName>
     <definedName name="名称">dawjd!$J$41</definedName>
@@ -47,13 +50,13 @@
   </definedNames>
   <calcPr calcId="181029"/>
   <pivotCaches>
-    <pivotCache cacheId="6" r:id="rId20"/>
+    <pivotCache cacheId="0" r:id="rId23"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="395">
   <si>
     <t>序号</t>
   </si>
@@ -1555,6 +1558,10 @@
   </si>
   <si>
     <t>求和项:第四区域</t>
+  </si>
+  <si>
+    <t>姓名</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2909,6 +2916,39 @@
     <xf numFmtId="0" fontId="10" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2939,24 +2979,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2976,6 +2998,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3001,24 +3026,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4658,10 +4665,20 @@
           <a:ln>
             <a:noFill/>
           </a:ln>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:glow rad="228600">
+              <a:schemeClr val="accent5">
+                <a:satMod val="175000"/>
+                <a:alpha val="40000"/>
+              </a:schemeClr>
+            </a:glow>
+            <a:outerShdw blurRad="50800" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:schemeClr val="accent1"/>
+            </a:outerShdw>
+          </a:effectLst>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="1680000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="0"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -4707,7 +4724,20 @@
         <a:ln>
           <a:noFill/>
         </a:ln>
-        <a:effectLst/>
+        <a:effectLst>
+          <a:glow rad="139700">
+            <a:schemeClr val="accent6">
+              <a:satMod val="175000"/>
+              <a:alpha val="40000"/>
+            </a:schemeClr>
+          </a:glow>
+          <a:outerShdw blurRad="12700" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:schemeClr val="accent2">
+              <a:lumMod val="50000"/>
+              <a:alpha val="43000"/>
+            </a:schemeClr>
+          </a:outerShdw>
+        </a:effectLst>
       </c:spPr>
     </c:plotArea>
     <c:legend>
@@ -11813,7 +11843,13 @@
         <a:ln>
           <a:noFill/>
         </a:ln>
-        <a:effectLst/>
+        <a:effectLst>
+          <a:glow rad="127000">
+            <a:schemeClr val="accent1">
+              <a:alpha val="90000"/>
+            </a:schemeClr>
+          </a:glow>
+        </a:effectLst>
       </c:spPr>
     </c:plotArea>
     <c:legend>
@@ -21201,16 +21237,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>327660</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>914400</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>281940</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -21365,6 +21401,80 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>373380</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="矩形 1">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59ABB7D9-0A6E-49E0-8AAE-38CC6373CB65}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4640580" y="1303020"/>
+          <a:ext cx="2286000" cy="1082040"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>跳转下一张</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>396240</xdr:colOff>
       <xdr:row>7</xdr:row>
@@ -21402,7 +21512,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -21604,7 +21714,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$A$15:$B$16" spid="_x0000_s16409"/>
+                  <a14:cameraTool cellRange="$A$15:$B$16" spid="_x0000_s16419"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -22440,7 +22550,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{41A49DAE-3C81-4E9B-88B4-92832D5A481F}" name="数据透视表1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{41A49DAE-3C81-4E9B-88B4-92832D5A481F}" name="数据透视表1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="BK19:BO21" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="4">
     <pivotField axis="axisPage" dataField="1" showAll="0">
@@ -22782,8 +22892,8 @@
   </sheetPr>
   <dimension ref="A1:U150"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21:G25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -22801,7 +22911,9 @@
       <c r="A1" s="141"/>
       <c r="B1" s="141"/>
       <c r="C1" s="141"/>
-      <c r="D1" s="141"/>
+      <c r="D1" s="141" t="s">
+        <v>394</v>
+      </c>
       <c r="E1" s="2" t="s">
         <v>7</v>
       </c>
@@ -26737,11 +26849,11 @@
     <row r="67" spans="2:13">
       <c r="I67" s="145">
         <f ca="1">NOW()</f>
-        <v>44280.448556134259</v>
+        <v>44294.785876851849</v>
       </c>
       <c r="K67" s="145">
         <f ca="1">NOW()</f>
-        <v>44280.448556134259</v>
+        <v>44294.785876851849</v>
       </c>
     </row>
     <row r="69" spans="2:13">
@@ -26875,7 +26987,7 @@
     <row r="79" spans="2:13">
       <c r="B79">
         <f t="shared" ref="B79" ca="1" si="7">INT(10+90*RAND())</f>
-        <v>99</v>
+        <v>21</v>
       </c>
     </row>
     <row r="80" spans="2:13">
@@ -26885,11 +26997,11 @@
       </c>
       <c r="F80">
         <f t="shared" ref="F80:G80" ca="1" si="8">RAND()</f>
-        <v>0.32636509071203579</v>
+        <v>0.52442111256238466</v>
       </c>
       <c r="G80">
         <f t="shared" ca="1" si="8"/>
-        <v>0.19651823475149188</v>
+        <v>9.1280873985913225E-2</v>
       </c>
       <c r="I80">
         <v>1</v>
@@ -26910,15 +27022,15 @@
     <row r="81" spans="1:13">
       <c r="E81">
         <f t="shared" ref="E81:G93" ca="1" si="9">RAND()</f>
-        <v>5.7935208858444054E-2</v>
+        <v>0.54547724765954408</v>
       </c>
       <c r="F81">
         <f t="shared" ca="1" si="9"/>
-        <v>0.55418048421127819</v>
+        <v>0.54579663656805311</v>
       </c>
       <c r="G81">
         <f t="shared" ca="1" si="9"/>
-        <v>0.76735101562158436</v>
+        <v>0.3165481947010188</v>
       </c>
       <c r="I81">
         <v>1</v>
@@ -26939,15 +27051,15 @@
     <row r="82" spans="1:13">
       <c r="E82">
         <f t="shared" ca="1" si="9"/>
-        <v>0.27024472470766303</v>
+        <v>2.528850668777527E-2</v>
       </c>
       <c r="F82">
         <f t="shared" ca="1" si="9"/>
-        <v>0.12973434620740265</v>
+        <v>0.23373944323478923</v>
       </c>
       <c r="G82">
         <f t="shared" ca="1" si="9"/>
-        <v>0.25612300301171231</v>
+        <v>0.74874831554166366</v>
       </c>
       <c r="I82">
         <v>1</v>
@@ -26968,15 +27080,15 @@
     <row r="83" spans="1:13">
       <c r="E83">
         <f t="shared" ca="1" si="9"/>
-        <v>0.68607930077680079</v>
+        <v>0.14218531304040649</v>
       </c>
       <c r="F83">
         <f t="shared" ca="1" si="9"/>
-        <v>0.53421486804512108</v>
+        <v>0.76203741624021537</v>
       </c>
       <c r="G83">
         <f t="shared" ca="1" si="9"/>
-        <v>9.6935406336756569E-2</v>
+        <v>0.12461080210393871</v>
       </c>
       <c r="H83">
         <v>23</v>
@@ -27000,15 +27112,15 @@
     <row r="84" spans="1:13">
       <c r="E84">
         <f t="shared" ca="1" si="9"/>
-        <v>0.50622040201580787</v>
+        <v>0.51497536265833643</v>
       </c>
       <c r="F84">
         <f t="shared" ca="1" si="9"/>
-        <v>0.87970204820358633</v>
+        <v>3.1347770928945584E-3</v>
       </c>
       <c r="G84">
         <f t="shared" ca="1" si="9"/>
-        <v>0.67443651294153595</v>
+        <v>0.67816355452371524</v>
       </c>
       <c r="H84">
         <v>23</v>
@@ -27032,27 +27144,27 @@
     <row r="85" spans="1:13">
       <c r="A85">
         <f ca="1">B85</f>
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="B85">
         <f t="shared" ref="B85:C94" ca="1" si="10">INT(10+90*RAND())</f>
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="C85">
         <f t="shared" ca="1" si="10"/>
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="E85">
         <f t="shared" ca="1" si="9"/>
-        <v>0.35107211793455118</v>
+        <v>0.45574115902397228</v>
       </c>
       <c r="F85">
         <f t="shared" ca="1" si="9"/>
-        <v>1.1053500021752871E-2</v>
+        <v>6.7847550837553006E-2</v>
       </c>
       <c r="G85">
         <f t="shared" ca="1" si="9"/>
-        <v>0.3780552166445712</v>
+        <v>0.98283176971971276</v>
       </c>
       <c r="H85">
         <v>23</v>
@@ -27076,27 +27188,27 @@
     <row r="86" spans="1:13">
       <c r="A86">
         <f t="shared" ref="A86:A94" ca="1" si="11">INT(10+90*RAND())</f>
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="B86">
         <f t="shared" ca="1" si="10"/>
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="C86">
         <f t="shared" ca="1" si="10"/>
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="E86">
         <f t="shared" ca="1" si="9"/>
-        <v>0.12324538006129493</v>
+        <v>0.87026870185969862</v>
       </c>
       <c r="F86">
         <f t="shared" ca="1" si="9"/>
-        <v>6.0019618140188302E-2</v>
+        <v>0.78441533317942114</v>
       </c>
       <c r="G86">
         <f t="shared" ca="1" si="9"/>
-        <v>0.40024390204637827</v>
+        <v>0.98186050733672747</v>
       </c>
       <c r="H86">
         <v>23</v>
@@ -27120,27 +27232,27 @@
     <row r="87" spans="1:13">
       <c r="A87">
         <f t="shared" ca="1" si="11"/>
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="B87">
         <f t="shared" ca="1" si="10"/>
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="C87">
         <f t="shared" ca="1" si="10"/>
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="E87">
         <f t="shared" ca="1" si="9"/>
-        <v>0.59650180371814066</v>
+        <v>0.94761223364835734</v>
       </c>
       <c r="F87">
         <f t="shared" ca="1" si="9"/>
-        <v>0.60321996347589157</v>
+        <v>0.71926129789552795</v>
       </c>
       <c r="G87">
         <f t="shared" ca="1" si="9"/>
-        <v>0.96744304927527969</v>
+        <v>0.29444435689544868</v>
       </c>
       <c r="H87">
         <v>23</v>
@@ -27164,26 +27276,26 @@
     <row r="88" spans="1:13">
       <c r="A88">
         <f t="shared" ca="1" si="11"/>
-        <v>22</v>
+        <v>83</v>
       </c>
       <c r="B88" s="147" t="s">
         <v>171</v>
       </c>
       <c r="C88">
         <f t="shared" ca="1" si="10"/>
-        <v>50</v>
+        <v>97</v>
       </c>
       <c r="E88">
         <f t="shared" ca="1" si="9"/>
-        <v>0.93126217119581489</v>
+        <v>0.44886818334227496</v>
       </c>
       <c r="F88">
         <f t="shared" ca="1" si="9"/>
-        <v>0.24714122870323718</v>
+        <v>0.5652524871129968</v>
       </c>
       <c r="G88">
         <f t="shared" ca="1" si="9"/>
-        <v>6.3023511231068419E-2</v>
+        <v>0.3857989632619776</v>
       </c>
       <c r="H88">
         <v>23</v>
@@ -27207,27 +27319,27 @@
     <row r="89" spans="1:13">
       <c r="A89">
         <f t="shared" ca="1" si="11"/>
-        <v>96</v>
+        <v>38</v>
       </c>
       <c r="B89">
         <f t="shared" ca="1" si="10"/>
-        <v>91</v>
+        <v>52</v>
       </c>
       <c r="C89">
         <f t="shared" ca="1" si="10"/>
-        <v>96</v>
+        <v>48</v>
       </c>
       <c r="E89">
         <f t="shared" ca="1" si="9"/>
-        <v>0.30602715295365635</v>
+        <v>0.4340008150250716</v>
       </c>
       <c r="F89">
         <f t="shared" ca="1" si="9"/>
-        <v>1.4584729930274931E-2</v>
+        <v>0.88562563444297815</v>
       </c>
       <c r="G89">
         <f t="shared" ca="1" si="9"/>
-        <v>0.15197701901637684</v>
+        <v>6.5343822238010163E-2</v>
       </c>
       <c r="H89">
         <v>23</v>
@@ -27251,7 +27363,7 @@
     <row r="90" spans="1:13">
       <c r="A90">
         <f t="shared" ca="1" si="11"/>
-        <v>31</v>
+        <v>78</v>
       </c>
       <c r="B90">
         <f t="shared" ca="1" si="10"/>
@@ -27259,19 +27371,19 @@
       </c>
       <c r="C90">
         <f t="shared" ca="1" si="10"/>
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="E90">
         <f t="shared" ca="1" si="9"/>
-        <v>0.35594492673635858</v>
+        <v>0.58923571406199615</v>
       </c>
       <c r="F90">
         <f t="shared" ca="1" si="9"/>
-        <v>0.13078203304541469</v>
+        <v>0.92061507572459433</v>
       </c>
       <c r="G90">
         <f t="shared" ca="1" si="9"/>
-        <v>6.1906827186040347E-2</v>
+        <v>0.22527139750718828</v>
       </c>
       <c r="H90">
         <v>23</v>
@@ -27295,27 +27407,27 @@
     <row r="91" spans="1:13">
       <c r="A91">
         <f t="shared" ca="1" si="11"/>
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B91">
         <f t="shared" ca="1" si="10"/>
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="C91">
         <f t="shared" ca="1" si="10"/>
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E91">
         <f t="shared" ca="1" si="9"/>
-        <v>0.90386686700562369</v>
+        <v>0.34165061859590096</v>
       </c>
       <c r="F91">
         <f t="shared" ca="1" si="9"/>
-        <v>0.8144476744881598</v>
+        <v>0.68206972698115709</v>
       </c>
       <c r="G91">
         <f t="shared" ca="1" si="9"/>
-        <v>0.51134109303903952</v>
+        <v>0.10000887257126501</v>
       </c>
       <c r="H91">
         <v>23</v>
@@ -27339,7 +27451,7 @@
     <row r="92" spans="1:13">
       <c r="A92">
         <f t="shared" ca="1" si="11"/>
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="B92">
         <f t="shared" ca="1" si="10"/>
@@ -27347,19 +27459,19 @@
       </c>
       <c r="C92">
         <f t="shared" ca="1" si="10"/>
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E92">
         <f t="shared" ca="1" si="9"/>
-        <v>0.42231594374266512</v>
+        <v>3.1609373349140935E-2</v>
       </c>
       <c r="F92">
         <f t="shared" ca="1" si="9"/>
-        <v>0.12880306953520992</v>
+        <v>0.89840073855419955</v>
       </c>
       <c r="G92">
         <f t="shared" ca="1" si="9"/>
-        <v>1.6993250932395676E-2</v>
+        <v>0.80524725197487801</v>
       </c>
       <c r="I92">
         <v>1</v>
@@ -27380,27 +27492,27 @@
     <row r="93" spans="1:13">
       <c r="A93">
         <f t="shared" ca="1" si="11"/>
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B93">
         <f t="shared" ca="1" si="10"/>
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="C93">
         <f t="shared" ca="1" si="10"/>
-        <v>81</v>
+        <v>29</v>
       </c>
       <c r="E93">
         <f t="shared" ca="1" si="9"/>
-        <v>0.86679241903767679</v>
+        <v>0.1176962458746561</v>
       </c>
       <c r="F93">
         <f t="shared" ca="1" si="9"/>
-        <v>0.54116588454679682</v>
+        <v>0.61402514031002919</v>
       </c>
       <c r="G93">
         <f t="shared" ca="1" si="9"/>
-        <v>0.88994809305691391</v>
+        <v>0.31250263256303601</v>
       </c>
       <c r="I93">
         <v>1</v>
@@ -27421,15 +27533,15 @@
     <row r="94" spans="1:13">
       <c r="A94">
         <f t="shared" ca="1" si="11"/>
-        <v>54</v>
+        <v>93</v>
       </c>
       <c r="B94">
         <f t="shared" ca="1" si="10"/>
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="C94">
         <f t="shared" ca="1" si="10"/>
-        <v>33</v>
+        <v>87</v>
       </c>
       <c r="I94">
         <v>1</v>
@@ -27518,19 +27630,19 @@
     <row r="104" spans="2:11">
       <c r="B104">
         <f ca="1">RAND()+G108</f>
-        <v>23.645648120641695</v>
+        <v>23.602017289798443</v>
       </c>
       <c r="C104">
         <f t="shared" ref="C104:E110" ca="1" si="12">RAND()+H108</f>
-        <v>23.181765249624451</v>
+        <v>23.456846804393226</v>
       </c>
       <c r="D104">
         <f t="shared" ca="1" si="12"/>
-        <v>23.547698079555182</v>
+        <v>23.802182128590381</v>
       </c>
       <c r="E104">
         <f t="shared" ca="1" si="12"/>
-        <v>26.82847305065193</v>
+        <v>26.022998416168065</v>
       </c>
       <c r="G104">
         <v>23</v>
@@ -27551,11 +27663,11 @@
     <row r="105" spans="2:11">
       <c r="B105">
         <f t="shared" ref="B105:B111" ca="1" si="13">RAND()+G109</f>
-        <v>0.6450995586702688</v>
+        <v>0.16894060568282199</v>
       </c>
       <c r="C105">
         <f ca="1">RAND()+G64</f>
-        <v>43.129526778440791</v>
+        <v>43.443101079693889</v>
       </c>
       <c r="G105">
         <v>23</v>
@@ -27576,11 +27688,11 @@
     <row r="106" spans="2:11">
       <c r="B106">
         <f t="shared" ca="1" si="13"/>
-        <v>0.33734199951627186</v>
+        <v>0.67473935936785101</v>
       </c>
       <c r="C106">
         <f t="shared" ca="1" si="12"/>
-        <v>0.12355116216066719</v>
+        <v>0.65263073839588592</v>
       </c>
       <c r="G106">
         <v>23</v>
@@ -27601,11 +27713,11 @@
     <row r="107" spans="2:11">
       <c r="B107">
         <f t="shared" ca="1" si="13"/>
-        <v>0.59839881244167747</v>
+        <v>0.15154355770411698</v>
       </c>
       <c r="C107">
         <f t="shared" ca="1" si="12"/>
-        <v>0.31412787647521478</v>
+        <v>0.51696634739871516</v>
       </c>
       <c r="G107">
         <v>23</v>
@@ -27626,11 +27738,11 @@
     <row r="108" spans="2:11">
       <c r="B108">
         <f t="shared" ca="1" si="13"/>
-        <v>0.64795497367560417</v>
+        <v>2.2848374030404184E-4</v>
       </c>
       <c r="C108">
         <f t="shared" ca="1" si="12"/>
-        <v>6.0679300820197679E-2</v>
+        <v>0.96521754011530003</v>
       </c>
       <c r="G108" s="114">
         <v>23</v>
@@ -27651,165 +27763,165 @@
     <row r="109" spans="2:11">
       <c r="B109">
         <f t="shared" ca="1" si="13"/>
-        <v>0.91701443471181365</v>
+        <v>0.44868734597523408</v>
       </c>
       <c r="C109">
         <f t="shared" ca="1" si="12"/>
-        <v>0.78151271963962443</v>
+        <v>0.26915300596276615</v>
       </c>
     </row>
     <row r="110" spans="2:11">
       <c r="B110">
         <f t="shared" ca="1" si="13"/>
-        <v>0.1146461450304278</v>
+        <v>0.52003333271015639</v>
       </c>
       <c r="C110">
         <f t="shared" ca="1" si="12"/>
-        <v>0.31887363408333325</v>
+        <v>1.0258582877004976</v>
       </c>
     </row>
     <row r="111" spans="2:11">
       <c r="B111">
         <f t="shared" ca="1" si="13"/>
-        <v>0.21218830891167062</v>
+        <v>0.81228634825642598</v>
       </c>
     </row>
     <row r="113" spans="2:11">
       <c r="I113">
         <f ca="1">RAND()+232</f>
-        <v>232.69035201856971</v>
+        <v>232.78283928837064</v>
       </c>
       <c r="J113">
         <f ca="1">RAND()+232</f>
-        <v>232.73775971172435</v>
+        <v>232.64418281208316</v>
       </c>
     </row>
     <row r="114" spans="2:11">
       <c r="H114">
         <f ca="1">RAND()</f>
-        <v>8.4768231717944786E-2</v>
+        <v>0.79809906594356461</v>
       </c>
       <c r="I114">
         <f t="shared" ref="I114:J120" ca="1" si="14">RAND()+232</f>
-        <v>232.48253787386457</v>
+        <v>232.17478059547503</v>
       </c>
       <c r="J114">
         <f t="shared" ca="1" si="14"/>
-        <v>232.95601549248366</v>
+        <v>232.99290507884936</v>
       </c>
     </row>
     <row r="115" spans="2:11">
       <c r="I115">
         <f t="shared" ca="1" si="14"/>
-        <v>232.36703384637772</v>
+        <v>232.96200562111463</v>
       </c>
       <c r="J115">
         <f t="shared" ca="1" si="14"/>
-        <v>232.85898113725989</v>
+        <v>232.33123949389548</v>
       </c>
     </row>
     <row r="116" spans="2:11">
       <c r="I116">
         <f t="shared" ca="1" si="14"/>
-        <v>232.44251453809375</v>
+        <v>232.58904146903737</v>
       </c>
       <c r="J116">
         <f t="shared" ca="1" si="14"/>
-        <v>232.83589578588737</v>
+        <v>232.81967491472642</v>
       </c>
     </row>
     <row r="117" spans="2:11">
       <c r="E117" s="148"/>
       <c r="I117">
         <f t="shared" ca="1" si="14"/>
-        <v>232.29449966275749</v>
+        <v>232.04710213085318</v>
       </c>
       <c r="J117">
         <f t="shared" ca="1" si="14"/>
-        <v>232.30435091254597</v>
+        <v>232.29735875287324</v>
       </c>
     </row>
     <row r="118" spans="2:11">
       <c r="I118">
         <f t="shared" ca="1" si="14"/>
-        <v>232.30423868618206</v>
+        <v>232.74197852201897</v>
       </c>
       <c r="J118">
         <f t="shared" ca="1" si="14"/>
-        <v>232.71359240093187</v>
+        <v>232.52336737826181</v>
       </c>
     </row>
     <row r="119" spans="2:11">
       <c r="B119">
         <f ca="1">RAND()+$G$108</f>
-        <v>23.985271793948449</v>
+        <v>23.518052509556746</v>
       </c>
       <c r="C119">
         <f t="shared" ref="C119:E119" ca="1" si="15">RAND()+$G$108</f>
-        <v>23.365220255990025</v>
+        <v>23.484096109470805</v>
       </c>
       <c r="D119">
         <f t="shared" ca="1" si="15"/>
-        <v>23.818638339654132</v>
+        <v>23.451382888440573</v>
       </c>
       <c r="E119">
         <f t="shared" ca="1" si="15"/>
-        <v>23.714072191662414</v>
+        <v>23.143598716446512</v>
       </c>
       <c r="I119">
         <f t="shared" ca="1" si="14"/>
-        <v>232.69418424644434</v>
+        <v>232.25363971301962</v>
       </c>
       <c r="J119">
         <f t="shared" ca="1" si="14"/>
-        <v>232.66038127489153</v>
+        <v>232.22832401810246</v>
       </c>
     </row>
     <row r="120" spans="2:11">
       <c r="B120">
         <f t="shared" ref="B120:E126" ca="1" si="16">RAND()+$G$108</f>
-        <v>23.304471710492507</v>
+        <v>23.676412956451045</v>
       </c>
       <c r="C120">
         <f t="shared" ca="1" si="16"/>
-        <v>23.056109665930073</v>
+        <v>23.566414775046294</v>
       </c>
       <c r="D120">
         <f t="shared" ca="1" si="16"/>
-        <v>23.486471808290215</v>
+        <v>23.87562640148553</v>
       </c>
       <c r="E120">
         <f t="shared" ca="1" si="16"/>
-        <v>23.88209363364183</v>
+        <v>23.923220839334753</v>
       </c>
       <c r="G120" s="149" t="s">
         <v>172</v>
       </c>
       <c r="I120">
         <f t="shared" ca="1" si="14"/>
-        <v>232.7491520117884</v>
+        <v>232.41535205042987</v>
       </c>
       <c r="J120">
         <f t="shared" ca="1" si="14"/>
-        <v>232.86810174317719</v>
+        <v>232.72223199804026</v>
       </c>
     </row>
     <row r="121" spans="2:11">
       <c r="B121">
         <f t="shared" ca="1" si="16"/>
-        <v>23.831552992559672</v>
+        <v>23.228284518590989</v>
       </c>
       <c r="C121">
         <f t="shared" ca="1" si="16"/>
-        <v>23.794780606827494</v>
+        <v>23.518727098033164</v>
       </c>
       <c r="D121">
         <f t="shared" ca="1" si="16"/>
-        <v>23.321929061052327</v>
+        <v>23.842050981389313</v>
       </c>
       <c r="E121">
         <f t="shared" ca="1" si="16"/>
-        <v>23.932620426914422</v>
+        <v>23.707456275801768</v>
       </c>
       <c r="H121" s="151">
         <v>0.9</v>
@@ -27818,19 +27930,19 @@
     <row r="122" spans="2:11">
       <c r="B122">
         <f t="shared" ca="1" si="16"/>
-        <v>23.068264842413516</v>
+        <v>23.993309803451737</v>
       </c>
       <c r="C122">
         <f t="shared" ca="1" si="16"/>
-        <v>23.914336173943749</v>
+        <v>23.287043164157787</v>
       </c>
       <c r="D122">
         <f t="shared" ca="1" si="16"/>
-        <v>23.559465916532673</v>
+        <v>23.48069096199178</v>
       </c>
       <c r="E122">
         <f t="shared" ca="1" si="16"/>
-        <v>23.873444568605898</v>
+        <v>23.40886004451054</v>
       </c>
       <c r="H122">
         <v>0.2</v>
@@ -27839,55 +27951,55 @@
     <row r="123" spans="2:11">
       <c r="B123">
         <f t="shared" ca="1" si="16"/>
-        <v>23.738496325862805</v>
+        <v>23.168256274493359</v>
       </c>
       <c r="C123">
         <f t="shared" ca="1" si="16"/>
-        <v>23.310271364124098</v>
+        <v>23.96653520650846</v>
       </c>
       <c r="D123">
         <f t="shared" ca="1" si="16"/>
-        <v>23.236960490078541</v>
+        <v>23.300268909634013</v>
       </c>
       <c r="E123">
         <f t="shared" ca="1" si="16"/>
-        <v>23.95717329211438</v>
+        <v>23.249849412170146</v>
       </c>
     </row>
     <row r="124" spans="2:11">
       <c r="B124">
         <f t="shared" ca="1" si="16"/>
-        <v>23.460272919155358</v>
+        <v>23.724862884780421</v>
       </c>
       <c r="C124">
         <f t="shared" ca="1" si="16"/>
-        <v>23.862987448623116</v>
+        <v>23.763156599255112</v>
       </c>
       <c r="D124">
         <f t="shared" ca="1" si="16"/>
-        <v>23.798521958540608</v>
+        <v>23.735325251445538</v>
       </c>
       <c r="E124">
         <f t="shared" ca="1" si="16"/>
-        <v>23.512468140583117</v>
+        <v>23.42375703886411</v>
       </c>
     </row>
     <row r="125" spans="2:11">
       <c r="B125">
         <f t="shared" ca="1" si="16"/>
-        <v>23.661073045943247</v>
+        <v>23.296939069212289</v>
       </c>
       <c r="C125">
         <f t="shared" ca="1" si="16"/>
-        <v>23.691125839590573</v>
+        <v>23.128775454137788</v>
       </c>
       <c r="D125">
         <f t="shared" ca="1" si="16"/>
-        <v>23.795819883850086</v>
+        <v>23.794730340440214</v>
       </c>
       <c r="E125">
         <f t="shared" ca="1" si="16"/>
-        <v>23.986737476081686</v>
+        <v>23.662395328734579</v>
       </c>
       <c r="J125" s="150"/>
       <c r="K125" s="150"/>
@@ -27895,19 +28007,19 @@
     <row r="126" spans="2:11">
       <c r="B126">
         <f t="shared" ca="1" si="16"/>
-        <v>23.574278661171174</v>
+        <v>23.210215562599512</v>
       </c>
       <c r="C126">
         <f t="shared" ca="1" si="16"/>
-        <v>23.750193892675064</v>
+        <v>23.421230000403657</v>
       </c>
       <c r="D126">
         <f t="shared" ca="1" si="16"/>
-        <v>23.540950971388153</v>
+        <v>23.292978079066533</v>
       </c>
       <c r="E126">
         <f t="shared" ca="1" si="16"/>
-        <v>23.362370935812493</v>
+        <v>23.028947064292797</v>
       </c>
       <c r="J126" s="150"/>
       <c r="K126" s="150"/>
@@ -27958,7 +28070,7 @@
       </c>
       <c r="I130" s="135">
         <f ca="1">TODAY()</f>
-        <v>44280</v>
+        <v>44294</v>
       </c>
       <c r="J130" s="150"/>
       <c r="K130" s="150"/>
@@ -27980,11 +28092,11 @@
     <row r="135" spans="1:11">
       <c r="I135">
         <f ca="1">I120</f>
-        <v>232.7491520117884</v>
+        <v>232.41535205042987</v>
       </c>
       <c r="J135">
         <f ca="1">J120</f>
-        <v>232.86810174317719</v>
+        <v>232.72223199804026</v>
       </c>
       <c r="K135">
         <f>K120</f>
@@ -28097,35 +28209,35 @@
     <row r="150" spans="8:15">
       <c r="H150">
         <f t="shared" ref="H150:O150" ca="1" si="27">RAND()+232</f>
-        <v>232.52263528957027</v>
+        <v>232.67475230092498</v>
       </c>
       <c r="I150">
         <f t="shared" ca="1" si="27"/>
-        <v>232.83675714440602</v>
+        <v>232.11542102606822</v>
       </c>
       <c r="J150">
         <f t="shared" ca="1" si="27"/>
-        <v>232.31365952589152</v>
+        <v>232.05206738478191</v>
       </c>
       <c r="K150">
         <f t="shared" ca="1" si="27"/>
-        <v>232.96103939226705</v>
+        <v>232.36105235217676</v>
       </c>
       <c r="L150">
         <f t="shared" ca="1" si="27"/>
-        <v>232.5780881497414</v>
+        <v>232.83964422913405</v>
       </c>
       <c r="M150">
         <f t="shared" ca="1" si="27"/>
-        <v>232.76081347483964</v>
+        <v>232.82728559620423</v>
       </c>
       <c r="N150">
         <f t="shared" ca="1" si="27"/>
-        <v>232.58499883697019</v>
+        <v>232.88326302451463</v>
       </c>
       <c r="O150">
         <f t="shared" ca="1" si="27"/>
-        <v>232.92968713267675</v>
+        <v>232.82638165459693</v>
       </c>
     </row>
   </sheetData>
@@ -28284,16 +28396,16 @@
       <c r="G1" s="52">
         <v>84</v>
       </c>
-      <c r="I1" s="244" t="s">
+      <c r="I1" s="250" t="s">
         <v>348</v>
       </c>
-      <c r="J1" s="244"/>
-      <c r="K1" s="244"/>
-      <c r="L1" s="244"/>
-      <c r="M1" s="244"/>
-      <c r="N1" s="244"/>
-      <c r="O1" s="244"/>
-      <c r="P1" s="244"/>
+      <c r="J1" s="250"/>
+      <c r="K1" s="250"/>
+      <c r="L1" s="250"/>
+      <c r="M1" s="250"/>
+      <c r="N1" s="250"/>
+      <c r="O1" s="250"/>
+      <c r="P1" s="250"/>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="67" t="s">
@@ -28317,25 +28429,25 @@
       <c r="G2" s="95">
         <v>81</v>
       </c>
-      <c r="I2" s="244"/>
-      <c r="J2" s="244"/>
-      <c r="K2" s="244"/>
-      <c r="L2" s="244"/>
-      <c r="M2" s="244"/>
-      <c r="N2" s="244"/>
-      <c r="O2" s="244"/>
-      <c r="P2" s="244"/>
+      <c r="I2" s="250"/>
+      <c r="J2" s="250"/>
+      <c r="K2" s="250"/>
+      <c r="L2" s="250"/>
+      <c r="M2" s="250"/>
+      <c r="N2" s="250"/>
+      <c r="O2" s="250"/>
+      <c r="P2" s="250"/>
     </row>
     <row r="3" spans="1:16">
-      <c r="J3" s="246" t="s">
+      <c r="J3" s="252" t="s">
         <v>350</v>
       </c>
-      <c r="K3" s="246"/>
-      <c r="L3" s="246"/>
-      <c r="M3" s="246"/>
-      <c r="N3" s="246"/>
-      <c r="O3" s="246"/>
-      <c r="P3" s="246"/>
+      <c r="K3" s="252"/>
+      <c r="L3" s="252"/>
+      <c r="M3" s="252"/>
+      <c r="N3" s="252"/>
+      <c r="O3" s="252"/>
+      <c r="P3" s="252"/>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="207"/>
@@ -28345,13 +28457,13 @@
       <c r="C4" s="209" t="s">
         <v>127</v>
       </c>
-      <c r="J4" s="246"/>
-      <c r="K4" s="246"/>
-      <c r="L4" s="246"/>
-      <c r="M4" s="246"/>
-      <c r="N4" s="246"/>
-      <c r="O4" s="246"/>
-      <c r="P4" s="246"/>
+      <c r="J4" s="252"/>
+      <c r="K4" s="252"/>
+      <c r="L4" s="252"/>
+      <c r="M4" s="252"/>
+      <c r="N4" s="252"/>
+      <c r="O4" s="252"/>
+      <c r="P4" s="252"/>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="210" t="s">
@@ -28363,13 +28475,13 @@
       <c r="C5" s="209">
         <v>76</v>
       </c>
-      <c r="J5" s="246"/>
-      <c r="K5" s="246"/>
-      <c r="L5" s="246"/>
-      <c r="M5" s="246"/>
-      <c r="N5" s="246"/>
-      <c r="O5" s="246"/>
-      <c r="P5" s="246"/>
+      <c r="J5" s="252"/>
+      <c r="K5" s="252"/>
+      <c r="L5" s="252"/>
+      <c r="M5" s="252"/>
+      <c r="N5" s="252"/>
+      <c r="O5" s="252"/>
+      <c r="P5" s="252"/>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="210" t="s">
@@ -28427,30 +28539,30 @@
       </c>
     </row>
     <row r="25" spans="6:15">
-      <c r="F25" s="245" t="s">
+      <c r="F25" s="251" t="s">
         <v>349</v>
       </c>
-      <c r="G25" s="245"/>
-      <c r="H25" s="245"/>
-      <c r="I25" s="245"/>
-      <c r="J25" s="245"/>
-      <c r="K25" s="245"/>
-      <c r="L25" s="245"/>
-      <c r="M25" s="245"/>
-      <c r="N25" s="245"/>
-      <c r="O25" s="245"/>
+      <c r="G25" s="251"/>
+      <c r="H25" s="251"/>
+      <c r="I25" s="251"/>
+      <c r="J25" s="251"/>
+      <c r="K25" s="251"/>
+      <c r="L25" s="251"/>
+      <c r="M25" s="251"/>
+      <c r="N25" s="251"/>
+      <c r="O25" s="251"/>
     </row>
     <row r="26" spans="6:15">
-      <c r="F26" s="245"/>
-      <c r="G26" s="245"/>
-      <c r="H26" s="245"/>
-      <c r="I26" s="245"/>
-      <c r="J26" s="245"/>
-      <c r="K26" s="245"/>
-      <c r="L26" s="245"/>
-      <c r="M26" s="245"/>
-      <c r="N26" s="245"/>
-      <c r="O26" s="245"/>
+      <c r="F26" s="251"/>
+      <c r="G26" s="251"/>
+      <c r="H26" s="251"/>
+      <c r="I26" s="251"/>
+      <c r="J26" s="251"/>
+      <c r="K26" s="251"/>
+      <c r="L26" s="251"/>
+      <c r="M26" s="251"/>
+      <c r="N26" s="251"/>
+      <c r="O26" s="251"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -28494,17 +28606,17 @@
       <c r="D1" s="213" t="s">
         <v>354</v>
       </c>
-      <c r="E1" s="247" t="s">
+      <c r="E1" s="253" t="s">
         <v>359</v>
       </c>
-      <c r="F1" s="247"/>
-      <c r="G1" s="247"/>
-      <c r="H1" s="247"/>
-      <c r="I1" s="247"/>
-      <c r="J1" s="247"/>
-      <c r="K1" s="247"/>
-      <c r="L1" s="247"/>
-      <c r="M1" s="247"/>
+      <c r="F1" s="253"/>
+      <c r="G1" s="253"/>
+      <c r="H1" s="253"/>
+      <c r="I1" s="253"/>
+      <c r="J1" s="253"/>
+      <c r="K1" s="253"/>
+      <c r="L1" s="253"/>
+      <c r="M1" s="253"/>
     </row>
     <row r="2" spans="1:13" ht="39.6" customHeight="1">
       <c r="A2" s="213" t="s">
@@ -28513,15 +28625,15 @@
       <c r="B2" s="213"/>
       <c r="C2" s="213"/>
       <c r="D2" s="213"/>
-      <c r="E2" s="247"/>
-      <c r="F2" s="247"/>
-      <c r="G2" s="247"/>
-      <c r="H2" s="247"/>
-      <c r="I2" s="247"/>
-      <c r="J2" s="247"/>
-      <c r="K2" s="247"/>
-      <c r="L2" s="247"/>
-      <c r="M2" s="247"/>
+      <c r="E2" s="253"/>
+      <c r="F2" s="253"/>
+      <c r="G2" s="253"/>
+      <c r="H2" s="253"/>
+      <c r="I2" s="253"/>
+      <c r="J2" s="253"/>
+      <c r="K2" s="253"/>
+      <c r="L2" s="253"/>
+      <c r="M2" s="253"/>
     </row>
     <row r="3" spans="1:13" ht="39.6" customHeight="1">
       <c r="A3" s="213" t="s">
@@ -28570,7 +28682,7 @@
   <dimension ref="A1:P17"/>
   <sheetViews>
     <sheetView topLeftCell="AR1" workbookViewId="0">
-      <selection activeCell="BN25" sqref="BN25"/>
+      <selection activeCell="BK20" sqref="BK20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -28582,18 +28694,18 @@
       <c r="B1" s="114" t="s">
         <v>361</v>
       </c>
-      <c r="G1" s="245" t="s">
+      <c r="G1" s="251" t="s">
         <v>362</v>
       </c>
-      <c r="H1" s="245"/>
-      <c r="I1" s="245"/>
-      <c r="J1" s="245"/>
-      <c r="K1" s="245"/>
-      <c r="L1" s="245"/>
-      <c r="M1" s="245"/>
-      <c r="N1" s="245"/>
-      <c r="O1" s="245"/>
-      <c r="P1" s="245"/>
+      <c r="H1" s="251"/>
+      <c r="I1" s="251"/>
+      <c r="J1" s="251"/>
+      <c r="K1" s="251"/>
+      <c r="L1" s="251"/>
+      <c r="M1" s="251"/>
+      <c r="N1" s="251"/>
+      <c r="O1" s="251"/>
+      <c r="P1" s="251"/>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="214">
@@ -28605,16 +28717,16 @@
       <c r="C2">
         <v>200</v>
       </c>
-      <c r="G2" s="245"/>
-      <c r="H2" s="245"/>
-      <c r="I2" s="245"/>
-      <c r="J2" s="245"/>
-      <c r="K2" s="245"/>
-      <c r="L2" s="245"/>
-      <c r="M2" s="245"/>
-      <c r="N2" s="245"/>
-      <c r="O2" s="245"/>
-      <c r="P2" s="245"/>
+      <c r="G2" s="251"/>
+      <c r="H2" s="251"/>
+      <c r="I2" s="251"/>
+      <c r="J2" s="251"/>
+      <c r="K2" s="251"/>
+      <c r="L2" s="251"/>
+      <c r="M2" s="251"/>
+      <c r="N2" s="251"/>
+      <c r="O2" s="251"/>
+      <c r="P2" s="251"/>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="214">
@@ -28784,9 +28896,7 @@
   <sheetPr codeName="Sheet15"/>
   <dimension ref="A1:P31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
@@ -28893,7 +29003,7 @@
       <c r="B13">
         <v>9.9</v>
       </c>
-      <c r="P13" s="251" t="s">
+      <c r="P13" s="219" t="s">
         <v>383</v>
       </c>
     </row>
@@ -28906,75 +29016,75 @@
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="248" t="s">
+      <c r="A24" s="254" t="s">
         <v>365</v>
       </c>
-      <c r="B24" s="248"/>
-      <c r="C24" s="248"/>
-      <c r="D24" s="248"/>
-      <c r="E24" s="248"/>
-      <c r="F24" s="248"/>
-      <c r="G24" s="248"/>
+      <c r="B24" s="254"/>
+      <c r="C24" s="254"/>
+      <c r="D24" s="254"/>
+      <c r="E24" s="254"/>
+      <c r="F24" s="254"/>
+      <c r="G24" s="254"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="248"/>
-      <c r="B25" s="248"/>
-      <c r="C25" s="248"/>
-      <c r="D25" s="248"/>
-      <c r="E25" s="248"/>
-      <c r="F25" s="248"/>
-      <c r="G25" s="248"/>
+      <c r="A25" s="254"/>
+      <c r="B25" s="254"/>
+      <c r="C25" s="254"/>
+      <c r="D25" s="254"/>
+      <c r="E25" s="254"/>
+      <c r="F25" s="254"/>
+      <c r="G25" s="254"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="248"/>
-      <c r="B26" s="248"/>
-      <c r="C26" s="248"/>
-      <c r="D26" s="248"/>
-      <c r="E26" s="248"/>
-      <c r="F26" s="248"/>
-      <c r="G26" s="248"/>
+      <c r="A26" s="254"/>
+      <c r="B26" s="254"/>
+      <c r="C26" s="254"/>
+      <c r="D26" s="254"/>
+      <c r="E26" s="254"/>
+      <c r="F26" s="254"/>
+      <c r="G26" s="254"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="249" t="s">
+      <c r="A28" s="255" t="s">
         <v>366</v>
       </c>
-      <c r="B28" s="249"/>
-      <c r="C28" s="249"/>
-      <c r="D28" s="249"/>
-      <c r="E28" s="249"/>
-      <c r="F28" s="249"/>
-      <c r="G28" s="249"/>
-      <c r="H28" s="249"/>
+      <c r="B28" s="255"/>
+      <c r="C28" s="255"/>
+      <c r="D28" s="255"/>
+      <c r="E28" s="255"/>
+      <c r="F28" s="255"/>
+      <c r="G28" s="255"/>
+      <c r="H28" s="255"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="249"/>
-      <c r="B29" s="249"/>
-      <c r="C29" s="249"/>
-      <c r="D29" s="249"/>
-      <c r="E29" s="249"/>
-      <c r="F29" s="249"/>
-      <c r="G29" s="249"/>
-      <c r="H29" s="249"/>
+      <c r="A29" s="255"/>
+      <c r="B29" s="255"/>
+      <c r="C29" s="255"/>
+      <c r="D29" s="255"/>
+      <c r="E29" s="255"/>
+      <c r="F29" s="255"/>
+      <c r="G29" s="255"/>
+      <c r="H29" s="255"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="249"/>
-      <c r="B30" s="249"/>
-      <c r="C30" s="249"/>
-      <c r="D30" s="249"/>
-      <c r="E30" s="249"/>
-      <c r="F30" s="249"/>
-      <c r="G30" s="249"/>
-      <c r="H30" s="249"/>
+      <c r="A30" s="255"/>
+      <c r="B30" s="255"/>
+      <c r="C30" s="255"/>
+      <c r="D30" s="255"/>
+      <c r="E30" s="255"/>
+      <c r="F30" s="255"/>
+      <c r="G30" s="255"/>
+      <c r="H30" s="255"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="249"/>
-      <c r="B31" s="249"/>
-      <c r="C31" s="249"/>
-      <c r="D31" s="249"/>
-      <c r="E31" s="249"/>
-      <c r="F31" s="249"/>
-      <c r="G31" s="249"/>
-      <c r="H31" s="249"/>
+      <c r="A31" s="255"/>
+      <c r="B31" s="255"/>
+      <c r="C31" s="255"/>
+      <c r="D31" s="255"/>
+      <c r="E31" s="255"/>
+      <c r="F31" s="255"/>
+      <c r="G31" s="255"/>
+      <c r="H31" s="255"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -28988,6 +29098,48 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62E67405-8277-4BD3-A134-3765EF033779}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData/>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74B47A76-8588-4CC1-8066-96D207F9B322}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData/>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84110831-8153-49EE-8C1E-81BD86CD923A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData/>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{748CCA6D-F0E3-4406-827B-55AFAB277D95}">
   <sheetPr codeName="Sheet16"/>
   <dimension ref="A1:N28"/>
@@ -29074,46 +29226,46 @@
       </c>
     </row>
     <row r="25" spans="7:14">
-      <c r="G25" s="250" t="s">
+      <c r="G25" s="247" t="s">
         <v>367</v>
       </c>
-      <c r="H25" s="250"/>
-      <c r="I25" s="250"/>
-      <c r="J25" s="250"/>
-      <c r="K25" s="250"/>
-      <c r="L25" s="250"/>
-      <c r="M25" s="250"/>
-      <c r="N25" s="250"/>
+      <c r="H25" s="247"/>
+      <c r="I25" s="247"/>
+      <c r="J25" s="247"/>
+      <c r="K25" s="247"/>
+      <c r="L25" s="247"/>
+      <c r="M25" s="247"/>
+      <c r="N25" s="247"/>
     </row>
     <row r="26" spans="7:14">
-      <c r="G26" s="250"/>
-      <c r="H26" s="250"/>
-      <c r="I26" s="250"/>
-      <c r="J26" s="250"/>
-      <c r="K26" s="250"/>
-      <c r="L26" s="250"/>
-      <c r="M26" s="250"/>
-      <c r="N26" s="250"/>
+      <c r="G26" s="247"/>
+      <c r="H26" s="247"/>
+      <c r="I26" s="247"/>
+      <c r="J26" s="247"/>
+      <c r="K26" s="247"/>
+      <c r="L26" s="247"/>
+      <c r="M26" s="247"/>
+      <c r="N26" s="247"/>
     </row>
     <row r="27" spans="7:14">
-      <c r="G27" s="250"/>
-      <c r="H27" s="250"/>
-      <c r="I27" s="250"/>
-      <c r="J27" s="250"/>
-      <c r="K27" s="250"/>
-      <c r="L27" s="250"/>
-      <c r="M27" s="250"/>
-      <c r="N27" s="250"/>
+      <c r="G27" s="247"/>
+      <c r="H27" s="247"/>
+      <c r="I27" s="247"/>
+      <c r="J27" s="247"/>
+      <c r="K27" s="247"/>
+      <c r="L27" s="247"/>
+      <c r="M27" s="247"/>
+      <c r="N27" s="247"/>
     </row>
     <row r="28" spans="7:14">
-      <c r="G28" s="250"/>
-      <c r="H28" s="250"/>
-      <c r="I28" s="250"/>
-      <c r="J28" s="250"/>
-      <c r="K28" s="250"/>
-      <c r="L28" s="250"/>
-      <c r="M28" s="250"/>
-      <c r="N28" s="250"/>
+      <c r="G28" s="247"/>
+      <c r="H28" s="247"/>
+      <c r="I28" s="247"/>
+      <c r="J28" s="247"/>
+      <c r="K28" s="247"/>
+      <c r="L28" s="247"/>
+      <c r="M28" s="247"/>
+      <c r="N28" s="247"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -29125,7 +29277,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CA44147-61EA-4A3C-A7B5-4AF656E9B672}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:X29"/>
@@ -29709,19 +29861,19 @@
         <f t="shared" ca="1" si="0"/>
         <v>16</v>
       </c>
-      <c r="N25" s="250" t="s">
+      <c r="N25" s="247" t="s">
         <v>381</v>
       </c>
-      <c r="O25" s="250"/>
-      <c r="P25" s="250"/>
-      <c r="Q25" s="250"/>
-      <c r="R25" s="250"/>
-      <c r="S25" s="250"/>
-      <c r="T25" s="250"/>
-      <c r="U25" s="250"/>
-      <c r="V25" s="250"/>
-      <c r="W25" s="250"/>
-      <c r="X25" s="250"/>
+      <c r="O25" s="247"/>
+      <c r="P25" s="247"/>
+      <c r="Q25" s="247"/>
+      <c r="R25" s="247"/>
+      <c r="S25" s="247"/>
+      <c r="T25" s="247"/>
+      <c r="U25" s="247"/>
+      <c r="V25" s="247"/>
+      <c r="W25" s="247"/>
+      <c r="X25" s="247"/>
     </row>
     <row r="26" spans="1:24">
       <c r="A26" s="114" t="s">
@@ -29731,17 +29883,17 @@
         <f t="shared" ca="1" si="0"/>
         <v>11</v>
       </c>
-      <c r="N26" s="250"/>
-      <c r="O26" s="250"/>
-      <c r="P26" s="250"/>
-      <c r="Q26" s="250"/>
-      <c r="R26" s="250"/>
-      <c r="S26" s="250"/>
-      <c r="T26" s="250"/>
-      <c r="U26" s="250"/>
-      <c r="V26" s="250"/>
-      <c r="W26" s="250"/>
-      <c r="X26" s="250"/>
+      <c r="N26" s="247"/>
+      <c r="O26" s="247"/>
+      <c r="P26" s="247"/>
+      <c r="Q26" s="247"/>
+      <c r="R26" s="247"/>
+      <c r="S26" s="247"/>
+      <c r="T26" s="247"/>
+      <c r="U26" s="247"/>
+      <c r="V26" s="247"/>
+      <c r="W26" s="247"/>
+      <c r="X26" s="247"/>
     </row>
     <row r="27" spans="1:24">
       <c r="A27" s="114" t="s">
@@ -29751,45 +29903,45 @@
         <f t="shared" ca="1" si="0"/>
         <v>12</v>
       </c>
-      <c r="N27" s="250"/>
-      <c r="O27" s="250"/>
-      <c r="P27" s="250"/>
-      <c r="Q27" s="250"/>
-      <c r="R27" s="250"/>
-      <c r="S27" s="250"/>
-      <c r="T27" s="250"/>
-      <c r="U27" s="250"/>
-      <c r="V27" s="250"/>
-      <c r="W27" s="250"/>
-      <c r="X27" s="250"/>
+      <c r="N27" s="247"/>
+      <c r="O27" s="247"/>
+      <c r="P27" s="247"/>
+      <c r="Q27" s="247"/>
+      <c r="R27" s="247"/>
+      <c r="S27" s="247"/>
+      <c r="T27" s="247"/>
+      <c r="U27" s="247"/>
+      <c r="V27" s="247"/>
+      <c r="W27" s="247"/>
+      <c r="X27" s="247"/>
     </row>
     <row r="28" spans="1:24">
       <c r="A28" s="114"/>
       <c r="B28" s="218"/>
-      <c r="N28" s="250"/>
-      <c r="O28" s="250"/>
-      <c r="P28" s="250"/>
-      <c r="Q28" s="250"/>
-      <c r="R28" s="250"/>
-      <c r="S28" s="250"/>
-      <c r="T28" s="250"/>
-      <c r="U28" s="250"/>
-      <c r="V28" s="250"/>
-      <c r="W28" s="250"/>
-      <c r="X28" s="250"/>
+      <c r="N28" s="247"/>
+      <c r="O28" s="247"/>
+      <c r="P28" s="247"/>
+      <c r="Q28" s="247"/>
+      <c r="R28" s="247"/>
+      <c r="S28" s="247"/>
+      <c r="T28" s="247"/>
+      <c r="U28" s="247"/>
+      <c r="V28" s="247"/>
+      <c r="W28" s="247"/>
+      <c r="X28" s="247"/>
     </row>
     <row r="29" spans="1:24">
-      <c r="N29" s="250"/>
-      <c r="O29" s="250"/>
-      <c r="P29" s="250"/>
-      <c r="Q29" s="250"/>
-      <c r="R29" s="250"/>
-      <c r="S29" s="250"/>
-      <c r="T29" s="250"/>
-      <c r="U29" s="250"/>
-      <c r="V29" s="250"/>
-      <c r="W29" s="250"/>
-      <c r="X29" s="250"/>
+      <c r="N29" s="247"/>
+      <c r="O29" s="247"/>
+      <c r="P29" s="247"/>
+      <c r="Q29" s="247"/>
+      <c r="R29" s="247"/>
+      <c r="S29" s="247"/>
+      <c r="T29" s="247"/>
+      <c r="U29" s="247"/>
+      <c r="V29" s="247"/>
+      <c r="W29" s="247"/>
+      <c r="X29" s="247"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -29853,7 +30005,21 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F23F1FFF-F1E6-4272-BF5F-DE28AE47703F}">
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData/>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B13DD1EE-D51E-4868-B4C4-3F2DF9965271}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -29866,7 +30032,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D53BC28-B415-40B7-AD18-DFBD7E1D006B}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -29879,7 +30045,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28E254D6-4609-4ED9-946B-5E617C6768D2}">
   <dimension ref="D1:AC1048550"/>
   <sheetViews>
@@ -30631,20 +30797,6 @@
   <printOptions gridLines="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F23F1FFF-F1E6-4272-BF5F-DE28AE47703F}">
-  <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <sheetData/>
-  <phoneticPr fontId="9" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -33038,37 +33190,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="14.4" customHeight="1">
-      <c r="A1" s="221" t="s">
+      <c r="A1" s="232" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="221" t="s">
+      <c r="B1" s="232" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="221" t="s">
+      <c r="C1" s="232" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="221" t="s">
+      <c r="D1" s="232" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="224"/>
-      <c r="F1" s="225"/>
-      <c r="G1" s="225"/>
-      <c r="H1" s="225"/>
-      <c r="I1" s="225"/>
-      <c r="J1" s="225"/>
-      <c r="K1" s="225"/>
-      <c r="L1" s="225"/>
-      <c r="M1" s="225"/>
-      <c r="N1" s="225"/>
-      <c r="O1" s="225"/>
-      <c r="P1" s="226"/>
-      <c r="Q1" s="221" t="s">
+      <c r="E1" s="235"/>
+      <c r="F1" s="236"/>
+      <c r="G1" s="236"/>
+      <c r="H1" s="236"/>
+      <c r="I1" s="236"/>
+      <c r="J1" s="236"/>
+      <c r="K1" s="236"/>
+      <c r="L1" s="236"/>
+      <c r="M1" s="236"/>
+      <c r="N1" s="236"/>
+      <c r="O1" s="236"/>
+      <c r="P1" s="237"/>
+      <c r="Q1" s="232" t="s">
         <v>4</v>
       </c>
-      <c r="R1" s="221" t="s">
+      <c r="R1" s="232" t="s">
         <v>5</v>
       </c>
-      <c r="S1" s="221" t="s">
+      <c r="S1" s="232" t="s">
         <v>6</v>
       </c>
       <c r="T1" s="114" t="s">
@@ -33079,10 +33231,10 @@
       </c>
     </row>
     <row r="2" spans="1:31" ht="86.4">
-      <c r="A2" s="222"/>
-      <c r="B2" s="222"/>
-      <c r="C2" s="222"/>
-      <c r="D2" s="222"/>
+      <c r="A2" s="233"/>
+      <c r="B2" s="233"/>
+      <c r="C2" s="233"/>
+      <c r="D2" s="233"/>
       <c r="E2" s="115" t="s">
         <v>7</v>
       </c>
@@ -33119,9 +33271,9 @@
       <c r="P2" s="115" t="s">
         <v>18</v>
       </c>
-      <c r="Q2" s="222"/>
-      <c r="R2" s="222"/>
-      <c r="S2" s="222"/>
+      <c r="Q2" s="233"/>
+      <c r="R2" s="233"/>
+      <c r="S2" s="233"/>
       <c r="T2" s="114" t="s">
         <v>174</v>
       </c>
@@ -34786,41 +34938,41 @@
       </c>
     </row>
     <row r="34" spans="1:21">
-      <c r="D34" s="227" t="s">
+      <c r="D34" s="238" t="s">
         <v>250</v>
       </c>
-      <c r="E34" s="227"/>
-      <c r="F34" s="227"/>
-      <c r="G34" s="227"/>
-      <c r="H34" s="227"/>
-      <c r="I34" s="227"/>
-      <c r="J34" s="227"/>
-      <c r="K34" s="227"/>
-      <c r="L34" s="228" t="s">
+      <c r="E34" s="238"/>
+      <c r="F34" s="238"/>
+      <c r="G34" s="238"/>
+      <c r="H34" s="238"/>
+      <c r="I34" s="238"/>
+      <c r="J34" s="238"/>
+      <c r="K34" s="238"/>
+      <c r="L34" s="239" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="35" spans="1:21">
-      <c r="D35" s="227"/>
-      <c r="E35" s="227"/>
-      <c r="F35" s="227"/>
-      <c r="G35" s="227"/>
-      <c r="H35" s="227"/>
-      <c r="I35" s="227"/>
-      <c r="J35" s="227"/>
-      <c r="K35" s="227"/>
-      <c r="L35" s="228"/>
+      <c r="D35" s="238"/>
+      <c r="E35" s="238"/>
+      <c r="F35" s="238"/>
+      <c r="G35" s="238"/>
+      <c r="H35" s="238"/>
+      <c r="I35" s="238"/>
+      <c r="J35" s="238"/>
+      <c r="K35" s="238"/>
+      <c r="L35" s="239"/>
     </row>
     <row r="36" spans="1:21">
-      <c r="D36" s="227"/>
-      <c r="E36" s="227"/>
-      <c r="F36" s="227"/>
-      <c r="G36" s="227"/>
-      <c r="H36" s="227"/>
-      <c r="I36" s="227"/>
-      <c r="J36" s="227"/>
-      <c r="K36" s="227"/>
-      <c r="L36" s="228"/>
+      <c r="D36" s="238"/>
+      <c r="E36" s="238"/>
+      <c r="F36" s="238"/>
+      <c r="G36" s="238"/>
+      <c r="H36" s="238"/>
+      <c r="I36" s="238"/>
+      <c r="J36" s="238"/>
+      <c r="K36" s="238"/>
+      <c r="L36" s="239"/>
     </row>
     <row r="37" spans="1:21">
       <c r="D37" s="190"/>
@@ -34831,7 +34983,7 @@
       <c r="I37" s="190"/>
       <c r="J37" s="190"/>
       <c r="K37" s="190"/>
-      <c r="L37" s="228"/>
+      <c r="L37" s="239"/>
     </row>
     <row r="38" spans="1:21">
       <c r="D38" s="190"/>
@@ -34842,7 +34994,7 @@
       <c r="I38" s="190"/>
       <c r="J38" s="190"/>
       <c r="K38" s="190"/>
-      <c r="L38" s="228"/>
+      <c r="L38" s="239"/>
     </row>
     <row r="39" spans="1:21">
       <c r="D39" s="190"/>
@@ -34853,7 +35005,7 @@
       <c r="I39" s="190"/>
       <c r="J39" s="190"/>
       <c r="K39" s="190"/>
-      <c r="L39" s="228"/>
+      <c r="L39" s="239"/>
     </row>
     <row r="40" spans="1:21">
       <c r="D40" s="190"/>
@@ -34867,7 +35019,7 @@
       <c r="I40" s="190"/>
       <c r="J40" s="190"/>
       <c r="K40" s="190"/>
-      <c r="L40" s="228"/>
+      <c r="L40" s="239"/>
     </row>
     <row r="41" spans="1:21">
       <c r="D41" s="190"/>
@@ -34885,7 +35037,7 @@
         <v>15</v>
       </c>
       <c r="K41" s="190"/>
-      <c r="L41" s="228"/>
+      <c r="L41" s="239"/>
       <c r="O41">
         <v>1</v>
       </c>
@@ -34911,7 +35063,7 @@
         <v>25</v>
       </c>
       <c r="K42" s="190"/>
-      <c r="L42" s="228"/>
+      <c r="L42" s="239"/>
       <c r="O42">
         <v>2</v>
       </c>
@@ -34933,7 +35085,7 @@
       <c r="I43" s="190"/>
       <c r="J43" s="190"/>
       <c r="K43" s="190"/>
-      <c r="L43" s="228"/>
+      <c r="L43" s="239"/>
       <c r="O43">
         <v>3</v>
       </c>
@@ -34958,7 +35110,7 @@
         <v>375</v>
       </c>
       <c r="K44" s="190"/>
-      <c r="L44" s="228"/>
+      <c r="L44" s="239"/>
       <c r="O44">
         <v>4</v>
       </c>
@@ -34980,7 +35132,7 @@
       <c r="I45" s="190"/>
       <c r="J45" s="190"/>
       <c r="K45" s="190"/>
-      <c r="L45" s="228"/>
+      <c r="L45" s="239"/>
       <c r="O45">
         <v>5</v>
       </c>
@@ -35002,7 +35154,7 @@
       <c r="I46" s="190"/>
       <c r="J46" s="190"/>
       <c r="K46" s="190"/>
-      <c r="L46" s="228"/>
+      <c r="L46" s="239"/>
       <c r="O46">
         <v>6</v>
       </c>
@@ -35024,7 +35176,7 @@
       <c r="I47" s="190"/>
       <c r="J47" s="190"/>
       <c r="K47" s="190"/>
-      <c r="L47" s="228"/>
+      <c r="L47" s="239"/>
       <c r="O47">
         <v>7</v>
       </c>
@@ -35063,39 +35215,39 @@
       </c>
     </row>
     <row r="50" spans="4:23">
-      <c r="D50" s="230" t="s">
+      <c r="D50" s="225" t="s">
         <v>285</v>
       </c>
-      <c r="E50" s="230"/>
-      <c r="F50" s="230"/>
-      <c r="G50" s="230"/>
+      <c r="E50" s="225"/>
+      <c r="F50" s="225"/>
+      <c r="G50" s="225"/>
     </row>
     <row r="51" spans="4:23">
-      <c r="D51" s="230"/>
-      <c r="E51" s="230"/>
-      <c r="F51" s="230"/>
-      <c r="G51" s="230"/>
+      <c r="D51" s="225"/>
+      <c r="E51" s="225"/>
+      <c r="F51" s="225"/>
+      <c r="G51" s="225"/>
     </row>
     <row r="52" spans="4:23">
-      <c r="D52" s="231" t="str">
+      <c r="D52" s="226" t="str">
         <f>IF(O49&gt;=S49,"0","1")</f>
         <v>1</v>
       </c>
-      <c r="E52" s="231"/>
-      <c r="F52" s="231"/>
-      <c r="G52" s="231"/>
+      <c r="E52" s="226"/>
+      <c r="F52" s="226"/>
+      <c r="G52" s="226"/>
     </row>
     <row r="53" spans="4:23">
-      <c r="D53" s="231"/>
-      <c r="E53" s="231"/>
-      <c r="F53" s="231"/>
-      <c r="G53" s="231"/>
+      <c r="D53" s="226"/>
+      <c r="E53" s="226"/>
+      <c r="F53" s="226"/>
+      <c r="G53" s="226"/>
     </row>
     <row r="54" spans="4:23">
-      <c r="D54" s="231"/>
-      <c r="E54" s="231"/>
-      <c r="F54" s="231"/>
-      <c r="G54" s="231"/>
+      <c r="D54" s="226"/>
+      <c r="E54" s="226"/>
+      <c r="F54" s="226"/>
+      <c r="G54" s="226"/>
     </row>
     <row r="55" spans="4:23">
       <c r="K55" s="188"/>
@@ -35508,14 +35660,14 @@
       </c>
     </row>
     <row r="63" spans="4:23">
-      <c r="D63" s="234" t="s">
+      <c r="D63" s="229" t="s">
         <v>254</v>
       </c>
-      <c r="E63" s="234"/>
-      <c r="F63" s="234"/>
-      <c r="G63" s="234"/>
-      <c r="H63" s="234"/>
-      <c r="I63" s="234"/>
+      <c r="E63" s="229"/>
+      <c r="F63" s="229"/>
+      <c r="G63" s="229"/>
+      <c r="H63" s="229"/>
+      <c r="I63" s="229"/>
       <c r="K63" s="188">
         <v>8</v>
       </c>
@@ -35569,12 +35721,12 @@
       </c>
     </row>
     <row r="64" spans="4:23">
-      <c r="D64" s="234"/>
-      <c r="E64" s="234"/>
-      <c r="F64" s="234"/>
-      <c r="G64" s="234"/>
-      <c r="H64" s="234"/>
-      <c r="I64" s="234"/>
+      <c r="D64" s="229"/>
+      <c r="E64" s="229"/>
+      <c r="F64" s="229"/>
+      <c r="G64" s="229"/>
+      <c r="H64" s="229"/>
+      <c r="I64" s="229"/>
       <c r="K64" s="188">
         <v>9</v>
       </c>
@@ -35836,28 +35988,28 @@
         <v>12</v>
       </c>
       <c r="L68" s="189"/>
-      <c r="N68" s="223" t="s">
+      <c r="N68" s="234" t="s">
         <v>176</v>
       </c>
-      <c r="O68" s="223"/>
-      <c r="P68" s="223"/>
-      <c r="Q68" s="223"/>
-      <c r="R68" s="223"/>
-      <c r="S68" s="223"/>
-      <c r="T68" s="223"/>
-      <c r="U68" s="223"/>
-      <c r="V68" s="223"/>
+      <c r="O68" s="234"/>
+      <c r="P68" s="234"/>
+      <c r="Q68" s="234"/>
+      <c r="R68" s="234"/>
+      <c r="S68" s="234"/>
+      <c r="T68" s="234"/>
+      <c r="U68" s="234"/>
+      <c r="V68" s="234"/>
     </row>
     <row r="69" spans="3:37" ht="14.4" customHeight="1">
-      <c r="N69" s="223"/>
-      <c r="O69" s="223"/>
-      <c r="P69" s="223"/>
-      <c r="Q69" s="223"/>
-      <c r="R69" s="223"/>
-      <c r="S69" s="223"/>
-      <c r="T69" s="223"/>
-      <c r="U69" s="223"/>
-      <c r="V69" s="223"/>
+      <c r="N69" s="234"/>
+      <c r="O69" s="234"/>
+      <c r="P69" s="234"/>
+      <c r="Q69" s="234"/>
+      <c r="R69" s="234"/>
+      <c r="S69" s="234"/>
+      <c r="T69" s="234"/>
+      <c r="U69" s="234"/>
+      <c r="V69" s="234"/>
     </row>
     <row r="70" spans="3:37">
       <c r="N70" s="188" t="s">
@@ -35945,19 +36097,19 @@
       <c r="V72" s="188" t="s">
         <v>178</v>
       </c>
-      <c r="AA72" s="219" t="s">
+      <c r="AA72" s="230" t="s">
         <v>238</v>
       </c>
-      <c r="AB72" s="219"/>
-      <c r="AC72" s="219"/>
-      <c r="AD72" s="219"/>
-      <c r="AE72" s="219"/>
-      <c r="AF72" s="219"/>
-      <c r="AG72" s="219"/>
-      <c r="AH72" s="219"/>
-      <c r="AI72" s="219"/>
-      <c r="AJ72" s="219"/>
-      <c r="AK72" s="219"/>
+      <c r="AB72" s="230"/>
+      <c r="AC72" s="230"/>
+      <c r="AD72" s="230"/>
+      <c r="AE72" s="230"/>
+      <c r="AF72" s="230"/>
+      <c r="AG72" s="230"/>
+      <c r="AH72" s="230"/>
+      <c r="AI72" s="230"/>
+      <c r="AJ72" s="230"/>
+      <c r="AK72" s="230"/>
     </row>
     <row r="73" spans="3:37">
       <c r="N73" s="188" t="s">
@@ -35987,17 +36139,17 @@
       <c r="V73" s="188" t="s">
         <v>178</v>
       </c>
-      <c r="AA73" s="219"/>
-      <c r="AB73" s="219"/>
-      <c r="AC73" s="219"/>
-      <c r="AD73" s="219"/>
-      <c r="AE73" s="219"/>
-      <c r="AF73" s="219"/>
-      <c r="AG73" s="219"/>
-      <c r="AH73" s="219"/>
-      <c r="AI73" s="219"/>
-      <c r="AJ73" s="219"/>
-      <c r="AK73" s="219"/>
+      <c r="AA73" s="230"/>
+      <c r="AB73" s="230"/>
+      <c r="AC73" s="230"/>
+      <c r="AD73" s="230"/>
+      <c r="AE73" s="230"/>
+      <c r="AF73" s="230"/>
+      <c r="AG73" s="230"/>
+      <c r="AH73" s="230"/>
+      <c r="AI73" s="230"/>
+      <c r="AJ73" s="230"/>
+      <c r="AK73" s="230"/>
     </row>
     <row r="74" spans="3:37">
       <c r="N74" s="188" t="s">
@@ -36027,17 +36179,17 @@
       <c r="V74" s="188" t="s">
         <v>178</v>
       </c>
-      <c r="AA74" s="219"/>
-      <c r="AB74" s="219"/>
-      <c r="AC74" s="219"/>
-      <c r="AD74" s="219"/>
-      <c r="AE74" s="219"/>
-      <c r="AF74" s="219"/>
-      <c r="AG74" s="219"/>
-      <c r="AH74" s="219"/>
-      <c r="AI74" s="219"/>
-      <c r="AJ74" s="219"/>
-      <c r="AK74" s="219"/>
+      <c r="AA74" s="230"/>
+      <c r="AB74" s="230"/>
+      <c r="AC74" s="230"/>
+      <c r="AD74" s="230"/>
+      <c r="AE74" s="230"/>
+      <c r="AF74" s="230"/>
+      <c r="AG74" s="230"/>
+      <c r="AH74" s="230"/>
+      <c r="AI74" s="230"/>
+      <c r="AJ74" s="230"/>
+      <c r="AK74" s="230"/>
     </row>
     <row r="75" spans="3:37">
       <c r="N75" s="188" t="s">
@@ -36067,17 +36219,17 @@
       <c r="V75" s="188" t="s">
         <v>178</v>
       </c>
-      <c r="AA75" s="219"/>
-      <c r="AB75" s="219"/>
-      <c r="AC75" s="219"/>
-      <c r="AD75" s="219"/>
-      <c r="AE75" s="219"/>
-      <c r="AF75" s="219"/>
-      <c r="AG75" s="219"/>
-      <c r="AH75" s="219"/>
-      <c r="AI75" s="219"/>
-      <c r="AJ75" s="219"/>
-      <c r="AK75" s="219"/>
+      <c r="AA75" s="230"/>
+      <c r="AB75" s="230"/>
+      <c r="AC75" s="230"/>
+      <c r="AD75" s="230"/>
+      <c r="AE75" s="230"/>
+      <c r="AF75" s="230"/>
+      <c r="AG75" s="230"/>
+      <c r="AH75" s="230"/>
+      <c r="AI75" s="230"/>
+      <c r="AJ75" s="230"/>
+      <c r="AK75" s="230"/>
     </row>
     <row r="76" spans="3:37">
       <c r="N76" s="188" t="s">
@@ -36107,17 +36259,17 @@
       <c r="V76" s="188" t="s">
         <v>178</v>
       </c>
-      <c r="AA76" s="219"/>
-      <c r="AB76" s="219"/>
-      <c r="AC76" s="219"/>
-      <c r="AD76" s="219"/>
-      <c r="AE76" s="219"/>
-      <c r="AF76" s="219"/>
-      <c r="AG76" s="219"/>
-      <c r="AH76" s="219"/>
-      <c r="AI76" s="219"/>
-      <c r="AJ76" s="219"/>
-      <c r="AK76" s="219"/>
+      <c r="AA76" s="230"/>
+      <c r="AB76" s="230"/>
+      <c r="AC76" s="230"/>
+      <c r="AD76" s="230"/>
+      <c r="AE76" s="230"/>
+      <c r="AF76" s="230"/>
+      <c r="AG76" s="230"/>
+      <c r="AH76" s="230"/>
+      <c r="AI76" s="230"/>
+      <c r="AJ76" s="230"/>
+      <c r="AK76" s="230"/>
     </row>
     <row r="77" spans="3:37">
       <c r="N77" s="188" t="s">
@@ -36147,17 +36299,17 @@
       <c r="V77" s="188" t="s">
         <v>178</v>
       </c>
-      <c r="AA77" s="219"/>
-      <c r="AB77" s="219"/>
-      <c r="AC77" s="219"/>
-      <c r="AD77" s="219"/>
-      <c r="AE77" s="219"/>
-      <c r="AF77" s="219"/>
-      <c r="AG77" s="219"/>
-      <c r="AH77" s="219"/>
-      <c r="AI77" s="219"/>
-      <c r="AJ77" s="219"/>
-      <c r="AK77" s="219"/>
+      <c r="AA77" s="230"/>
+      <c r="AB77" s="230"/>
+      <c r="AC77" s="230"/>
+      <c r="AD77" s="230"/>
+      <c r="AE77" s="230"/>
+      <c r="AF77" s="230"/>
+      <c r="AG77" s="230"/>
+      <c r="AH77" s="230"/>
+      <c r="AI77" s="230"/>
+      <c r="AJ77" s="230"/>
+      <c r="AK77" s="230"/>
     </row>
     <row r="78" spans="3:37">
       <c r="N78" s="188" t="s">
@@ -36189,22 +36341,22 @@
       </c>
     </row>
     <row r="80" spans="3:37">
-      <c r="C80" s="230" t="s">
+      <c r="C80" s="225" t="s">
         <v>253</v>
       </c>
-      <c r="D80" s="230"/>
-      <c r="E80" s="230"/>
-      <c r="F80" s="230"/>
-      <c r="G80" s="230"/>
-      <c r="H80" s="230"/>
+      <c r="D80" s="225"/>
+      <c r="E80" s="225"/>
+      <c r="F80" s="225"/>
+      <c r="G80" s="225"/>
+      <c r="H80" s="225"/>
     </row>
     <row r="81" spans="3:21">
-      <c r="C81" s="230"/>
-      <c r="D81" s="230"/>
-      <c r="E81" s="230"/>
-      <c r="F81" s="230"/>
-      <c r="G81" s="230"/>
-      <c r="H81" s="230"/>
+      <c r="C81" s="225"/>
+      <c r="D81" s="225"/>
+      <c r="E81" s="225"/>
+      <c r="F81" s="225"/>
+      <c r="G81" s="225"/>
+      <c r="H81" s="225"/>
     </row>
     <row r="82" spans="3:21">
       <c r="F82" s="194">
@@ -36219,33 +36371,33 @@
       </c>
     </row>
     <row r="83" spans="3:21" ht="14.4" customHeight="1">
-      <c r="J83" s="232" t="s">
+      <c r="J83" s="227" t="s">
         <v>237</v>
       </c>
-      <c r="K83" s="232"/>
-      <c r="L83" s="232"/>
-      <c r="M83" s="232"/>
-      <c r="N83" s="232"/>
-      <c r="O83" s="232"/>
-      <c r="P83" s="232"/>
-      <c r="Q83" s="232"/>
-      <c r="U83" s="220" t="s">
+      <c r="K83" s="227"/>
+      <c r="L83" s="227"/>
+      <c r="M83" s="227"/>
+      <c r="N83" s="227"/>
+      <c r="O83" s="227"/>
+      <c r="P83" s="227"/>
+      <c r="Q83" s="227"/>
+      <c r="U83" s="231" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="84" spans="3:21">
-      <c r="J84" s="232"/>
-      <c r="K84" s="232"/>
-      <c r="L84" s="232"/>
-      <c r="M84" s="232"/>
-      <c r="N84" s="232"/>
-      <c r="O84" s="232"/>
-      <c r="P84" s="232"/>
-      <c r="Q84" s="232"/>
+      <c r="J84" s="227"/>
+      <c r="K84" s="227"/>
+      <c r="L84" s="227"/>
+      <c r="M84" s="227"/>
+      <c r="N84" s="227"/>
+      <c r="O84" s="227"/>
+      <c r="P84" s="227"/>
+      <c r="Q84" s="227"/>
       <c r="S84" s="114" t="s">
         <v>243</v>
       </c>
-      <c r="U84" s="220"/>
+      <c r="U84" s="231"/>
     </row>
     <row r="85" spans="3:21">
       <c r="K85" s="114" t="s">
@@ -36272,7 +36424,7 @@
       <c r="S85" t="s">
         <v>223</v>
       </c>
-      <c r="U85" s="220"/>
+      <c r="U85" s="231"/>
     </row>
     <row r="86" spans="3:21">
       <c r="K86" s="114" t="s">
@@ -36299,7 +36451,7 @@
       <c r="S86" t="s">
         <v>225</v>
       </c>
-      <c r="U86" s="220"/>
+      <c r="U86" s="231"/>
     </row>
     <row r="87" spans="3:21">
       <c r="K87" s="114" t="s">
@@ -36326,16 +36478,16 @@
       <c r="S87" t="s">
         <v>223</v>
       </c>
-      <c r="U87" s="220"/>
+      <c r="U87" s="231"/>
     </row>
     <row r="88" spans="3:21">
-      <c r="C88" s="233" t="s">
+      <c r="C88" s="228" t="s">
         <v>252</v>
       </c>
-      <c r="D88" s="233"/>
-      <c r="E88" s="233"/>
-      <c r="F88" s="233"/>
-      <c r="G88" s="233"/>
+      <c r="D88" s="228"/>
+      <c r="E88" s="228"/>
+      <c r="F88" s="228"/>
+      <c r="G88" s="228"/>
       <c r="K88" s="114" t="s">
         <v>226</v>
       </c>
@@ -36360,14 +36512,14 @@
       <c r="S88" t="s">
         <v>225</v>
       </c>
-      <c r="U88" s="220"/>
+      <c r="U88" s="231"/>
     </row>
     <row r="89" spans="3:21">
-      <c r="C89" s="233"/>
-      <c r="D89" s="233"/>
-      <c r="E89" s="233"/>
-      <c r="F89" s="233"/>
-      <c r="G89" s="233"/>
+      <c r="C89" s="228"/>
+      <c r="D89" s="228"/>
+      <c r="E89" s="228"/>
+      <c r="F89" s="228"/>
+      <c r="G89" s="228"/>
       <c r="K89" s="114" t="s">
         <v>224</v>
       </c>
@@ -36392,7 +36544,7 @@
       <c r="S89" t="s">
         <v>223</v>
       </c>
-      <c r="U89" s="220"/>
+      <c r="U89" s="231"/>
     </row>
     <row r="90" spans="3:21">
       <c r="D90" s="114" t="s">
@@ -36429,7 +36581,7 @@
       <c r="S90" t="s">
         <v>225</v>
       </c>
-      <c r="U90" s="220"/>
+      <c r="U90" s="231"/>
     </row>
     <row r="91" spans="3:21">
       <c r="D91" s="114" t="s">
@@ -36466,7 +36618,7 @@
       <c r="S91" t="s">
         <v>223</v>
       </c>
-      <c r="U91" s="220"/>
+      <c r="U91" s="231"/>
     </row>
     <row r="92" spans="3:21">
       <c r="D92" s="114" t="s">
@@ -36503,7 +36655,7 @@
       <c r="S92" t="s">
         <v>225</v>
       </c>
-      <c r="U92" s="220"/>
+      <c r="U92" s="231"/>
     </row>
     <row r="93" spans="3:21">
       <c r="D93" s="114" t="s">
@@ -36540,7 +36692,7 @@
       <c r="S93" t="s">
         <v>223</v>
       </c>
-      <c r="U93" s="220"/>
+      <c r="U93" s="231"/>
     </row>
     <row r="94" spans="3:21">
       <c r="D94" s="114" t="s">
@@ -36577,7 +36729,7 @@
       <c r="S94" t="s">
         <v>225</v>
       </c>
-      <c r="U94" s="220"/>
+      <c r="U94" s="231"/>
     </row>
     <row r="95" spans="3:21">
       <c r="D95" s="114" t="s">
@@ -36614,7 +36766,7 @@
       <c r="S95" t="s">
         <v>223</v>
       </c>
-      <c r="U95" s="220"/>
+      <c r="U95" s="231"/>
     </row>
     <row r="96" spans="3:21">
       <c r="D96" s="114" t="s">
@@ -36630,7 +36782,7 @@
       <c r="K96" t="s">
         <v>227</v>
       </c>
-      <c r="U96" s="220"/>
+      <c r="U96" s="231"/>
     </row>
     <row r="97" spans="1:19">
       <c r="D97" s="114" t="s">
@@ -36733,29 +36885,29 @@
       </c>
     </row>
     <row r="109" spans="1:19">
-      <c r="A109" s="230" t="s">
+      <c r="A109" s="225" t="s">
         <v>262</v>
       </c>
-      <c r="B109" s="230"/>
-      <c r="C109" s="230"/>
-      <c r="D109" s="230"/>
-      <c r="E109" s="230"/>
-      <c r="F109" s="230"/>
-      <c r="G109" s="230"/>
-      <c r="H109" s="230"/>
+      <c r="B109" s="225"/>
+      <c r="C109" s="225"/>
+      <c r="D109" s="225"/>
+      <c r="E109" s="225"/>
+      <c r="F109" s="225"/>
+      <c r="G109" s="225"/>
+      <c r="H109" s="225"/>
       <c r="K109" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="110" spans="1:19">
-      <c r="A110" s="230"/>
-      <c r="B110" s="230"/>
-      <c r="C110" s="230"/>
-      <c r="D110" s="230"/>
-      <c r="E110" s="230"/>
-      <c r="F110" s="230"/>
-      <c r="G110" s="230"/>
-      <c r="H110" s="230"/>
+      <c r="A110" s="225"/>
+      <c r="B110" s="225"/>
+      <c r="C110" s="225"/>
+      <c r="D110" s="225"/>
+      <c r="E110" s="225"/>
+      <c r="F110" s="225"/>
+      <c r="G110" s="225"/>
+      <c r="H110" s="225"/>
       <c r="K110" t="s">
         <v>229</v>
       </c>
@@ -37446,7 +37598,7 @@
       </c>
       <c r="N147">
         <f ca="1">RANDBETWEEN(1,6)</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O147">
         <f t="shared" ref="O147:Q147" ca="1" si="10">RANDBETWEEN(1,6)</f>
@@ -37454,11 +37606,11 @@
       </c>
       <c r="P147">
         <f t="shared" ca="1" si="10"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q147">
         <f t="shared" ca="1" si="10"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S147" s="114" t="s">
         <v>266</v>
@@ -37468,30 +37620,30 @@
       <c r="A148" s="114" t="s">
         <v>158</v>
       </c>
-      <c r="D148" s="229" t="s">
+      <c r="D148" s="224" t="s">
         <v>261</v>
       </c>
-      <c r="E148" s="229"/>
-      <c r="F148" s="229"/>
-      <c r="G148" s="229"/>
+      <c r="E148" s="224"/>
+      <c r="F148" s="224"/>
+      <c r="G148" s="224"/>
       <c r="K148" t="s">
         <v>223</v>
       </c>
       <c r="N148">
         <f t="shared" ref="N148:Q154" ca="1" si="11">RANDBETWEEN(1,6)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O148">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P148">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="Q148">
         <f t="shared" ca="1" si="11"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S148" s="114" t="s">
         <v>269</v>
@@ -37501,16 +37653,16 @@
       <c r="A149" s="114" t="s">
         <v>159</v>
       </c>
-      <c r="D149" s="229"/>
-      <c r="E149" s="229"/>
-      <c r="F149" s="229"/>
-      <c r="G149" s="229"/>
+      <c r="D149" s="224"/>
+      <c r="E149" s="224"/>
+      <c r="F149" s="224"/>
+      <c r="G149" s="224"/>
       <c r="K149" t="s">
         <v>225</v>
       </c>
       <c r="N149">
         <f t="shared" ca="1" si="11"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O149">
         <f t="shared" ca="1" si="11"/>
@@ -37518,11 +37670,11 @@
       </c>
       <c r="P149">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="Q149">
         <f t="shared" ca="1" si="11"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S149" s="114" t="s">
         <v>270</v>
@@ -37532,28 +37684,28 @@
       <c r="A150" s="114" t="s">
         <v>160</v>
       </c>
-      <c r="D150" s="229"/>
-      <c r="E150" s="229"/>
-      <c r="F150" s="229"/>
-      <c r="G150" s="229"/>
+      <c r="D150" s="224"/>
+      <c r="E150" s="224"/>
+      <c r="F150" s="224"/>
+      <c r="G150" s="224"/>
       <c r="K150" t="s">
         <v>223</v>
       </c>
       <c r="N150">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O150">
         <f t="shared" ca="1" si="11"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P150">
         <f t="shared" ca="1" si="11"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="Q150">
         <f t="shared" ca="1" si="11"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S150" s="114" t="s">
         <v>271</v>
@@ -37568,19 +37720,19 @@
       </c>
       <c r="N151">
         <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O151">
         <f t="shared" ca="1" si="11"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P151">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q151">
         <f t="shared" ca="1" si="11"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="S151" s="114" t="s">
         <v>272</v>
@@ -37599,15 +37751,15 @@
       </c>
       <c r="O152">
         <f t="shared" ca="1" si="11"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P152">
         <f t="shared" ca="1" si="11"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q152">
         <f t="shared" ca="1" si="11"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="S152" s="114" t="s">
         <v>273</v>
@@ -37622,19 +37774,19 @@
       </c>
       <c r="N153">
         <f t="shared" ca="1" si="11"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O153">
         <f t="shared" ca="1" si="11"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P153">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q153">
         <f t="shared" ca="1" si="11"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S153" s="114" t="s">
         <v>274</v>
@@ -37646,7 +37798,7 @@
       </c>
       <c r="N154">
         <f t="shared" ca="1" si="11"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="O154">
         <f t="shared" ca="1" si="11"/>
@@ -37654,11 +37806,11 @@
       </c>
       <c r="P154">
         <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q154">
         <f t="shared" ca="1" si="11"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S154" s="114" t="s">
         <v>275</v>
@@ -37677,14 +37829,6 @@
     <sortCondition ref="U3:U33"/>
   </sortState>
   <mergeCells count="21">
-    <mergeCell ref="D148:G150"/>
-    <mergeCell ref="A109:H110"/>
-    <mergeCell ref="D50:G51"/>
-    <mergeCell ref="D52:G54"/>
-    <mergeCell ref="J83:Q84"/>
-    <mergeCell ref="C88:G89"/>
-    <mergeCell ref="C80:H81"/>
-    <mergeCell ref="D63:I64"/>
     <mergeCell ref="AA72:AK77"/>
     <mergeCell ref="U83:U96"/>
     <mergeCell ref="A1:A2"/>
@@ -37698,6 +37842,14 @@
     <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="R1:R2"/>
     <mergeCell ref="S1:S2"/>
+    <mergeCell ref="D148:G150"/>
+    <mergeCell ref="A109:H110"/>
+    <mergeCell ref="D50:G51"/>
+    <mergeCell ref="D52:G54"/>
+    <mergeCell ref="J83:Q84"/>
+    <mergeCell ref="C88:G89"/>
+    <mergeCell ref="C80:H81"/>
+    <mergeCell ref="D63:I64"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <dataValidations count="1">
@@ -37719,7 +37871,7 @@
   <dimension ref="A1:T38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="C11" sqref="C11:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -37921,10 +38073,10 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="43.2" customHeight="1">
-      <c r="F8" s="236" t="s">
+      <c r="F8" s="241" t="s">
         <v>304</v>
       </c>
-      <c r="G8" s="236"/>
+      <c r="G8" s="241"/>
       <c r="H8" s="202"/>
     </row>
     <row r="9" spans="1:9">
@@ -37966,6 +38118,10 @@
       </c>
     </row>
     <row r="12" spans="1:9">
+      <c r="C12">
+        <f t="shared" ref="C12:C13" ca="1" si="1">OFFSET(A3,,2,)</f>
+        <v>98</v>
+      </c>
       <c r="H12">
         <v>3</v>
       </c>
@@ -37974,6 +38130,10 @@
       </c>
     </row>
     <row r="13" spans="1:9">
+      <c r="C13">
+        <f t="shared" ca="1" si="1"/>
+        <v>91</v>
+      </c>
       <c r="H13">
         <v>4</v>
       </c>
@@ -38006,39 +38166,39 @@
       </c>
     </row>
     <row r="19" spans="1:20">
-      <c r="L19" s="235" t="s">
+      <c r="L19" s="240" t="s">
         <v>299</v>
       </c>
-      <c r="M19" s="235"/>
-      <c r="N19" s="235"/>
-      <c r="O19" s="235"/>
-      <c r="P19" s="235"/>
-      <c r="Q19" s="235"/>
-      <c r="R19" s="235"/>
-      <c r="S19" s="235"/>
-      <c r="T19" s="235"/>
+      <c r="M19" s="240"/>
+      <c r="N19" s="240"/>
+      <c r="O19" s="240"/>
+      <c r="P19" s="240"/>
+      <c r="Q19" s="240"/>
+      <c r="R19" s="240"/>
+      <c r="S19" s="240"/>
+      <c r="T19" s="240"/>
     </row>
     <row r="20" spans="1:20">
-      <c r="L20" s="235"/>
-      <c r="M20" s="235"/>
-      <c r="N20" s="235"/>
-      <c r="O20" s="235"/>
-      <c r="P20" s="235"/>
-      <c r="Q20" s="235"/>
-      <c r="R20" s="235"/>
-      <c r="S20" s="235"/>
-      <c r="T20" s="235"/>
+      <c r="L20" s="240"/>
+      <c r="M20" s="240"/>
+      <c r="N20" s="240"/>
+      <c r="O20" s="240"/>
+      <c r="P20" s="240"/>
+      <c r="Q20" s="240"/>
+      <c r="R20" s="240"/>
+      <c r="S20" s="240"/>
+      <c r="T20" s="240"/>
     </row>
     <row r="21" spans="1:20">
-      <c r="L21" s="235"/>
-      <c r="M21" s="235"/>
-      <c r="N21" s="235"/>
-      <c r="O21" s="235"/>
-      <c r="P21" s="235"/>
-      <c r="Q21" s="235"/>
-      <c r="R21" s="235"/>
-      <c r="S21" s="235"/>
-      <c r="T21" s="235"/>
+      <c r="L21" s="240"/>
+      <c r="M21" s="240"/>
+      <c r="N21" s="240"/>
+      <c r="O21" s="240"/>
+      <c r="P21" s="240"/>
+      <c r="Q21" s="240"/>
+      <c r="R21" s="240"/>
+      <c r="S21" s="240"/>
+      <c r="T21" s="240"/>
     </row>
     <row r="23" spans="1:20" ht="43.2">
       <c r="F23" s="2" t="s">
@@ -38061,11 +38221,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="30" customHeight="1">
-      <c r="F29" s="237" t="s">
+      <c r="F29" s="242" t="s">
         <v>368</v>
       </c>
-      <c r="G29" s="237"/>
-      <c r="H29" s="237"/>
+      <c r="G29" s="242"/>
+      <c r="H29" s="242"/>
       <c r="K29">
         <f>N(C17)</f>
         <v>3</v>
@@ -38075,9 +38235,9 @@
       </c>
     </row>
     <row r="30" spans="1:20">
-      <c r="F30" s="237"/>
-      <c r="G30" s="237"/>
-      <c r="H30" s="237"/>
+      <c r="F30" s="242"/>
+      <c r="G30" s="242"/>
+      <c r="H30" s="242"/>
       <c r="M30">
         <v>5</v>
       </c>
@@ -38098,15 +38258,15 @@
         <v>0</v>
       </c>
       <c r="G31" s="215">
-        <f t="shared" ref="G31:I35" ca="1" si="1">OFFSET(B31,1,$A$34)</f>
+        <f t="shared" ref="G31:I35" ca="1" si="2">OFFSET(B31,1,$A$34)</f>
         <v>2</v>
       </c>
       <c r="H31" s="215">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>3</v>
       </c>
       <c r="I31">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>4</v>
       </c>
     </row>
@@ -38121,15 +38281,15 @@
         <v>4</v>
       </c>
       <c r="F32" s="215">
-        <f t="shared" ref="F32:F35" ca="1" si="2">OFFSET(A32,1,$A$34)</f>
+        <f t="shared" ref="F32:F35" ca="1" si="3">OFFSET(A32,1,$A$34)</f>
         <v>0</v>
       </c>
       <c r="G32" s="215">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>3</v>
       </c>
       <c r="H32" s="215">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>4</v>
       </c>
     </row>
@@ -38144,15 +38304,15 @@
         <v>5</v>
       </c>
       <c r="F33" s="215">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G33" s="215">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G33" s="215">
-        <f t="shared" ca="1" si="1"/>
         <v>4</v>
       </c>
       <c r="H33" s="215">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>5</v>
       </c>
     </row>
@@ -38167,15 +38327,15 @@
         <v>6</v>
       </c>
       <c r="F34" s="215">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G34" s="215">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G34" s="215">
-        <f t="shared" ca="1" si="1"/>
         <v>5</v>
       </c>
       <c r="H34" s="215">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>6</v>
       </c>
     </row>
@@ -38190,15 +38350,15 @@
         <v>7</v>
       </c>
       <c r="F35" s="215">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G35" s="215">
         <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
-      <c r="G35" s="215">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
       <c r="H35" s="215">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="L35" s="114" t="s">
@@ -38264,7 +38424,7 @@
   </sheetPr>
   <dimension ref="A1:BO46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A26" workbookViewId="0">
       <selection activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
@@ -38293,17 +38453,17 @@
       <c r="G1" s="205" t="s">
         <v>310</v>
       </c>
-      <c r="H1" s="238" t="s" ph="1">
+      <c r="H1" s="243" t="s" ph="1">
         <v>385</v>
       </c>
-      <c r="I1" s="238" ph="1"/>
-      <c r="J1" s="238" ph="1"/>
-      <c r="K1" s="238" ph="1"/>
-      <c r="L1" s="238" ph="1"/>
-      <c r="M1" s="238" ph="1"/>
-      <c r="N1" s="238" ph="1"/>
-      <c r="O1" s="238" ph="1"/>
-      <c r="P1" s="238" ph="1"/>
+      <c r="I1" s="243" ph="1"/>
+      <c r="J1" s="243" ph="1"/>
+      <c r="K1" s="243" ph="1"/>
+      <c r="L1" s="243" ph="1"/>
+      <c r="M1" s="243" ph="1"/>
+      <c r="N1" s="243" ph="1"/>
+      <c r="O1" s="243" ph="1"/>
+      <c r="P1" s="243" ph="1"/>
     </row>
     <row r="2" spans="1:19">
       <c r="A2" s="204" t="s">
@@ -38324,15 +38484,15 @@
       <c r="G2" s="206">
         <v>40</v>
       </c>
-      <c r="H2" s="238" ph="1"/>
-      <c r="I2" s="238" ph="1"/>
-      <c r="J2" s="238" ph="1"/>
-      <c r="K2" s="238" ph="1"/>
-      <c r="L2" s="238" ph="1"/>
-      <c r="M2" s="238" ph="1"/>
-      <c r="N2" s="238" ph="1"/>
-      <c r="O2" s="238" ph="1"/>
-      <c r="P2" s="238" ph="1"/>
+      <c r="H2" s="243" ph="1"/>
+      <c r="I2" s="243" ph="1"/>
+      <c r="J2" s="243" ph="1"/>
+      <c r="K2" s="243" ph="1"/>
+      <c r="L2" s="243" ph="1"/>
+      <c r="M2" s="243" ph="1"/>
+      <c r="N2" s="243" ph="1"/>
+      <c r="O2" s="243" ph="1"/>
+      <c r="P2" s="243" ph="1"/>
     </row>
     <row r="3" spans="1:19">
       <c r="A3" s="204" t="s">
@@ -38353,15 +38513,15 @@
       <c r="G3" s="206">
         <v>40</v>
       </c>
-      <c r="H3" s="238" ph="1"/>
-      <c r="I3" s="238" ph="1"/>
-      <c r="J3" s="238" ph="1"/>
-      <c r="K3" s="238" ph="1"/>
-      <c r="L3" s="238" ph="1"/>
-      <c r="M3" s="238" ph="1"/>
-      <c r="N3" s="238" ph="1"/>
-      <c r="O3" s="238" ph="1"/>
-      <c r="P3" s="238" ph="1"/>
+      <c r="H3" s="243" ph="1"/>
+      <c r="I3" s="243" ph="1"/>
+      <c r="J3" s="243" ph="1"/>
+      <c r="K3" s="243" ph="1"/>
+      <c r="L3" s="243" ph="1"/>
+      <c r="M3" s="243" ph="1"/>
+      <c r="N3" s="243" ph="1"/>
+      <c r="O3" s="243" ph="1"/>
+      <c r="P3" s="243" ph="1"/>
     </row>
     <row r="4" spans="1:19">
       <c r="A4" s="204" t="s">
@@ -38382,15 +38542,15 @@
       <c r="G4" s="206">
         <v>40</v>
       </c>
-      <c r="H4" s="238" ph="1"/>
-      <c r="I4" s="238" ph="1"/>
-      <c r="J4" s="238" ph="1"/>
-      <c r="K4" s="238" ph="1"/>
-      <c r="L4" s="238" ph="1"/>
-      <c r="M4" s="238" ph="1"/>
-      <c r="N4" s="238" ph="1"/>
-      <c r="O4" s="238" ph="1"/>
-      <c r="P4" s="238" ph="1"/>
+      <c r="H4" s="243" ph="1"/>
+      <c r="I4" s="243" ph="1"/>
+      <c r="J4" s="243" ph="1"/>
+      <c r="K4" s="243" ph="1"/>
+      <c r="L4" s="243" ph="1"/>
+      <c r="M4" s="243" ph="1"/>
+      <c r="N4" s="243" ph="1"/>
+      <c r="O4" s="243" ph="1"/>
+      <c r="P4" s="243" ph="1"/>
     </row>
     <row r="5" spans="1:19">
       <c r="A5" s="204" t="s">
@@ -38411,15 +38571,15 @@
       <c r="G5" s="206">
         <v>40</v>
       </c>
-      <c r="H5" s="238" ph="1"/>
-      <c r="I5" s="238" ph="1"/>
-      <c r="J5" s="238" ph="1"/>
-      <c r="K5" s="238" ph="1"/>
-      <c r="L5" s="238" ph="1"/>
-      <c r="M5" s="238" ph="1"/>
-      <c r="N5" s="238" ph="1"/>
-      <c r="O5" s="238" ph="1"/>
-      <c r="P5" s="238" ph="1"/>
+      <c r="H5" s="243" ph="1"/>
+      <c r="I5" s="243" ph="1"/>
+      <c r="J5" s="243" ph="1"/>
+      <c r="K5" s="243" ph="1"/>
+      <c r="L5" s="243" ph="1"/>
+      <c r="M5" s="243" ph="1"/>
+      <c r="N5" s="243" ph="1"/>
+      <c r="O5" s="243" ph="1"/>
+      <c r="P5" s="243" ph="1"/>
     </row>
     <row r="6" spans="1:19">
       <c r="A6" s="204" t="s">
@@ -38500,7 +38660,7 @@
       <c r="G9" s="206">
         <v>40</v>
       </c>
-      <c r="S9" s="252">
+      <c r="S9" s="220">
         <v>1</v>
       </c>
     </row>
@@ -38523,7 +38683,7 @@
       <c r="G10" s="206">
         <v>40</v>
       </c>
-      <c r="S10" s="252">
+      <c r="S10" s="220">
         <v>2</v>
       </c>
     </row>
@@ -38546,7 +38706,7 @@
       <c r="G11" s="206">
         <v>40</v>
       </c>
-      <c r="S11" s="252">
+      <c r="S11" s="220">
         <v>3</v>
       </c>
     </row>
@@ -38569,41 +38729,41 @@
       <c r="G12" s="206">
         <v>40</v>
       </c>
-      <c r="S12" s="252">
+      <c r="S12" s="220">
         <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:19">
-      <c r="A13" s="239" t="s">
+      <c r="A13" s="244" t="s">
         <v>311</v>
       </c>
-      <c r="B13" s="239"/>
-      <c r="C13" s="239"/>
-      <c r="D13" s="239"/>
-      <c r="E13" s="239"/>
-      <c r="F13" s="239"/>
-      <c r="S13" s="252">
+      <c r="B13" s="244"/>
+      <c r="C13" s="244"/>
+      <c r="D13" s="244"/>
+      <c r="E13" s="244"/>
+      <c r="F13" s="244"/>
+      <c r="S13" s="220">
         <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:19">
-      <c r="A14" s="239"/>
-      <c r="B14" s="239"/>
-      <c r="C14" s="239"/>
-      <c r="D14" s="239"/>
-      <c r="E14" s="239"/>
-      <c r="F14" s="239"/>
+      <c r="A14" s="244"/>
+      <c r="B14" s="244"/>
+      <c r="C14" s="244"/>
+      <c r="D14" s="244"/>
+      <c r="E14" s="244"/>
+      <c r="F14" s="244"/>
     </row>
     <row r="15" spans="1:19">
-      <c r="A15" s="239"/>
-      <c r="B15" s="239"/>
-      <c r="C15" s="239"/>
-      <c r="D15" s="239"/>
-      <c r="E15" s="239"/>
-      <c r="F15" s="239"/>
+      <c r="A15" s="244"/>
+      <c r="B15" s="244"/>
+      <c r="C15" s="244"/>
+      <c r="D15" s="244"/>
+      <c r="E15" s="244"/>
+      <c r="F15" s="244"/>
     </row>
     <row r="17" spans="5:67">
-      <c r="BK17" s="253" t="s">
+      <c r="BK17" s="221" t="s">
         <v>386</v>
       </c>
       <c r="BL17" t="s">
@@ -38611,7 +38771,7 @@
       </c>
     </row>
     <row r="19" spans="5:67">
-      <c r="BK19" s="253" t="s">
+      <c r="BK19" s="221" t="s">
         <v>388</v>
       </c>
       <c r="BL19" t="s">
@@ -38628,115 +38788,115 @@
       </c>
     </row>
     <row r="20" spans="5:67">
-      <c r="BK20" s="254">
+      <c r="BK20" s="222">
         <v>60</v>
       </c>
-      <c r="BL20" s="255">
+      <c r="BL20" s="223">
         <v>220</v>
       </c>
-      <c r="BM20" s="255">
+      <c r="BM20" s="223">
         <v>660</v>
       </c>
-      <c r="BN20" s="255">
+      <c r="BN20" s="223">
         <v>440</v>
       </c>
-      <c r="BO20" s="255">
+      <c r="BO20" s="223">
         <v>220</v>
       </c>
     </row>
     <row r="21" spans="5:67">
-      <c r="E21" s="250" t="s" ph="1">
+      <c r="E21" s="247" t="s" ph="1">
         <v>384</v>
       </c>
-      <c r="F21" s="250" ph="1"/>
-      <c r="G21" s="250" ph="1"/>
-      <c r="BK21" s="254" t="s">
+      <c r="F21" s="247" ph="1"/>
+      <c r="G21" s="247" ph="1"/>
+      <c r="BK21" s="222" t="s">
         <v>389</v>
       </c>
-      <c r="BL21" s="255">
+      <c r="BL21" s="223">
         <v>220</v>
       </c>
-      <c r="BM21" s="255">
+      <c r="BM21" s="223">
         <v>660</v>
       </c>
-      <c r="BN21" s="255">
+      <c r="BN21" s="223">
         <v>440</v>
       </c>
-      <c r="BO21" s="255">
+      <c r="BO21" s="223">
         <v>220</v>
       </c>
     </row>
     <row r="22" spans="5:67">
-      <c r="E22" s="250" ph="1"/>
-      <c r="F22" s="250" ph="1"/>
-      <c r="G22" s="250" ph="1"/>
+      <c r="E22" s="247" ph="1"/>
+      <c r="F22" s="247" ph="1"/>
+      <c r="G22" s="247" ph="1"/>
     </row>
     <row r="23" spans="5:67">
-      <c r="E23" s="250" ph="1"/>
-      <c r="F23" s="250" ph="1"/>
-      <c r="G23" s="250" ph="1"/>
+      <c r="E23" s="247" ph="1"/>
+      <c r="F23" s="247" ph="1"/>
+      <c r="G23" s="247" ph="1"/>
     </row>
     <row r="27" spans="5:67">
-      <c r="G27" s="241" t="s">
+      <c r="G27" s="246" t="s">
         <v>382</v>
       </c>
-      <c r="H27" s="241"/>
-      <c r="I27" s="241"/>
-      <c r="J27" s="241"/>
-      <c r="K27" s="241"/>
-      <c r="L27" s="241"/>
-      <c r="M27" s="241"/>
-      <c r="N27" s="241"/>
-      <c r="O27" s="241"/>
-      <c r="P27" s="241"/>
-      <c r="Q27" s="241"/>
-      <c r="R27" s="241"/>
+      <c r="H27" s="246"/>
+      <c r="I27" s="246"/>
+      <c r="J27" s="246"/>
+      <c r="K27" s="246"/>
+      <c r="L27" s="246"/>
+      <c r="M27" s="246"/>
+      <c r="N27" s="246"/>
+      <c r="O27" s="246"/>
+      <c r="P27" s="246"/>
+      <c r="Q27" s="246"/>
+      <c r="R27" s="246"/>
     </row>
     <row r="28" spans="5:67">
-      <c r="G28" s="241"/>
-      <c r="H28" s="241"/>
-      <c r="I28" s="241"/>
-      <c r="J28" s="241"/>
-      <c r="K28" s="241"/>
-      <c r="L28" s="241"/>
-      <c r="M28" s="241"/>
-      <c r="N28" s="241"/>
-      <c r="O28" s="241"/>
-      <c r="P28" s="241"/>
-      <c r="Q28" s="241"/>
-      <c r="R28" s="241"/>
+      <c r="G28" s="246"/>
+      <c r="H28" s="246"/>
+      <c r="I28" s="246"/>
+      <c r="J28" s="246"/>
+      <c r="K28" s="246"/>
+      <c r="L28" s="246"/>
+      <c r="M28" s="246"/>
+      <c r="N28" s="246"/>
+      <c r="O28" s="246"/>
+      <c r="P28" s="246"/>
+      <c r="Q28" s="246"/>
+      <c r="R28" s="246"/>
     </row>
     <row r="29" spans="5:67">
-      <c r="G29" s="241"/>
-      <c r="H29" s="241"/>
-      <c r="I29" s="241"/>
-      <c r="J29" s="241"/>
-      <c r="K29" s="241"/>
-      <c r="L29" s="241"/>
-      <c r="M29" s="241"/>
-      <c r="N29" s="241"/>
-      <c r="O29" s="241"/>
-      <c r="P29" s="241"/>
-      <c r="Q29" s="241"/>
-      <c r="R29" s="241"/>
+      <c r="G29" s="246"/>
+      <c r="H29" s="246"/>
+      <c r="I29" s="246"/>
+      <c r="J29" s="246"/>
+      <c r="K29" s="246"/>
+      <c r="L29" s="246"/>
+      <c r="M29" s="246"/>
+      <c r="N29" s="246"/>
+      <c r="O29" s="246"/>
+      <c r="P29" s="246"/>
+      <c r="Q29" s="246"/>
+      <c r="R29" s="246"/>
     </row>
     <row r="30" spans="5:67">
-      <c r="I30" s="240" t="s">
+      <c r="I30" s="245" t="s">
         <v>312</v>
       </c>
-      <c r="J30" s="240"/>
-      <c r="K30" s="240"/>
-      <c r="L30" s="240"/>
-      <c r="M30" s="240"/>
-      <c r="N30" s="240"/>
+      <c r="J30" s="245"/>
+      <c r="K30" s="245"/>
+      <c r="L30" s="245"/>
+      <c r="M30" s="245"/>
+      <c r="N30" s="245"/>
     </row>
     <row r="31" spans="5:67">
-      <c r="I31" s="240"/>
-      <c r="J31" s="240"/>
-      <c r="K31" s="240"/>
-      <c r="L31" s="240"/>
-      <c r="M31" s="240"/>
-      <c r="N31" s="240"/>
+      <c r="I31" s="245"/>
+      <c r="J31" s="245"/>
+      <c r="K31" s="245"/>
+      <c r="L31" s="245"/>
+      <c r="M31" s="245"/>
+      <c r="N31" s="245"/>
     </row>
     <row r="36" spans="1:3">
       <c r="B36" s="114" t="s">
@@ -38878,7 +39038,7 @@
   </sheetPr>
   <dimension ref="A2:N24"/>
   <sheetViews>
-    <sheetView topLeftCell="J6" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
       <selection activeCell="W15" sqref="W15"/>
     </sheetView>
   </sheetViews>
@@ -38945,30 +39105,30 @@
       </c>
     </row>
     <row r="23" spans="5:14">
-      <c r="E23" s="242" t="s">
+      <c r="E23" s="248" t="s">
         <v>327</v>
       </c>
-      <c r="F23" s="242"/>
-      <c r="G23" s="242"/>
-      <c r="H23" s="242"/>
-      <c r="I23" s="242"/>
-      <c r="J23" s="242"/>
-      <c r="K23" s="242"/>
-      <c r="L23" s="242"/>
-      <c r="M23" s="242"/>
-      <c r="N23" s="242"/>
+      <c r="F23" s="248"/>
+      <c r="G23" s="248"/>
+      <c r="H23" s="248"/>
+      <c r="I23" s="248"/>
+      <c r="J23" s="248"/>
+      <c r="K23" s="248"/>
+      <c r="L23" s="248"/>
+      <c r="M23" s="248"/>
+      <c r="N23" s="248"/>
     </row>
     <row r="24" spans="5:14">
-      <c r="E24" s="242"/>
-      <c r="F24" s="242"/>
-      <c r="G24" s="242"/>
-      <c r="H24" s="242"/>
-      <c r="I24" s="242"/>
-      <c r="J24" s="242"/>
-      <c r="K24" s="242"/>
-      <c r="L24" s="242"/>
-      <c r="M24" s="242"/>
-      <c r="N24" s="242"/>
+      <c r="E24" s="248"/>
+      <c r="F24" s="248"/>
+      <c r="G24" s="248"/>
+      <c r="H24" s="248"/>
+      <c r="I24" s="248"/>
+      <c r="J24" s="248"/>
+      <c r="K24" s="248"/>
+      <c r="L24" s="248"/>
+      <c r="M24" s="248"/>
+      <c r="N24" s="248"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -39003,19 +39163,19 @@
       <c r="C1" s="114" t="s">
         <v>330</v>
       </c>
-      <c r="F1" s="243" t="s">
+      <c r="F1" s="249" t="s">
         <v>343</v>
       </c>
-      <c r="G1" s="243"/>
-      <c r="H1" s="243"/>
-      <c r="I1" s="243"/>
-      <c r="J1" s="243"/>
-      <c r="K1" s="243"/>
-      <c r="L1" s="243"/>
-      <c r="M1" s="243"/>
-      <c r="N1" s="243"/>
-      <c r="O1" s="243"/>
-      <c r="P1" s="243"/>
+      <c r="G1" s="249"/>
+      <c r="H1" s="249"/>
+      <c r="I1" s="249"/>
+      <c r="J1" s="249"/>
+      <c r="K1" s="249"/>
+      <c r="L1" s="249"/>
+      <c r="M1" s="249"/>
+      <c r="N1" s="249"/>
+      <c r="O1" s="249"/>
+      <c r="P1" s="249"/>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="114" t="s">
@@ -39027,17 +39187,17 @@
       <c r="C2">
         <v>2.8</v>
       </c>
-      <c r="F2" s="243"/>
-      <c r="G2" s="243"/>
-      <c r="H2" s="243"/>
-      <c r="I2" s="243"/>
-      <c r="J2" s="243"/>
-      <c r="K2" s="243"/>
-      <c r="L2" s="243"/>
-      <c r="M2" s="243"/>
-      <c r="N2" s="243"/>
-      <c r="O2" s="243"/>
-      <c r="P2" s="243"/>
+      <c r="F2" s="249"/>
+      <c r="G2" s="249"/>
+      <c r="H2" s="249"/>
+      <c r="I2" s="249"/>
+      <c r="J2" s="249"/>
+      <c r="K2" s="249"/>
+      <c r="L2" s="249"/>
+      <c r="M2" s="249"/>
+      <c r="N2" s="249"/>
+      <c r="O2" s="249"/>
+      <c r="P2" s="249"/>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="114" t="s">
@@ -39049,17 +39209,17 @@
       <c r="C3">
         <v>3.8</v>
       </c>
-      <c r="F3" s="243"/>
-      <c r="G3" s="243"/>
-      <c r="H3" s="243"/>
-      <c r="I3" s="243"/>
-      <c r="J3" s="243"/>
-      <c r="K3" s="243"/>
-      <c r="L3" s="243"/>
-      <c r="M3" s="243"/>
-      <c r="N3" s="243"/>
-      <c r="O3" s="243"/>
-      <c r="P3" s="243"/>
+      <c r="F3" s="249"/>
+      <c r="G3" s="249"/>
+      <c r="H3" s="249"/>
+      <c r="I3" s="249"/>
+      <c r="J3" s="249"/>
+      <c r="K3" s="249"/>
+      <c r="L3" s="249"/>
+      <c r="M3" s="249"/>
+      <c r="N3" s="249"/>
+      <c r="O3" s="249"/>
+      <c r="P3" s="249"/>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="114" t="s">

--- a/excel练习.xlsx
+++ b/excel练习.xlsx
@@ -8,39 +8,34 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\desktop\Rmath\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82629470-C3FF-4504-84EF-120ACCE95E87}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9901A0D-0508-41E2-BBF7-2D3BC691CE07}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="862" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="862" firstSheet="6" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet10" sheetId="11" r:id="rId2"/>
-    <sheet name="设置横纵坐标名称" sheetId="9" r:id="rId3"/>
-    <sheet name="正态分布表" sheetId="3" r:id="rId4"/>
-    <sheet name="dawjd" sheetId="2" r:id="rId5"/>
-    <sheet name="offset函数" sheetId="4" r:id="rId6"/>
-    <sheet name="折线图添加背景" sheetId="5" r:id="rId7"/>
-    <sheet name="饼图" sheetId="6" r:id="rId8"/>
-    <sheet name="双坐标轴" sheetId="7" r:id="rId9"/>
-    <sheet name="正负数据" sheetId="8" r:id="rId10"/>
-    <sheet name="背对背比较图" sheetId="10" r:id="rId11"/>
-    <sheet name="气泡图" sheetId="12" r:id="rId12"/>
-    <sheet name="有空格时" sheetId="13" r:id="rId13"/>
-    <sheet name="坐标轴不是整数怎样改乘整数" sheetId="14" r:id="rId14"/>
-    <sheet name="Sheet5" sheetId="20" r:id="rId15"/>
-    <sheet name="Sheet6" sheetId="21" r:id="rId16"/>
-    <sheet name="Sheet7" sheetId="22" r:id="rId17"/>
-    <sheet name="只保留线条的折线图" sheetId="15" r:id="rId18"/>
-    <sheet name="利用滑块来制作动态图" sheetId="16" r:id="rId19"/>
-    <sheet name="Sheet3" sheetId="18" r:id="rId20"/>
-    <sheet name="Sheet4" sheetId="19" r:id="rId21"/>
-    <sheet name="Sheet2" sheetId="17" r:id="rId22"/>
+    <sheet name="设置横纵坐标名称" sheetId="9" r:id="rId2"/>
+    <sheet name="正态分布表" sheetId="3" r:id="rId3"/>
+    <sheet name="dawjd" sheetId="2" r:id="rId4"/>
+    <sheet name="offset函数" sheetId="4" r:id="rId5"/>
+    <sheet name="折线图添加背景" sheetId="5" r:id="rId6"/>
+    <sheet name="饼图" sheetId="6" r:id="rId7"/>
+    <sheet name="双坐标轴" sheetId="7" r:id="rId8"/>
+    <sheet name="正负数据" sheetId="8" r:id="rId9"/>
+    <sheet name="背对背比较图" sheetId="10" r:id="rId10"/>
+    <sheet name="气泡图" sheetId="12" r:id="rId11"/>
+    <sheet name="有空格时" sheetId="13" r:id="rId12"/>
+    <sheet name="坐标轴不是整数怎样改乘整数" sheetId="14" r:id="rId13"/>
+    <sheet name="跳转链接" sheetId="22" r:id="rId14"/>
+    <sheet name="只保留线条的折线图" sheetId="15" r:id="rId15"/>
+    <sheet name="利用滑块来制作动态图" sheetId="16" r:id="rId16"/>
+    <sheet name="Sheet2" sheetId="17" r:id="rId17"/>
   </sheets>
   <definedNames>
     <definedName name="fi">Sheet1!$C$2:$D$11</definedName>
     <definedName name="op">Sheet1!$C$2:$D$10</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="21">Sheet2!$D$1:$N$13</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="21">Sheet2!$1:$1</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="16">Sheet2!$D$1:$N$13</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="16">Sheet2!$1:$1</definedName>
     <definedName name="wa" localSheetId="0">Sheet1!$C$3:$D$16</definedName>
     <definedName name="大哥">dawjd!$T$49</definedName>
     <definedName name="名称">dawjd!$J$41</definedName>
@@ -50,13 +45,13 @@
   </definedNames>
   <calcPr calcId="181029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId23"/>
+    <pivotCache cacheId="0" r:id="rId18"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="396">
   <si>
     <t>序号</t>
   </si>
@@ -1563,6 +1558,10 @@
     <t>姓名</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
+  <si>
+    <t>dassdasdaasfasdf</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1581,7 +1580,7 @@
     <numFmt numFmtId="183" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="184" formatCode="_-[$£-809]* #,##0.00_-;\-[$£-809]* #,##0.00_-;_-[$£-809]* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1744,6 +1743,19 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Microsoft YaHei UI"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -2290,7 +2302,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="256">
+  <cellXfs count="259">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3027,6 +3039,15 @@
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4678,7 +4699,7 @@
           </a:effectLst>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="1680000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="0"/>
+          <a:bodyPr rot="1680000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="0"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -6862,7 +6883,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>庚</c:v>
+                  <c:v>甲</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6884,7 +6905,7 @@
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>酉</c:v>
+                  <c:v>子</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>丑</c:v>
@@ -6929,34 +6950,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>16</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>9</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="9">
                   <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>11</c:v>
@@ -7200,7 +7221,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>酉</c:v>
+                  <c:v>子</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7221,7 +7242,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>庚</c:v>
+                  <c:v>甲</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7233,7 +7254,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>16</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8515,89 +8536,6 @@
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>设置横纵坐标名称!$B$11</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>数据库原理及其应用</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>设置横纵坐标名称!$A$12:$A$17</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>霍金婷</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>周智生</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>管腾飞</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>承俊涛</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>李浴淑</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>苏艺阳</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>设置横纵坐标名称!$B$12:$B$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>93</c:v>
-                </c:pt>
-                <c:pt idx="5" formatCode="0.00_ ">
-                  <c:v>84</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-CD16-4EB0-BC29-C8B6C2143DDB}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
@@ -8693,6 +8631,108 @@
         <c:axId val="653480840"/>
         <c:axId val="653483792"/>
       </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>设置横纵坐标名称!$B$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>数据库原理及其应用</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>设置横纵坐标名称!$A$12:$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>霍金婷</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>周智生</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>管腾飞</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>承俊涛</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>李浴淑</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>苏艺阳</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>设置横纵坐标名称!$B$12:$B$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00_ ">
+                  <c:v>84</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CD16-4EB0-BC29-C8B6C2143DDB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="653480840"/>
+        <c:axId val="653483792"/>
+      </c:lineChart>
       <c:catAx>
         <c:axId val="653480840"/>
         <c:scaling>
@@ -21226,27 +21266,31 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="26" fmlaLink="$A$12" horiz="1" max="10" min="1" page="10" val="7"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="26" fmlaLink="$A$12" horiz="1" max="10" min="1" page="10"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="26" fmlaLink="$A$13" horiz="1" max="12" min="1" page="10" val="10"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="26" fmlaLink="$A$13" horiz="1" max="12" min="1" page="10"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" checked="Checked" firstButton="1" fmlaLink="$L$13" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>601980</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>281940</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>388620</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -21418,7 +21462,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59ABB7D9-0A6E-49E0-8AAE-38CC6373CB65}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21491,7 +21535,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0E00-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21532,7 +21576,7 @@
         <xdr:cNvPr id="4" name="图表 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1200-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21573,7 +21617,7 @@
                   <a14:compatExt spid="_x0000_s16385"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000001400000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1200-000001400000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -21604,16 +21648,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>220980</xdr:colOff>
-          <xdr:row>30</xdr:row>
-          <xdr:rowOff>7620</xdr:rowOff>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>243840</xdr:colOff>
+          <xdr:row>16</xdr:row>
+          <xdr:rowOff>114300</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>8</xdr:col>
-          <xdr:colOff>434340</xdr:colOff>
-          <xdr:row>32</xdr:row>
-          <xdr:rowOff>68580</xdr:rowOff>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>457200</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>175260</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -21623,7 +21667,7 @@
                   <a14:compatExt spid="_x0000_s16386"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000002400000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1200-000002400000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -21652,23 +21696,23 @@
   </mc:AlternateContent>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="6" name="图表 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1200-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21690,23 +21734,23 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>16</xdr:col>
-          <xdr:colOff>403860</xdr:colOff>
-          <xdr:row>6</xdr:row>
-          <xdr:rowOff>7620</xdr:rowOff>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>327660</xdr:colOff>
+          <xdr:row>19</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>18</xdr:col>
-          <xdr:colOff>411480</xdr:colOff>
-          <xdr:row>8</xdr:row>
-          <xdr:rowOff>15240</xdr:rowOff>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>335280</xdr:colOff>
+          <xdr:row>21</xdr:row>
+          <xdr:rowOff>160020</xdr:rowOff>
         </xdr:to>
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="9" name="图片 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000009000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1200-000009000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -21714,7 +21758,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$A$15:$B$16" spid="_x0000_s16419"/>
+                  <a14:cameraTool cellRange="$A$15:$B$16" spid="_x0000_s16429"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -21728,7 +21772,7 @@
           </xdr:blipFill>
           <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="10157460" y="1104900"/>
+              <a:off x="2766060" y="3627120"/>
               <a:ext cx="1226820" cy="373380"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -21746,6 +21790,157 @@
             </a:extLst>
           </xdr:spPr>
         </xdr:pic>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>15</xdr:col>
+          <xdr:colOff>525780</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>91440</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>18</xdr:col>
+          <xdr:colOff>533400</xdr:colOff>
+          <xdr:row>12</xdr:row>
+          <xdr:rowOff>99060</xdr:rowOff>
+        </xdr:to>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="8" name="图片 7">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A37E05BF-C996-4929-97C4-8A2CBC58D197}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+              <a:extLst>
+                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
+                  <a14:cameraTool cellRange="$O$19:$Q$21" spid="_x0000_s16430"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="9669780" y="1737360"/>
+              <a:ext cx="1836420" cy="556260"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>17</xdr:col>
+          <xdr:colOff>342900</xdr:colOff>
+          <xdr:row>14</xdr:row>
+          <xdr:rowOff>121920</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>19</xdr:col>
+          <xdr:colOff>99060</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>83820</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="16426" name="Option Button 42" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s16426"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00002A400000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Microsoft YaHei UI"/>
+                  <a:ea typeface="Microsoft YaHei UI"/>
+                </a:rPr>
+                <a:t>这是啥？</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
     </mc:Choice>
@@ -21871,16 +22066,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>396240</xdr:colOff>
-      <xdr:row>100</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>91440</xdr:colOff>
-      <xdr:row>115</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>472440</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -22892,7 +23087,7 @@
   </sheetPr>
   <dimension ref="A1:U150"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -26849,11 +27044,11 @@
     <row r="67" spans="2:13">
       <c r="I67" s="145">
         <f ca="1">NOW()</f>
-        <v>44294.785876851849</v>
+        <v>44294.851801736113</v>
       </c>
       <c r="K67" s="145">
         <f ca="1">NOW()</f>
-        <v>44294.785876851849</v>
+        <v>44294.851801736113</v>
       </c>
     </row>
     <row r="69" spans="2:13">
@@ -26987,7 +27182,7 @@
     <row r="79" spans="2:13">
       <c r="B79">
         <f t="shared" ref="B79" ca="1" si="7">INT(10+90*RAND())</f>
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="80" spans="2:13">
@@ -26997,11 +27192,11 @@
       </c>
       <c r="F80">
         <f t="shared" ref="F80:G80" ca="1" si="8">RAND()</f>
-        <v>0.52442111256238466</v>
+        <v>7.97171818832626E-2</v>
       </c>
       <c r="G80">
         <f t="shared" ca="1" si="8"/>
-        <v>9.1280873985913225E-2</v>
+        <v>0.29412490045326789</v>
       </c>
       <c r="I80">
         <v>1</v>
@@ -27022,15 +27217,15 @@
     <row r="81" spans="1:13">
       <c r="E81">
         <f t="shared" ref="E81:G93" ca="1" si="9">RAND()</f>
-        <v>0.54547724765954408</v>
+        <v>0.17136723992421488</v>
       </c>
       <c r="F81">
         <f t="shared" ca="1" si="9"/>
-        <v>0.54579663656805311</v>
+        <v>0.42280300867972198</v>
       </c>
       <c r="G81">
         <f t="shared" ca="1" si="9"/>
-        <v>0.3165481947010188</v>
+        <v>0.51934168505249645</v>
       </c>
       <c r="I81">
         <v>1</v>
@@ -27051,15 +27246,15 @@
     <row r="82" spans="1:13">
       <c r="E82">
         <f t="shared" ca="1" si="9"/>
-        <v>2.528850668777527E-2</v>
+        <v>0.44315880146641751</v>
       </c>
       <c r="F82">
         <f t="shared" ca="1" si="9"/>
-        <v>0.23373944323478923</v>
+        <v>0.42200074114641595</v>
       </c>
       <c r="G82">
         <f t="shared" ca="1" si="9"/>
-        <v>0.74874831554166366</v>
+        <v>0.29179540430012596</v>
       </c>
       <c r="I82">
         <v>1</v>
@@ -27080,15 +27275,15 @@
     <row r="83" spans="1:13">
       <c r="E83">
         <f t="shared" ca="1" si="9"/>
-        <v>0.14218531304040649</v>
+        <v>0.88099470750751918</v>
       </c>
       <c r="F83">
         <f t="shared" ca="1" si="9"/>
-        <v>0.76203741624021537</v>
+        <v>0.72329430278044426</v>
       </c>
       <c r="G83">
         <f t="shared" ca="1" si="9"/>
-        <v>0.12461080210393871</v>
+        <v>0.81246912578615804</v>
       </c>
       <c r="H83">
         <v>23</v>
@@ -27112,15 +27307,15 @@
     <row r="84" spans="1:13">
       <c r="E84">
         <f t="shared" ca="1" si="9"/>
-        <v>0.51497536265833643</v>
+        <v>0.38776987655405437</v>
       </c>
       <c r="F84">
         <f t="shared" ca="1" si="9"/>
-        <v>3.1347770928945584E-3</v>
+        <v>0.22387659436484797</v>
       </c>
       <c r="G84">
         <f t="shared" ca="1" si="9"/>
-        <v>0.67816355452371524</v>
+        <v>0.83366587157056316</v>
       </c>
       <c r="H84">
         <v>23</v>
@@ -27144,27 +27339,27 @@
     <row r="85" spans="1:13">
       <c r="A85">
         <f ca="1">B85</f>
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B85">
         <f t="shared" ref="B85:C94" ca="1" si="10">INT(10+90*RAND())</f>
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C85">
         <f t="shared" ca="1" si="10"/>
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="E85">
         <f t="shared" ca="1" si="9"/>
-        <v>0.45574115902397228</v>
+        <v>0.49200209478640977</v>
       </c>
       <c r="F85">
         <f t="shared" ca="1" si="9"/>
-        <v>6.7847550837553006E-2</v>
+        <v>0.87506108343554156</v>
       </c>
       <c r="G85">
         <f t="shared" ca="1" si="9"/>
-        <v>0.98283176971971276</v>
+        <v>0.9456011791846114</v>
       </c>
       <c r="H85">
         <v>23</v>
@@ -27188,27 +27383,27 @@
     <row r="86" spans="1:13">
       <c r="A86">
         <f t="shared" ref="A86:A94" ca="1" si="11">INT(10+90*RAND())</f>
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B86">
         <f t="shared" ca="1" si="10"/>
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="C86">
         <f t="shared" ca="1" si="10"/>
-        <v>33</v>
+        <v>79</v>
       </c>
       <c r="E86">
         <f t="shared" ca="1" si="9"/>
-        <v>0.87026870185969862</v>
+        <v>9.7780722165685119E-2</v>
       </c>
       <c r="F86">
         <f t="shared" ca="1" si="9"/>
-        <v>0.78441533317942114</v>
+        <v>0.61330855073981316</v>
       </c>
       <c r="G86">
         <f t="shared" ca="1" si="9"/>
-        <v>0.98186050733672747</v>
+        <v>0.74707792555673924</v>
       </c>
       <c r="H86">
         <v>23</v>
@@ -27232,27 +27427,27 @@
     <row r="87" spans="1:13">
       <c r="A87">
         <f t="shared" ca="1" si="11"/>
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B87">
         <f t="shared" ca="1" si="10"/>
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="C87">
         <f t="shared" ca="1" si="10"/>
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="E87">
         <f t="shared" ca="1" si="9"/>
-        <v>0.94761223364835734</v>
+        <v>0.88957238170648467</v>
       </c>
       <c r="F87">
         <f t="shared" ca="1" si="9"/>
-        <v>0.71926129789552795</v>
+        <v>0.59877607803093957</v>
       </c>
       <c r="G87">
         <f t="shared" ca="1" si="9"/>
-        <v>0.29444435689544868</v>
+        <v>5.2655687727032552E-2</v>
       </c>
       <c r="H87">
         <v>23</v>
@@ -27276,26 +27471,26 @@
     <row r="88" spans="1:13">
       <c r="A88">
         <f t="shared" ca="1" si="11"/>
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="B88" s="147" t="s">
         <v>171</v>
       </c>
       <c r="C88">
         <f t="shared" ca="1" si="10"/>
-        <v>97</v>
+        <v>47</v>
       </c>
       <c r="E88">
         <f t="shared" ca="1" si="9"/>
-        <v>0.44886818334227496</v>
+        <v>0.15348825707050484</v>
       </c>
       <c r="F88">
         <f t="shared" ca="1" si="9"/>
-        <v>0.5652524871129968</v>
+        <v>0.18953543561471253</v>
       </c>
       <c r="G88">
         <f t="shared" ca="1" si="9"/>
-        <v>0.3857989632619776</v>
+        <v>0.48700501513810834</v>
       </c>
       <c r="H88">
         <v>23</v>
@@ -27319,27 +27514,27 @@
     <row r="89" spans="1:13">
       <c r="A89">
         <f t="shared" ca="1" si="11"/>
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="B89">
         <f t="shared" ca="1" si="10"/>
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="C89">
         <f t="shared" ca="1" si="10"/>
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E89">
         <f t="shared" ca="1" si="9"/>
-        <v>0.4340008150250716</v>
+        <v>0.35685859341901538</v>
       </c>
       <c r="F89">
         <f t="shared" ca="1" si="9"/>
-        <v>0.88562563444297815</v>
+        <v>0.7916037582940203</v>
       </c>
       <c r="G89">
         <f t="shared" ca="1" si="9"/>
-        <v>6.5343822238010163E-2</v>
+        <v>0.88814556692463453</v>
       </c>
       <c r="H89">
         <v>23</v>
@@ -27363,27 +27558,27 @@
     <row r="90" spans="1:13">
       <c r="A90">
         <f t="shared" ca="1" si="11"/>
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="B90">
         <f t="shared" ca="1" si="10"/>
-        <v>13</v>
+        <v>88</v>
       </c>
       <c r="C90">
         <f t="shared" ca="1" si="10"/>
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="E90">
         <f t="shared" ca="1" si="9"/>
-        <v>0.58923571406199615</v>
+        <v>0.95557133600762045</v>
       </c>
       <c r="F90">
         <f t="shared" ca="1" si="9"/>
-        <v>0.92061507572459433</v>
+        <v>0.33641371756136607</v>
       </c>
       <c r="G90">
         <f t="shared" ca="1" si="9"/>
-        <v>0.22527139750718828</v>
+        <v>0.17663747681898767</v>
       </c>
       <c r="H90">
         <v>23</v>
@@ -27407,27 +27602,27 @@
     <row r="91" spans="1:13">
       <c r="A91">
         <f t="shared" ca="1" si="11"/>
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="B91">
         <f t="shared" ca="1" si="10"/>
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="C91">
         <f t="shared" ca="1" si="10"/>
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E91">
         <f t="shared" ca="1" si="9"/>
-        <v>0.34165061859590096</v>
+        <v>7.978407520700781E-2</v>
       </c>
       <c r="F91">
         <f t="shared" ca="1" si="9"/>
-        <v>0.68206972698115709</v>
+        <v>0.8413469150753734</v>
       </c>
       <c r="G91">
         <f t="shared" ca="1" si="9"/>
-        <v>0.10000887257126501</v>
+        <v>0.66171094902046634</v>
       </c>
       <c r="H91">
         <v>23</v>
@@ -27451,27 +27646,27 @@
     <row r="92" spans="1:13">
       <c r="A92">
         <f t="shared" ca="1" si="11"/>
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B92">
         <f t="shared" ca="1" si="10"/>
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="C92">
         <f t="shared" ca="1" si="10"/>
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="E92">
         <f t="shared" ca="1" si="9"/>
-        <v>3.1609373349140935E-2</v>
+        <v>0.23234997574760685</v>
       </c>
       <c r="F92">
         <f t="shared" ca="1" si="9"/>
-        <v>0.89840073855419955</v>
+        <v>0.9234519852096732</v>
       </c>
       <c r="G92">
         <f t="shared" ca="1" si="9"/>
-        <v>0.80524725197487801</v>
+        <v>0.21329740688489918</v>
       </c>
       <c r="I92">
         <v>1</v>
@@ -27492,27 +27687,27 @@
     <row r="93" spans="1:13">
       <c r="A93">
         <f t="shared" ca="1" si="11"/>
-        <v>57</v>
+        <v>97</v>
       </c>
       <c r="B93">
         <f t="shared" ca="1" si="10"/>
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="C93">
         <f t="shared" ca="1" si="10"/>
-        <v>29</v>
+        <v>88</v>
       </c>
       <c r="E93">
         <f t="shared" ca="1" si="9"/>
-        <v>0.1176962458746561</v>
+        <v>0.44236558488687661</v>
       </c>
       <c r="F93">
         <f t="shared" ca="1" si="9"/>
-        <v>0.61402514031002919</v>
+        <v>0.41505462616646005</v>
       </c>
       <c r="G93">
         <f t="shared" ca="1" si="9"/>
-        <v>0.31250263256303601</v>
+        <v>0.98776279889843766</v>
       </c>
       <c r="I93">
         <v>1</v>
@@ -27533,15 +27728,15 @@
     <row r="94" spans="1:13">
       <c r="A94">
         <f t="shared" ca="1" si="11"/>
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B94">
         <f t="shared" ca="1" si="10"/>
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="C94">
         <f t="shared" ca="1" si="10"/>
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="I94">
         <v>1</v>
@@ -27630,19 +27825,19 @@
     <row r="104" spans="2:11">
       <c r="B104">
         <f ca="1">RAND()+G108</f>
-        <v>23.602017289798443</v>
+        <v>23.556795937059874</v>
       </c>
       <c r="C104">
         <f t="shared" ref="C104:E110" ca="1" si="12">RAND()+H108</f>
-        <v>23.456846804393226</v>
+        <v>23.336491046106655</v>
       </c>
       <c r="D104">
         <f t="shared" ca="1" si="12"/>
-        <v>23.802182128590381</v>
+        <v>23.852347990425613</v>
       </c>
       <c r="E104">
         <f t="shared" ca="1" si="12"/>
-        <v>26.022998416168065</v>
+        <v>26.288087316539251</v>
       </c>
       <c r="G104">
         <v>23</v>
@@ -27663,11 +27858,11 @@
     <row r="105" spans="2:11">
       <c r="B105">
         <f t="shared" ref="B105:B111" ca="1" si="13">RAND()+G109</f>
-        <v>0.16894060568282199</v>
+        <v>0.13183160153654461</v>
       </c>
       <c r="C105">
         <f ca="1">RAND()+G64</f>
-        <v>43.443101079693889</v>
+        <v>43.511479863681132</v>
       </c>
       <c r="G105">
         <v>23</v>
@@ -27688,11 +27883,11 @@
     <row r="106" spans="2:11">
       <c r="B106">
         <f t="shared" ca="1" si="13"/>
-        <v>0.67473935936785101</v>
+        <v>0.29713172856155634</v>
       </c>
       <c r="C106">
         <f t="shared" ca="1" si="12"/>
-        <v>0.65263073839588592</v>
+        <v>0.75117834496167657</v>
       </c>
       <c r="G106">
         <v>23</v>
@@ -27713,11 +27908,11 @@
     <row r="107" spans="2:11">
       <c r="B107">
         <f t="shared" ca="1" si="13"/>
-        <v>0.15154355770411698</v>
+        <v>0.31709102537296385</v>
       </c>
       <c r="C107">
         <f t="shared" ca="1" si="12"/>
-        <v>0.51696634739871516</v>
+        <v>0.396894467001212</v>
       </c>
       <c r="G107">
         <v>23</v>
@@ -27738,11 +27933,11 @@
     <row r="108" spans="2:11">
       <c r="B108">
         <f t="shared" ca="1" si="13"/>
-        <v>2.2848374030404184E-4</v>
+        <v>0.49839008450787892</v>
       </c>
       <c r="C108">
         <f t="shared" ca="1" si="12"/>
-        <v>0.96521754011530003</v>
+        <v>0.23717494902110159</v>
       </c>
       <c r="G108" s="114">
         <v>23</v>
@@ -27763,165 +27958,165 @@
     <row r="109" spans="2:11">
       <c r="B109">
         <f t="shared" ca="1" si="13"/>
-        <v>0.44868734597523408</v>
+        <v>8.2400297444379267E-2</v>
       </c>
       <c r="C109">
         <f t="shared" ca="1" si="12"/>
-        <v>0.26915300596276615</v>
+        <v>0.42923841162069565</v>
       </c>
     </row>
     <row r="110" spans="2:11">
       <c r="B110">
         <f t="shared" ca="1" si="13"/>
-        <v>0.52003333271015639</v>
+        <v>0.91067886941912346</v>
       </c>
       <c r="C110">
         <f t="shared" ca="1" si="12"/>
-        <v>1.0258582877004976</v>
+        <v>0.45492887235141477</v>
       </c>
     </row>
     <row r="111" spans="2:11">
       <c r="B111">
         <f t="shared" ca="1" si="13"/>
-        <v>0.81228634825642598</v>
+        <v>0.43454541614223474</v>
       </c>
     </row>
     <row r="113" spans="2:11">
       <c r="I113">
         <f ca="1">RAND()+232</f>
-        <v>232.78283928837064</v>
+        <v>232.20556701983699</v>
       </c>
       <c r="J113">
         <f ca="1">RAND()+232</f>
-        <v>232.64418281208316</v>
+        <v>232.55385473682873</v>
       </c>
     </row>
     <row r="114" spans="2:11">
       <c r="H114">
         <f ca="1">RAND()</f>
-        <v>0.79809906594356461</v>
+        <v>0.4500129239039049</v>
       </c>
       <c r="I114">
         <f t="shared" ref="I114:J120" ca="1" si="14">RAND()+232</f>
-        <v>232.17478059547503</v>
+        <v>232.6726555603957</v>
       </c>
       <c r="J114">
         <f t="shared" ca="1" si="14"/>
-        <v>232.99290507884936</v>
+        <v>232.72600185467689</v>
       </c>
     </row>
     <row r="115" spans="2:11">
       <c r="I115">
         <f t="shared" ca="1" si="14"/>
-        <v>232.96200562111463</v>
+        <v>232.60362667208568</v>
       </c>
       <c r="J115">
         <f t="shared" ca="1" si="14"/>
-        <v>232.33123949389548</v>
+        <v>232.19865008643603</v>
       </c>
     </row>
     <row r="116" spans="2:11">
       <c r="I116">
         <f t="shared" ca="1" si="14"/>
-        <v>232.58904146903737</v>
+        <v>232.7774367128294</v>
       </c>
       <c r="J116">
         <f t="shared" ca="1" si="14"/>
-        <v>232.81967491472642</v>
+        <v>232.03245651032003</v>
       </c>
     </row>
     <row r="117" spans="2:11">
       <c r="E117" s="148"/>
       <c r="I117">
         <f t="shared" ca="1" si="14"/>
-        <v>232.04710213085318</v>
+        <v>232.75804970056313</v>
       </c>
       <c r="J117">
         <f t="shared" ca="1" si="14"/>
-        <v>232.29735875287324</v>
+        <v>232.60455769257169</v>
       </c>
     </row>
     <row r="118" spans="2:11">
       <c r="I118">
         <f t="shared" ca="1" si="14"/>
-        <v>232.74197852201897</v>
+        <v>232.40428055619904</v>
       </c>
       <c r="J118">
         <f t="shared" ca="1" si="14"/>
-        <v>232.52336737826181</v>
+        <v>232.10671003300061</v>
       </c>
     </row>
     <row r="119" spans="2:11">
       <c r="B119">
         <f ca="1">RAND()+$G$108</f>
-        <v>23.518052509556746</v>
+        <v>23.636301411579247</v>
       </c>
       <c r="C119">
         <f t="shared" ref="C119:E119" ca="1" si="15">RAND()+$G$108</f>
-        <v>23.484096109470805</v>
+        <v>23.385847640219659</v>
       </c>
       <c r="D119">
         <f t="shared" ca="1" si="15"/>
-        <v>23.451382888440573</v>
+        <v>23.831186590802265</v>
       </c>
       <c r="E119">
         <f t="shared" ca="1" si="15"/>
-        <v>23.143598716446512</v>
+        <v>23.456376550012592</v>
       </c>
       <c r="I119">
         <f t="shared" ca="1" si="14"/>
-        <v>232.25363971301962</v>
+        <v>232.96925604869261</v>
       </c>
       <c r="J119">
         <f t="shared" ca="1" si="14"/>
-        <v>232.22832401810246</v>
+        <v>232.26425173723169</v>
       </c>
     </row>
     <row r="120" spans="2:11">
       <c r="B120">
         <f t="shared" ref="B120:E126" ca="1" si="16">RAND()+$G$108</f>
-        <v>23.676412956451045</v>
+        <v>23.330844388780712</v>
       </c>
       <c r="C120">
         <f t="shared" ca="1" si="16"/>
-        <v>23.566414775046294</v>
+        <v>23.736459818604164</v>
       </c>
       <c r="D120">
         <f t="shared" ca="1" si="16"/>
-        <v>23.87562640148553</v>
+        <v>23.645955099815172</v>
       </c>
       <c r="E120">
         <f t="shared" ca="1" si="16"/>
-        <v>23.923220839334753</v>
+        <v>23.065868038728251</v>
       </c>
       <c r="G120" s="149" t="s">
         <v>172</v>
       </c>
       <c r="I120">
         <f t="shared" ca="1" si="14"/>
-        <v>232.41535205042987</v>
+        <v>232.12956970393319</v>
       </c>
       <c r="J120">
         <f t="shared" ca="1" si="14"/>
-        <v>232.72223199804026</v>
+        <v>232.53261568419072</v>
       </c>
     </row>
     <row r="121" spans="2:11">
       <c r="B121">
         <f t="shared" ca="1" si="16"/>
-        <v>23.228284518590989</v>
+        <v>23.22397415321014</v>
       </c>
       <c r="C121">
         <f t="shared" ca="1" si="16"/>
-        <v>23.518727098033164</v>
+        <v>23.44532384669451</v>
       </c>
       <c r="D121">
         <f t="shared" ca="1" si="16"/>
-        <v>23.842050981389313</v>
+        <v>23.627634884467454</v>
       </c>
       <c r="E121">
         <f t="shared" ca="1" si="16"/>
-        <v>23.707456275801768</v>
+        <v>23.156586696523505</v>
       </c>
       <c r="H121" s="151">
         <v>0.9</v>
@@ -27930,19 +28125,19 @@
     <row r="122" spans="2:11">
       <c r="B122">
         <f t="shared" ca="1" si="16"/>
-        <v>23.993309803451737</v>
+        <v>23.451321937286021</v>
       </c>
       <c r="C122">
         <f t="shared" ca="1" si="16"/>
-        <v>23.287043164157787</v>
+        <v>23.802095852956604</v>
       </c>
       <c r="D122">
         <f t="shared" ca="1" si="16"/>
-        <v>23.48069096199178</v>
+        <v>23.630933133265788</v>
       </c>
       <c r="E122">
         <f t="shared" ca="1" si="16"/>
-        <v>23.40886004451054</v>
+        <v>23.79613223719058</v>
       </c>
       <c r="H122">
         <v>0.2</v>
@@ -27951,55 +28146,55 @@
     <row r="123" spans="2:11">
       <c r="B123">
         <f t="shared" ca="1" si="16"/>
-        <v>23.168256274493359</v>
+        <v>23.958218440443563</v>
       </c>
       <c r="C123">
         <f t="shared" ca="1" si="16"/>
-        <v>23.96653520650846</v>
+        <v>23.796702675874368</v>
       </c>
       <c r="D123">
         <f t="shared" ca="1" si="16"/>
-        <v>23.300268909634013</v>
+        <v>23.147581773175574</v>
       </c>
       <c r="E123">
         <f t="shared" ca="1" si="16"/>
-        <v>23.249849412170146</v>
+        <v>23.688292447406337</v>
       </c>
     </row>
     <row r="124" spans="2:11">
       <c r="B124">
         <f t="shared" ca="1" si="16"/>
-        <v>23.724862884780421</v>
+        <v>23.572839210431884</v>
       </c>
       <c r="C124">
         <f t="shared" ca="1" si="16"/>
-        <v>23.763156599255112</v>
+        <v>23.916582801494464</v>
       </c>
       <c r="D124">
         <f t="shared" ca="1" si="16"/>
-        <v>23.735325251445538</v>
+        <v>23.25701292801417</v>
       </c>
       <c r="E124">
         <f t="shared" ca="1" si="16"/>
-        <v>23.42375703886411</v>
+        <v>23.230547286026386</v>
       </c>
     </row>
     <row r="125" spans="2:11">
       <c r="B125">
         <f t="shared" ca="1" si="16"/>
-        <v>23.296939069212289</v>
+        <v>23.483504578044865</v>
       </c>
       <c r="C125">
         <f t="shared" ca="1" si="16"/>
-        <v>23.128775454137788</v>
+        <v>23.138083085099122</v>
       </c>
       <c r="D125">
         <f t="shared" ca="1" si="16"/>
-        <v>23.794730340440214</v>
+        <v>23.53669710342643</v>
       </c>
       <c r="E125">
         <f t="shared" ca="1" si="16"/>
-        <v>23.662395328734579</v>
+        <v>23.006364796750969</v>
       </c>
       <c r="J125" s="150"/>
       <c r="K125" s="150"/>
@@ -28007,19 +28202,19 @@
     <row r="126" spans="2:11">
       <c r="B126">
         <f t="shared" ca="1" si="16"/>
-        <v>23.210215562599512</v>
+        <v>23.659996683090711</v>
       </c>
       <c r="C126">
         <f t="shared" ca="1" si="16"/>
-        <v>23.421230000403657</v>
+        <v>23.712315176164829</v>
       </c>
       <c r="D126">
         <f t="shared" ca="1" si="16"/>
-        <v>23.292978079066533</v>
+        <v>23.941092620293333</v>
       </c>
       <c r="E126">
         <f t="shared" ca="1" si="16"/>
-        <v>23.028947064292797</v>
+        <v>23.859011300352339</v>
       </c>
       <c r="J126" s="150"/>
       <c r="K126" s="150"/>
@@ -28092,11 +28287,11 @@
     <row r="135" spans="1:11">
       <c r="I135">
         <f ca="1">I120</f>
-        <v>232.41535205042987</v>
+        <v>232.12956970393319</v>
       </c>
       <c r="J135">
         <f ca="1">J120</f>
-        <v>232.72223199804026</v>
+        <v>232.53261568419072</v>
       </c>
       <c r="K135">
         <f>K120</f>
@@ -28209,35 +28404,35 @@
     <row r="150" spans="8:15">
       <c r="H150">
         <f t="shared" ref="H150:O150" ca="1" si="27">RAND()+232</f>
-        <v>232.67475230092498</v>
+        <v>232.11735194769341</v>
       </c>
       <c r="I150">
         <f t="shared" ca="1" si="27"/>
-        <v>232.11542102606822</v>
+        <v>232.22328632337309</v>
       </c>
       <c r="J150">
         <f t="shared" ca="1" si="27"/>
-        <v>232.05206738478191</v>
+        <v>232.25975614480177</v>
       </c>
       <c r="K150">
         <f t="shared" ca="1" si="27"/>
-        <v>232.36105235217676</v>
+        <v>232.69894775915739</v>
       </c>
       <c r="L150">
         <f t="shared" ca="1" si="27"/>
-        <v>232.83964422913405</v>
+        <v>232.26005349001781</v>
       </c>
       <c r="M150">
         <f t="shared" ca="1" si="27"/>
-        <v>232.82728559620423</v>
+        <v>232.76215772048027</v>
       </c>
       <c r="N150">
         <f t="shared" ca="1" si="27"/>
-        <v>232.88326302451463</v>
+        <v>232.34623968892544</v>
       </c>
       <c r="O150">
         <f t="shared" ca="1" si="27"/>
-        <v>232.82638165459693</v>
+        <v>232.11716784564706</v>
       </c>
     </row>
   </sheetData>
@@ -28263,105 +28458,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6214E7DC-D170-4CC6-920A-3BFC551A5BE8}">
-  <sheetPr codeName="Sheet11">
-    <tabColor rgb="FFFFC000"/>
-  </sheetPr>
-  <dimension ref="A1:L2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="20.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" s="114" t="s">
-        <v>344</v>
-      </c>
-      <c r="B1">
-        <v>2001</v>
-      </c>
-      <c r="C1">
-        <v>2002</v>
-      </c>
-      <c r="D1">
-        <v>2003</v>
-      </c>
-      <c r="E1">
-        <v>2004</v>
-      </c>
-      <c r="F1">
-        <v>2005</v>
-      </c>
-      <c r="G1">
-        <v>2006</v>
-      </c>
-      <c r="H1">
-        <v>2007</v>
-      </c>
-      <c r="I1">
-        <v>2008</v>
-      </c>
-      <c r="J1">
-        <v>2009</v>
-      </c>
-      <c r="K1">
-        <v>2010</v>
-      </c>
-      <c r="L1">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="114" t="s">
-        <v>345</v>
-      </c>
-      <c r="B2">
-        <v>4000</v>
-      </c>
-      <c r="C2">
-        <v>4500</v>
-      </c>
-      <c r="D2">
-        <v>-5000</v>
-      </c>
-      <c r="E2">
-        <v>5500</v>
-      </c>
-      <c r="F2">
-        <v>-6000</v>
-      </c>
-      <c r="G2">
-        <v>6500</v>
-      </c>
-      <c r="H2">
-        <v>7000</v>
-      </c>
-      <c r="I2">
-        <v>-7500</v>
-      </c>
-      <c r="J2">
-        <v>8000</v>
-      </c>
-      <c r="K2">
-        <v>8500</v>
-      </c>
-      <c r="L2">
-        <v>9000</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A9DCEC8-8DF4-4270-94EF-CC1EB568AE0F}">
   <sheetPr codeName="Sheet12">
     <tabColor rgb="FF0070C0"/>
@@ -28576,7 +28672,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41B091F9-042C-4C0A-B3BC-945762A6FC59}">
   <sheetPr codeName="Sheet13">
     <tabColor rgb="FFFFFF00"/>
@@ -28676,13 +28772,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF5CEAB1-9A1B-438B-B7C8-9B998E49B630}">
   <sheetPr codeName="Sheet14"/>
   <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView topLeftCell="AR1" workbookViewId="0">
-      <selection activeCell="BK20" sqref="BK20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -28891,7 +28987,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5619C8DD-8509-4479-95ED-514C4052C29A}">
   <sheetPr codeName="Sheet15"/>
   <dimension ref="A1:P31"/>
@@ -29097,38 +29193,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62E67405-8277-4BD3-A134-3765EF033779}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <sheetData/>
-  <phoneticPr fontId="9" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74B47A76-8588-4CC1-8066-96D207F9B322}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <sheetData/>
-  <phoneticPr fontId="9" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84110831-8153-49EE-8C1E-81BD86CD923A}">
+  <sheetPr>
+    <tabColor theme="4"/>
+  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="R24" sqref="R24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -29139,12 +29212,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{748CCA6D-F0E3-4406-827B-55AFAB277D95}">
   <sheetPr codeName="Sheet16"/>
   <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q22" sqref="Q22"/>
     </sheetView>
   </sheetViews>
@@ -29277,13 +29350,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CA44147-61EA-4A3C-A7B5-4AF656E9B672}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:X29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:O13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -29571,6 +29644,7 @@
       </c>
     </row>
     <row r="9" spans="1:17">
+      <c r="A9" s="257"/>
       <c r="E9" s="218" t="s">
         <v>376</v>
       </c>
@@ -29606,6 +29680,7 @@
       </c>
     </row>
     <row r="10" spans="1:17">
+      <c r="A10" s="257"/>
       <c r="E10" s="218" t="s">
         <v>377</v>
       </c>
@@ -29641,6 +29716,7 @@
       </c>
     </row>
     <row r="11" spans="1:17">
+      <c r="A11" s="257"/>
       <c r="E11" s="218" t="s">
         <v>378</v>
       </c>
@@ -29676,8 +29752,8 @@
       </c>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="216">
-        <v>7</v>
+      <c r="A12" s="258">
+        <v>1</v>
       </c>
       <c r="E12" s="218" t="s">
         <v>379</v>
@@ -29714,8 +29790,8 @@
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13">
-        <v>10</v>
+      <c r="A13" s="257">
+        <v>1</v>
       </c>
       <c r="E13" s="218" t="s">
         <v>380</v>
@@ -29739,7 +29815,7 @@
         <v>12</v>
       </c>
       <c r="L13">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="M13">
         <v>12</v>
@@ -29750,22 +29826,25 @@
       <c r="O13">
         <v>12</v>
       </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" s="257"/>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="114"/>
       <c r="B15" s="218" t="str">
         <f ca="1">OFFSET(E1,,$A$12)</f>
-        <v>庚</v>
+        <v>甲</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="218" t="str">
         <f ca="1">OFFSET(E1,$A$13,)</f>
-        <v>酉</v>
+        <v>子</v>
       </c>
       <c r="B16" s="218">
         <f ca="1">OFFSET(E1,$A$13,$A$12)</f>
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="P16" s="114"/>
       <c r="Q16" s="218">
@@ -29796,7 +29875,7 @@
       </c>
       <c r="B18" s="218">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:24">
@@ -29805,8 +29884,17 @@
       </c>
       <c r="B19" s="218">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N19">
+        <f>MATCH(N4,F10:I10)</f>
+        <v>3</v>
+      </c>
+      <c r="O19" s="256" t="s">
+        <v>395</v>
+      </c>
+      <c r="P19" s="256"/>
+      <c r="Q19" s="256"/>
     </row>
     <row r="20" spans="1:24">
       <c r="A20" s="114" t="s">
@@ -29814,8 +29902,11 @@
       </c>
       <c r="B20" s="218">
         <f t="shared" ca="1" si="0"/>
-        <v>11</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="O20" s="256"/>
+      <c r="P20" s="256"/>
+      <c r="Q20" s="256"/>
     </row>
     <row r="21" spans="1:24">
       <c r="A21" s="114" t="s">
@@ -29823,8 +29914,11 @@
       </c>
       <c r="B21" s="218">
         <f t="shared" ca="1" si="0"/>
-        <v>12</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="O21" s="256"/>
+      <c r="P21" s="256"/>
+      <c r="Q21" s="256"/>
     </row>
     <row r="22" spans="1:24">
       <c r="A22" s="114" t="s">
@@ -29832,7 +29926,7 @@
       </c>
       <c r="B22" s="218">
         <f t="shared" ca="1" si="0"/>
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:24">
@@ -29841,7 +29935,7 @@
       </c>
       <c r="B23" s="218">
         <f t="shared" ca="1" si="0"/>
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:24">
@@ -29850,7 +29944,7 @@
       </c>
       <c r="B24" s="218">
         <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:24">
@@ -29859,7 +29953,7 @@
       </c>
       <c r="B25" s="218">
         <f t="shared" ca="1" si="0"/>
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="N25" s="247" t="s">
         <v>381</v>
@@ -29944,8 +30038,9 @@
       <c r="X29" s="247"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="N25:X29"/>
+    <mergeCell ref="O19:Q21"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -29983,16 +30078,38 @@
               <controlPr defaultSize="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>4</xdr:col>
-                    <xdr:colOff>220980</xdr:colOff>
-                    <xdr:row>30</xdr:row>
-                    <xdr:rowOff>7620</xdr:rowOff>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>243840</xdr:colOff>
+                    <xdr:row>16</xdr:row>
+                    <xdr:rowOff>114300</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>8</xdr:col>
-                    <xdr:colOff>434340</xdr:colOff>
-                    <xdr:row>32</xdr:row>
-                    <xdr:rowOff>68580</xdr:rowOff>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>457200</xdr:colOff>
+                    <xdr:row>18</xdr:row>
+                    <xdr:rowOff>175260</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="16426" r:id="rId6" name="Option Button 42">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>17</xdr:col>
+                    <xdr:colOff>342900</xdr:colOff>
+                    <xdr:row>14</xdr:row>
+                    <xdr:rowOff>121920</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>19</xdr:col>
+                    <xdr:colOff>99060</xdr:colOff>
+                    <xdr:row>18</xdr:row>
+                    <xdr:rowOff>83820</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -30005,55 +30122,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F23F1FFF-F1E6-4272-BF5F-DE28AE47703F}">
-  <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <sheetData/>
-  <phoneticPr fontId="9" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B13DD1EE-D51E-4868-B4C4-3F2DF9965271}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <sheetData/>
-  <phoneticPr fontId="9" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D53BC28-B415-40B7-AD18-DFBD7E1D006B}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <sheetData/>
-  <phoneticPr fontId="9" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28E254D6-4609-4ED9-946B-5E617C6768D2}">
   <dimension ref="D1:AC1048550"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="12" ySplit="16" topLeftCell="M17" activePane="bottomRight" state="frozenSplit"/>
-      <selection pane="topRight" activeCell="M1" sqref="M1"/>
-      <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
-      <selection pane="bottomRight" activeCell="M21" sqref="M21"/>
+      <selection activeCell="V23" sqref="V23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -30800,9 +30874,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09127F29-3194-4FFC-88FD-D3742522A1AA}">
-  <sheetPr codeName="Sheet4"/>
+  <sheetPr codeName="Sheet4">
+    <pageSetUpPr autoPageBreaks="0"/>
+  </sheetPr>
   <dimension ref="A2:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -31125,18 +31201,19 @@
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{554BF0A3-836E-4103-BAE4-988152D2A362}">
   <sheetPr codeName="Sheet5">
     <tabColor theme="5" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:D135"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
+    <sheetView topLeftCell="A56" workbookViewId="0">
       <selection activeCell="D122" sqref="D122:D135"/>
     </sheetView>
   </sheetViews>
@@ -33173,15 +33250,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet6">
     <tabColor theme="7"/>
   </sheetPr>
   <dimension ref="A1:AK155"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K118" sqref="K118"/>
+    <sheetView topLeftCell="E11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W6" sqref="W6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -33387,7 +33464,7 @@
         <v>1.5</v>
       </c>
       <c r="W4" s="114">
-        <f t="shared" ref="W4:W5" si="0">COUNTIF(S1:S17,"&gt;85")</f>
+        <f>COUNTIF(S1:S17,"&gt;85")</f>
         <v>7</v>
       </c>
     </row>
@@ -33463,7 +33540,7 @@
         <v>优秀</v>
       </c>
       <c r="W5" s="114">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="W4:W5" si="0">COUNTIF(S2:S18,"&gt;85")</f>
         <v>7</v>
       </c>
     </row>
@@ -37598,15 +37675,15 @@
       </c>
       <c r="N147">
         <f ca="1">RANDBETWEEN(1,6)</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="O147">
         <f t="shared" ref="O147:Q147" ca="1" si="10">RANDBETWEEN(1,6)</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P147">
         <f t="shared" ca="1" si="10"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q147">
         <f t="shared" ca="1" si="10"/>
@@ -37631,19 +37708,19 @@
       </c>
       <c r="N148">
         <f t="shared" ref="N148:Q154" ca="1" si="11">RANDBETWEEN(1,6)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O148">
         <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P148">
         <f t="shared" ca="1" si="11"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q148">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S148" s="114" t="s">
         <v>269</v>
@@ -37662,19 +37739,19 @@
       </c>
       <c r="N149">
         <f t="shared" ca="1" si="11"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="O149">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="P149">
         <f t="shared" ca="1" si="11"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="Q149">
         <f t="shared" ca="1" si="11"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S149" s="114" t="s">
         <v>270</v>
@@ -37693,19 +37770,19 @@
       </c>
       <c r="N150">
         <f t="shared" ca="1" si="11"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O150">
         <f t="shared" ca="1" si="11"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P150">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q150">
         <f t="shared" ca="1" si="11"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S150" s="114" t="s">
         <v>271</v>
@@ -37720,11 +37797,11 @@
       </c>
       <c r="N151">
         <f t="shared" ca="1" si="11"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O151">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P151">
         <f t="shared" ca="1" si="11"/>
@@ -37732,7 +37809,7 @@
       </c>
       <c r="Q151">
         <f t="shared" ca="1" si="11"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="S151" s="114" t="s">
         <v>272</v>
@@ -37747,15 +37824,15 @@
       </c>
       <c r="N152">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O152">
         <f t="shared" ca="1" si="11"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P152">
         <f t="shared" ca="1" si="11"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q152">
         <f t="shared" ca="1" si="11"/>
@@ -37774,15 +37851,15 @@
       </c>
       <c r="N153">
         <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O153">
         <f t="shared" ca="1" si="11"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P153">
         <f t="shared" ca="1" si="11"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q153">
         <f t="shared" ca="1" si="11"/>
@@ -37798,19 +37875,19 @@
       </c>
       <c r="N154">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O154">
         <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P154">
         <f t="shared" ca="1" si="11"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q154">
         <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="S154" s="114" t="s">
         <v>275</v>
@@ -37865,7 +37942,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42855167-5C17-4158-A157-B60E7540E219}">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:T38"/>
@@ -38416,7 +38493,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAFFF3AD-6BC6-4933-AB83-722C75C8876B}">
   <sheetPr codeName="Sheet8">
     <tabColor theme="8" tint="-0.249977111117893"/>
@@ -39031,14 +39108,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{220C72AE-F5D4-49AE-A616-B037AFC3A2B7}">
   <sheetPr codeName="Sheet9">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="A2:N24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+    <sheetView topLeftCell="J1" workbookViewId="0">
       <selection activeCell="W15" sqref="W15"/>
     </sheetView>
   </sheetViews>
@@ -39140,7 +39217,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8C2910D-21E3-4246-80C8-2F2BA4CCC03B}">
   <sheetPr codeName="Sheet10">
     <tabColor rgb="FFC00000"/>
@@ -39339,4 +39416,103 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6214E7DC-D170-4CC6-920A-3BFC551A5BE8}">
+  <sheetPr codeName="Sheet11">
+    <tabColor rgb="FFFFC000"/>
+  </sheetPr>
+  <dimension ref="A1:L2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O19" sqref="O19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="20.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="114" t="s">
+        <v>344</v>
+      </c>
+      <c r="B1">
+        <v>2001</v>
+      </c>
+      <c r="C1">
+        <v>2002</v>
+      </c>
+      <c r="D1">
+        <v>2003</v>
+      </c>
+      <c r="E1">
+        <v>2004</v>
+      </c>
+      <c r="F1">
+        <v>2005</v>
+      </c>
+      <c r="G1">
+        <v>2006</v>
+      </c>
+      <c r="H1">
+        <v>2007</v>
+      </c>
+      <c r="I1">
+        <v>2008</v>
+      </c>
+      <c r="J1">
+        <v>2009</v>
+      </c>
+      <c r="K1">
+        <v>2010</v>
+      </c>
+      <c r="L1">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="114" t="s">
+        <v>345</v>
+      </c>
+      <c r="B2">
+        <v>4000</v>
+      </c>
+      <c r="C2">
+        <v>4500</v>
+      </c>
+      <c r="D2">
+        <v>-5000</v>
+      </c>
+      <c r="E2">
+        <v>5500</v>
+      </c>
+      <c r="F2">
+        <v>-6000</v>
+      </c>
+      <c r="G2">
+        <v>6500</v>
+      </c>
+      <c r="H2">
+        <v>7000</v>
+      </c>
+      <c r="I2">
+        <v>-7500</v>
+      </c>
+      <c r="J2">
+        <v>8000</v>
+      </c>
+      <c r="K2">
+        <v>8500</v>
+      </c>
+      <c r="L2">
+        <v>9000</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/excel练习.xlsx
+++ b/excel练习.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\desktop\Rmath\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9901A0D-0508-41E2-BBF7-2D3BC691CE07}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A00841C9-E8DF-424C-9AD0-8B7BABA2E787}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="862" firstSheet="6" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="862" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="929" uniqueCount="397">
   <si>
     <t>序号</t>
   </si>
@@ -1560,6 +1560,10 @@
   </si>
   <si>
     <t>dassdasdaasfasdf</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>周智生</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -1747,17 +1751,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="Microsoft YaHei UI"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft YaHei UI"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="22">
@@ -2943,23 +2948,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2990,6 +2983,24 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3041,12 +3052,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -21338,7 +21343,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21379,7 +21384,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21420,7 +21425,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21462,7 +21467,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21535,7 +21540,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0E00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21576,7 +21581,7 @@
         <xdr:cNvPr id="4" name="图表 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1200-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21617,7 +21622,7 @@
                   <a14:compatExt spid="_x0000_s16385"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1200-000001400000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000001400000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -21667,7 +21672,7 @@
                   <a14:compatExt spid="_x0000_s16386"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1200-000002400000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000002400000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -21712,7 +21717,7 @@
         <xdr:cNvPr id="6" name="图表 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1200-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21750,7 +21755,7 @@
             <xdr:cNvPr id="9" name="图片 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1200-000009000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000009000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -21758,7 +21763,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$A$15:$B$16" spid="_x0000_s16429"/>
+                  <a14:cameraTool cellRange="$A$15:$B$16" spid="_x0000_s16437"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -21815,7 +21820,7 @@
             <xdr:cNvPr id="8" name="图片 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A37E05BF-C996-4929-97C4-8A2CBC58D197}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000008000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -21823,7 +21828,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$O$19:$Q$21" spid="_x0000_s16430"/>
+                  <a14:cameraTool cellRange="$O$19:$Q$21" spid="_x0000_s16438"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -21969,7 +21974,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22005,7 +22010,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22041,7 +22046,7 @@
         <xdr:cNvPr id="4" name="图表 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22082,7 +22087,7 @@
         <xdr:cNvPr id="4" name="图表 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22123,7 +22128,7 @@
         <xdr:cNvPr id="5" name="图片 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22207,7 +22212,7 @@
         <xdr:cNvPr id="3" name="文本框 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22262,7 +22267,7 @@
         <xdr:cNvPr id="7" name="文本框 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22322,7 +22327,7 @@
         <xdr:cNvPr id="8" name="图表 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22363,7 +22368,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22399,7 +22404,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22435,7 +22440,7 @@
         <xdr:cNvPr id="5" name="图片 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22499,7 +22504,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22535,7 +22540,7 @@
         <xdr:cNvPr id="4" name="图表 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22576,7 +22581,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22617,7 +22622,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23087,7 +23092,7 @@
   </sheetPr>
   <dimension ref="A1:U150"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
+    <sheetView topLeftCell="A61" workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -27044,11 +27049,11 @@
     <row r="67" spans="2:13">
       <c r="I67" s="145">
         <f ca="1">NOW()</f>
-        <v>44294.851801736113</v>
+        <v>44298.679987037038</v>
       </c>
       <c r="K67" s="145">
         <f ca="1">NOW()</f>
-        <v>44294.851801736113</v>
+        <v>44298.679987037038</v>
       </c>
     </row>
     <row r="69" spans="2:13">
@@ -27182,7 +27187,7 @@
     <row r="79" spans="2:13">
       <c r="B79">
         <f t="shared" ref="B79" ca="1" si="7">INT(10+90*RAND())</f>
-        <v>31</v>
+        <v>84</v>
       </c>
     </row>
     <row r="80" spans="2:13">
@@ -27192,11 +27197,11 @@
       </c>
       <c r="F80">
         <f t="shared" ref="F80:G80" ca="1" si="8">RAND()</f>
-        <v>7.97171818832626E-2</v>
+        <v>0.43849189668554067</v>
       </c>
       <c r="G80">
         <f t="shared" ca="1" si="8"/>
-        <v>0.29412490045326789</v>
+        <v>0.108011266849387</v>
       </c>
       <c r="I80">
         <v>1</v>
@@ -27217,15 +27222,15 @@
     <row r="81" spans="1:13">
       <c r="E81">
         <f t="shared" ref="E81:G93" ca="1" si="9">RAND()</f>
-        <v>0.17136723992421488</v>
+        <v>0.93633974085829408</v>
       </c>
       <c r="F81">
         <f t="shared" ca="1" si="9"/>
-        <v>0.42280300867972198</v>
+        <v>2.1517576604069499E-2</v>
       </c>
       <c r="G81">
         <f t="shared" ca="1" si="9"/>
-        <v>0.51934168505249645</v>
+        <v>4.3962870971049672E-2</v>
       </c>
       <c r="I81">
         <v>1</v>
@@ -27246,15 +27251,15 @@
     <row r="82" spans="1:13">
       <c r="E82">
         <f t="shared" ca="1" si="9"/>
-        <v>0.44315880146641751</v>
+        <v>0.38141892720555648</v>
       </c>
       <c r="F82">
         <f t="shared" ca="1" si="9"/>
-        <v>0.42200074114641595</v>
+        <v>0.76078648545413652</v>
       </c>
       <c r="G82">
         <f t="shared" ca="1" si="9"/>
-        <v>0.29179540430012596</v>
+        <v>0.31963834556406268</v>
       </c>
       <c r="I82">
         <v>1</v>
@@ -27275,15 +27280,15 @@
     <row r="83" spans="1:13">
       <c r="E83">
         <f t="shared" ca="1" si="9"/>
-        <v>0.88099470750751918</v>
+        <v>0.86651961540726519</v>
       </c>
       <c r="F83">
         <f t="shared" ca="1" si="9"/>
-        <v>0.72329430278044426</v>
+        <v>0.62819327965022764</v>
       </c>
       <c r="G83">
         <f t="shared" ca="1" si="9"/>
-        <v>0.81246912578615804</v>
+        <v>0.50939401704859411</v>
       </c>
       <c r="H83">
         <v>23</v>
@@ -27307,15 +27312,15 @@
     <row r="84" spans="1:13">
       <c r="E84">
         <f t="shared" ca="1" si="9"/>
-        <v>0.38776987655405437</v>
+        <v>0.69392720121350371</v>
       </c>
       <c r="F84">
         <f t="shared" ca="1" si="9"/>
-        <v>0.22387659436484797</v>
+        <v>0.22573419799822203</v>
       </c>
       <c r="G84">
         <f t="shared" ca="1" si="9"/>
-        <v>0.83366587157056316</v>
+        <v>0.23844431082101547</v>
       </c>
       <c r="H84">
         <v>23</v>
@@ -27339,27 +27344,27 @@
     <row r="85" spans="1:13">
       <c r="A85">
         <f ca="1">B85</f>
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="B85">
         <f t="shared" ref="B85:C94" ca="1" si="10">INT(10+90*RAND())</f>
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C85">
         <f t="shared" ca="1" si="10"/>
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E85">
         <f t="shared" ca="1" si="9"/>
-        <v>0.49200209478640977</v>
+        <v>0.18901466502230635</v>
       </c>
       <c r="F85">
         <f t="shared" ca="1" si="9"/>
-        <v>0.87506108343554156</v>
+        <v>0.75961359099179915</v>
       </c>
       <c r="G85">
         <f t="shared" ca="1" si="9"/>
-        <v>0.9456011791846114</v>
+        <v>0.55692309678254581</v>
       </c>
       <c r="H85">
         <v>23</v>
@@ -27383,27 +27388,27 @@
     <row r="86" spans="1:13">
       <c r="A86">
         <f t="shared" ref="A86:A94" ca="1" si="11">INT(10+90*RAND())</f>
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B86">
         <f t="shared" ca="1" si="10"/>
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C86">
         <f t="shared" ca="1" si="10"/>
-        <v>79</v>
+        <v>35</v>
       </c>
       <c r="E86">
         <f t="shared" ca="1" si="9"/>
-        <v>9.7780722165685119E-2</v>
+        <v>0.92549445969530042</v>
       </c>
       <c r="F86">
         <f t="shared" ca="1" si="9"/>
-        <v>0.61330855073981316</v>
+        <v>0.9896118212512639</v>
       </c>
       <c r="G86">
         <f t="shared" ca="1" si="9"/>
-        <v>0.74707792555673924</v>
+        <v>0.27842229426254028</v>
       </c>
       <c r="H86">
         <v>23</v>
@@ -27427,27 +27432,27 @@
     <row r="87" spans="1:13">
       <c r="A87">
         <f t="shared" ca="1" si="11"/>
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="B87">
         <f t="shared" ca="1" si="10"/>
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="C87">
         <f t="shared" ca="1" si="10"/>
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="E87">
         <f t="shared" ca="1" si="9"/>
-        <v>0.88957238170648467</v>
+        <v>0.66888441607404558</v>
       </c>
       <c r="F87">
         <f t="shared" ca="1" si="9"/>
-        <v>0.59877607803093957</v>
+        <v>0.22427189107256407</v>
       </c>
       <c r="G87">
         <f t="shared" ca="1" si="9"/>
-        <v>5.2655687727032552E-2</v>
+        <v>0.41862336694102742</v>
       </c>
       <c r="H87">
         <v>23</v>
@@ -27471,26 +27476,26 @@
     <row r="88" spans="1:13">
       <c r="A88">
         <f t="shared" ca="1" si="11"/>
-        <v>99</v>
+        <v>67</v>
       </c>
       <c r="B88" s="147" t="s">
         <v>171</v>
       </c>
       <c r="C88">
         <f t="shared" ca="1" si="10"/>
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="E88">
         <f t="shared" ca="1" si="9"/>
-        <v>0.15348825707050484</v>
+        <v>0.74940925376566092</v>
       </c>
       <c r="F88">
         <f t="shared" ca="1" si="9"/>
-        <v>0.18953543561471253</v>
+        <v>0.26297722883853158</v>
       </c>
       <c r="G88">
         <f t="shared" ca="1" si="9"/>
-        <v>0.48700501513810834</v>
+        <v>0.86388681878129636</v>
       </c>
       <c r="H88">
         <v>23</v>
@@ -27514,27 +27519,27 @@
     <row r="89" spans="1:13">
       <c r="A89">
         <f t="shared" ca="1" si="11"/>
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="B89">
         <f t="shared" ca="1" si="10"/>
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="C89">
         <f t="shared" ca="1" si="10"/>
-        <v>47</v>
+        <v>97</v>
       </c>
       <c r="E89">
         <f t="shared" ca="1" si="9"/>
-        <v>0.35685859341901538</v>
+        <v>0.3303167492736333</v>
       </c>
       <c r="F89">
         <f t="shared" ca="1" si="9"/>
-        <v>0.7916037582940203</v>
+        <v>0.71284073349278299</v>
       </c>
       <c r="G89">
         <f t="shared" ca="1" si="9"/>
-        <v>0.88814556692463453</v>
+        <v>0.70296708530477892</v>
       </c>
       <c r="H89">
         <v>23</v>
@@ -27558,27 +27563,27 @@
     <row r="90" spans="1:13">
       <c r="A90">
         <f t="shared" ca="1" si="11"/>
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="B90">
         <f t="shared" ca="1" si="10"/>
-        <v>88</v>
+        <v>23</v>
       </c>
       <c r="C90">
         <f t="shared" ca="1" si="10"/>
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="E90">
         <f t="shared" ca="1" si="9"/>
-        <v>0.95557133600762045</v>
+        <v>8.6079969798059652E-3</v>
       </c>
       <c r="F90">
         <f t="shared" ca="1" si="9"/>
-        <v>0.33641371756136607</v>
+        <v>0.80222597072488122</v>
       </c>
       <c r="G90">
         <f t="shared" ca="1" si="9"/>
-        <v>0.17663747681898767</v>
+        <v>0.90769262908357307</v>
       </c>
       <c r="H90">
         <v>23</v>
@@ -27602,27 +27607,27 @@
     <row r="91" spans="1:13">
       <c r="A91">
         <f t="shared" ca="1" si="11"/>
-        <v>84</v>
+        <v>10</v>
       </c>
       <c r="B91">
         <f t="shared" ca="1" si="10"/>
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="C91">
         <f t="shared" ca="1" si="10"/>
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E91">
         <f t="shared" ca="1" si="9"/>
-        <v>7.978407520700781E-2</v>
+        <v>0.27624307552623784</v>
       </c>
       <c r="F91">
         <f t="shared" ca="1" si="9"/>
-        <v>0.8413469150753734</v>
+        <v>8.1658301310306047E-2</v>
       </c>
       <c r="G91">
         <f t="shared" ca="1" si="9"/>
-        <v>0.66171094902046634</v>
+        <v>4.7854232635411775E-2</v>
       </c>
       <c r="H91">
         <v>23</v>
@@ -27646,27 +27651,27 @@
     <row r="92" spans="1:13">
       <c r="A92">
         <f t="shared" ca="1" si="11"/>
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="B92">
         <f t="shared" ca="1" si="10"/>
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C92">
         <f t="shared" ca="1" si="10"/>
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="E92">
         <f t="shared" ca="1" si="9"/>
-        <v>0.23234997574760685</v>
+        <v>0.53521339070086582</v>
       </c>
       <c r="F92">
         <f t="shared" ca="1" si="9"/>
-        <v>0.9234519852096732</v>
+        <v>0.8302482345965958</v>
       </c>
       <c r="G92">
         <f t="shared" ca="1" si="9"/>
-        <v>0.21329740688489918</v>
+        <v>0.6562123542676731</v>
       </c>
       <c r="I92">
         <v>1</v>
@@ -27687,27 +27692,27 @@
     <row r="93" spans="1:13">
       <c r="A93">
         <f t="shared" ca="1" si="11"/>
-        <v>97</v>
+        <v>56</v>
       </c>
       <c r="B93">
         <f t="shared" ca="1" si="10"/>
-        <v>41</v>
+        <v>98</v>
       </c>
       <c r="C93">
         <f t="shared" ca="1" si="10"/>
-        <v>88</v>
+        <v>36</v>
       </c>
       <c r="E93">
         <f t="shared" ca="1" si="9"/>
-        <v>0.44236558488687661</v>
+        <v>0.31144202247956831</v>
       </c>
       <c r="F93">
         <f t="shared" ca="1" si="9"/>
-        <v>0.41505462616646005</v>
+        <v>0.93595767758665938</v>
       </c>
       <c r="G93">
         <f t="shared" ca="1" si="9"/>
-        <v>0.98776279889843766</v>
+        <v>7.7494623939695861E-2</v>
       </c>
       <c r="I93">
         <v>1</v>
@@ -27728,15 +27733,15 @@
     <row r="94" spans="1:13">
       <c r="A94">
         <f t="shared" ca="1" si="11"/>
-        <v>94</v>
+        <v>19</v>
       </c>
       <c r="B94">
         <f t="shared" ca="1" si="10"/>
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="C94">
         <f t="shared" ca="1" si="10"/>
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="I94">
         <v>1</v>
@@ -27825,19 +27830,19 @@
     <row r="104" spans="2:11">
       <c r="B104">
         <f ca="1">RAND()+G108</f>
-        <v>23.556795937059874</v>
+        <v>23.2926162509983</v>
       </c>
       <c r="C104">
         <f t="shared" ref="C104:E110" ca="1" si="12">RAND()+H108</f>
-        <v>23.336491046106655</v>
+        <v>23.25998631789798</v>
       </c>
       <c r="D104">
         <f t="shared" ca="1" si="12"/>
-        <v>23.852347990425613</v>
+        <v>23.284729572906912</v>
       </c>
       <c r="E104">
         <f t="shared" ca="1" si="12"/>
-        <v>26.288087316539251</v>
+        <v>26.257362517906195</v>
       </c>
       <c r="G104">
         <v>23</v>
@@ -27858,11 +27863,11 @@
     <row r="105" spans="2:11">
       <c r="B105">
         <f t="shared" ref="B105:B111" ca="1" si="13">RAND()+G109</f>
-        <v>0.13183160153654461</v>
+        <v>0.79862149013074846</v>
       </c>
       <c r="C105">
         <f ca="1">RAND()+G64</f>
-        <v>43.511479863681132</v>
+        <v>43.476829355509906</v>
       </c>
       <c r="G105">
         <v>23</v>
@@ -27883,11 +27888,11 @@
     <row r="106" spans="2:11">
       <c r="B106">
         <f t="shared" ca="1" si="13"/>
-        <v>0.29713172856155634</v>
+        <v>0.28448756057010627</v>
       </c>
       <c r="C106">
         <f t="shared" ca="1" si="12"/>
-        <v>0.75117834496167657</v>
+        <v>0.80019149046227567</v>
       </c>
       <c r="G106">
         <v>23</v>
@@ -27908,11 +27913,11 @@
     <row r="107" spans="2:11">
       <c r="B107">
         <f t="shared" ca="1" si="13"/>
-        <v>0.31709102537296385</v>
+        <v>0.48123009237666348</v>
       </c>
       <c r="C107">
         <f t="shared" ca="1" si="12"/>
-        <v>0.396894467001212</v>
+        <v>0.95420002040948748</v>
       </c>
       <c r="G107">
         <v>23</v>
@@ -27933,11 +27938,11 @@
     <row r="108" spans="2:11">
       <c r="B108">
         <f t="shared" ca="1" si="13"/>
-        <v>0.49839008450787892</v>
+        <v>0.93408537918943013</v>
       </c>
       <c r="C108">
         <f t="shared" ca="1" si="12"/>
-        <v>0.23717494902110159</v>
+        <v>0.25333733851755602</v>
       </c>
       <c r="G108" s="114">
         <v>23</v>
@@ -27958,165 +27963,165 @@
     <row r="109" spans="2:11">
       <c r="B109">
         <f t="shared" ca="1" si="13"/>
-        <v>8.2400297444379267E-2</v>
+        <v>0.80068145775602451</v>
       </c>
       <c r="C109">
         <f t="shared" ca="1" si="12"/>
-        <v>0.42923841162069565</v>
+        <v>1.8165667304754107E-2</v>
       </c>
     </row>
     <row r="110" spans="2:11">
       <c r="B110">
         <f t="shared" ca="1" si="13"/>
-        <v>0.91067886941912346</v>
+        <v>0.31212972481356061</v>
       </c>
       <c r="C110">
         <f t="shared" ca="1" si="12"/>
-        <v>0.45492887235141477</v>
+        <v>1.0776406837609207</v>
       </c>
     </row>
     <row r="111" spans="2:11">
       <c r="B111">
         <f t="shared" ca="1" si="13"/>
-        <v>0.43454541614223474</v>
+        <v>0.36570557978717455</v>
       </c>
     </row>
     <row r="113" spans="2:11">
       <c r="I113">
         <f ca="1">RAND()+232</f>
-        <v>232.20556701983699</v>
+        <v>232.45091547788905</v>
       </c>
       <c r="J113">
         <f ca="1">RAND()+232</f>
-        <v>232.55385473682873</v>
+        <v>232.54212748996682</v>
       </c>
     </row>
     <row r="114" spans="2:11">
       <c r="H114">
         <f ca="1">RAND()</f>
-        <v>0.4500129239039049</v>
+        <v>0.88972461301246786</v>
       </c>
       <c r="I114">
         <f t="shared" ref="I114:J120" ca="1" si="14">RAND()+232</f>
-        <v>232.6726555603957</v>
+        <v>232.84235656624816</v>
       </c>
       <c r="J114">
         <f t="shared" ca="1" si="14"/>
-        <v>232.72600185467689</v>
+        <v>232.77039445685452</v>
       </c>
     </row>
     <row r="115" spans="2:11">
       <c r="I115">
         <f t="shared" ca="1" si="14"/>
-        <v>232.60362667208568</v>
+        <v>232.04652047614039</v>
       </c>
       <c r="J115">
         <f t="shared" ca="1" si="14"/>
-        <v>232.19865008643603</v>
+        <v>232.0972703662826</v>
       </c>
     </row>
     <row r="116" spans="2:11">
       <c r="I116">
         <f t="shared" ca="1" si="14"/>
-        <v>232.7774367128294</v>
+        <v>232.36684641126735</v>
       </c>
       <c r="J116">
         <f t="shared" ca="1" si="14"/>
-        <v>232.03245651032003</v>
+        <v>232.00000834356265</v>
       </c>
     </row>
     <row r="117" spans="2:11">
       <c r="E117" s="148"/>
       <c r="I117">
         <f t="shared" ca="1" si="14"/>
-        <v>232.75804970056313</v>
+        <v>232.10868542777638</v>
       </c>
       <c r="J117">
         <f t="shared" ca="1" si="14"/>
-        <v>232.60455769257169</v>
+        <v>232.81436292856844</v>
       </c>
     </row>
     <row r="118" spans="2:11">
       <c r="I118">
         <f t="shared" ca="1" si="14"/>
-        <v>232.40428055619904</v>
+        <v>232.37000675138447</v>
       </c>
       <c r="J118">
         <f t="shared" ca="1" si="14"/>
-        <v>232.10671003300061</v>
+        <v>232.9935175960095</v>
       </c>
     </row>
     <row r="119" spans="2:11">
       <c r="B119">
         <f ca="1">RAND()+$G$108</f>
-        <v>23.636301411579247</v>
+        <v>23.418067744570092</v>
       </c>
       <c r="C119">
         <f t="shared" ref="C119:E119" ca="1" si="15">RAND()+$G$108</f>
-        <v>23.385847640219659</v>
+        <v>23.8446279832778</v>
       </c>
       <c r="D119">
         <f t="shared" ca="1" si="15"/>
-        <v>23.831186590802265</v>
+        <v>23.763675903740307</v>
       </c>
       <c r="E119">
         <f t="shared" ca="1" si="15"/>
-        <v>23.456376550012592</v>
+        <v>23.151444941861651</v>
       </c>
       <c r="I119">
         <f t="shared" ca="1" si="14"/>
-        <v>232.96925604869261</v>
+        <v>232.83623644360355</v>
       </c>
       <c r="J119">
         <f t="shared" ca="1" si="14"/>
-        <v>232.26425173723169</v>
+        <v>232.22284485146119</v>
       </c>
     </row>
     <row r="120" spans="2:11">
       <c r="B120">
         <f t="shared" ref="B120:E126" ca="1" si="16">RAND()+$G$108</f>
-        <v>23.330844388780712</v>
+        <v>23.72483188733495</v>
       </c>
       <c r="C120">
         <f t="shared" ca="1" si="16"/>
-        <v>23.736459818604164</v>
+        <v>23.188731285460825</v>
       </c>
       <c r="D120">
         <f t="shared" ca="1" si="16"/>
-        <v>23.645955099815172</v>
+        <v>23.514646014181078</v>
       </c>
       <c r="E120">
         <f t="shared" ca="1" si="16"/>
-        <v>23.065868038728251</v>
+        <v>23.714463766545343</v>
       </c>
       <c r="G120" s="149" t="s">
         <v>172</v>
       </c>
       <c r="I120">
         <f t="shared" ca="1" si="14"/>
-        <v>232.12956970393319</v>
+        <v>232.93617781796087</v>
       </c>
       <c r="J120">
         <f t="shared" ca="1" si="14"/>
-        <v>232.53261568419072</v>
+        <v>232.03194089910824</v>
       </c>
     </row>
     <row r="121" spans="2:11">
       <c r="B121">
         <f t="shared" ca="1" si="16"/>
-        <v>23.22397415321014</v>
+        <v>23.258909668517646</v>
       </c>
       <c r="C121">
         <f t="shared" ca="1" si="16"/>
-        <v>23.44532384669451</v>
+        <v>23.680837918321117</v>
       </c>
       <c r="D121">
         <f t="shared" ca="1" si="16"/>
-        <v>23.627634884467454</v>
+        <v>23.735561404237817</v>
       </c>
       <c r="E121">
         <f t="shared" ca="1" si="16"/>
-        <v>23.156586696523505</v>
+        <v>23.922203379306502</v>
       </c>
       <c r="H121" s="151">
         <v>0.9</v>
@@ -28125,19 +28130,19 @@
     <row r="122" spans="2:11">
       <c r="B122">
         <f t="shared" ca="1" si="16"/>
-        <v>23.451321937286021</v>
+        <v>23.597778595949521</v>
       </c>
       <c r="C122">
         <f t="shared" ca="1" si="16"/>
-        <v>23.802095852956604</v>
+        <v>23.142771793008251</v>
       </c>
       <c r="D122">
         <f t="shared" ca="1" si="16"/>
-        <v>23.630933133265788</v>
+        <v>23.187205513550563</v>
       </c>
       <c r="E122">
         <f t="shared" ca="1" si="16"/>
-        <v>23.79613223719058</v>
+        <v>23.693762992045034</v>
       </c>
       <c r="H122">
         <v>0.2</v>
@@ -28146,55 +28151,55 @@
     <row r="123" spans="2:11">
       <c r="B123">
         <f t="shared" ca="1" si="16"/>
-        <v>23.958218440443563</v>
+        <v>23.248100414854235</v>
       </c>
       <c r="C123">
         <f t="shared" ca="1" si="16"/>
-        <v>23.796702675874368</v>
+        <v>23.732599595798373</v>
       </c>
       <c r="D123">
         <f t="shared" ca="1" si="16"/>
-        <v>23.147581773175574</v>
+        <v>23.892241729577691</v>
       </c>
       <c r="E123">
         <f t="shared" ca="1" si="16"/>
-        <v>23.688292447406337</v>
+        <v>23.212976316377187</v>
       </c>
     </row>
     <row r="124" spans="2:11">
       <c r="B124">
         <f t="shared" ca="1" si="16"/>
-        <v>23.572839210431884</v>
+        <v>23.424060049717614</v>
       </c>
       <c r="C124">
         <f t="shared" ca="1" si="16"/>
-        <v>23.916582801494464</v>
+        <v>23.064151513788392</v>
       </c>
       <c r="D124">
         <f t="shared" ca="1" si="16"/>
-        <v>23.25701292801417</v>
+        <v>23.647100758491415</v>
       </c>
       <c r="E124">
         <f t="shared" ca="1" si="16"/>
-        <v>23.230547286026386</v>
+        <v>23.411001596918098</v>
       </c>
     </row>
     <row r="125" spans="2:11">
       <c r="B125">
         <f t="shared" ca="1" si="16"/>
-        <v>23.483504578044865</v>
+        <v>23.827885485721904</v>
       </c>
       <c r="C125">
         <f t="shared" ca="1" si="16"/>
-        <v>23.138083085099122</v>
+        <v>23.027763355150878</v>
       </c>
       <c r="D125">
         <f t="shared" ca="1" si="16"/>
-        <v>23.53669710342643</v>
+        <v>23.84725074197333</v>
       </c>
       <c r="E125">
         <f t="shared" ca="1" si="16"/>
-        <v>23.006364796750969</v>
+        <v>23.827462330613333</v>
       </c>
       <c r="J125" s="150"/>
       <c r="K125" s="150"/>
@@ -28202,19 +28207,19 @@
     <row r="126" spans="2:11">
       <c r="B126">
         <f t="shared" ca="1" si="16"/>
-        <v>23.659996683090711</v>
+        <v>23.867135668410803</v>
       </c>
       <c r="C126">
         <f t="shared" ca="1" si="16"/>
-        <v>23.712315176164829</v>
+        <v>23.891728025677605</v>
       </c>
       <c r="D126">
         <f t="shared" ca="1" si="16"/>
-        <v>23.941092620293333</v>
+        <v>23.900157187098628</v>
       </c>
       <c r="E126">
         <f t="shared" ca="1" si="16"/>
-        <v>23.859011300352339</v>
+        <v>23.42242584717631</v>
       </c>
       <c r="J126" s="150"/>
       <c r="K126" s="150"/>
@@ -28265,7 +28270,7 @@
       </c>
       <c r="I130" s="135">
         <f ca="1">TODAY()</f>
-        <v>44294</v>
+        <v>44298</v>
       </c>
       <c r="J130" s="150"/>
       <c r="K130" s="150"/>
@@ -28287,11 +28292,11 @@
     <row r="135" spans="1:11">
       <c r="I135">
         <f ca="1">I120</f>
-        <v>232.12956970393319</v>
+        <v>232.93617781796087</v>
       </c>
       <c r="J135">
         <f ca="1">J120</f>
-        <v>232.53261568419072</v>
+        <v>232.03194089910824</v>
       </c>
       <c r="K135">
         <f>K120</f>
@@ -28404,35 +28409,35 @@
     <row r="150" spans="8:15">
       <c r="H150">
         <f t="shared" ref="H150:O150" ca="1" si="27">RAND()+232</f>
-        <v>232.11735194769341</v>
+        <v>232.71348833169347</v>
       </c>
       <c r="I150">
         <f t="shared" ca="1" si="27"/>
-        <v>232.22328632337309</v>
+        <v>232.36737700800438</v>
       </c>
       <c r="J150">
         <f t="shared" ca="1" si="27"/>
-        <v>232.25975614480177</v>
+        <v>232.89400932721369</v>
       </c>
       <c r="K150">
         <f t="shared" ca="1" si="27"/>
-        <v>232.69894775915739</v>
+        <v>232.24167162054312</v>
       </c>
       <c r="L150">
         <f t="shared" ca="1" si="27"/>
-        <v>232.26005349001781</v>
+        <v>232.46629620271662</v>
       </c>
       <c r="M150">
         <f t="shared" ca="1" si="27"/>
-        <v>232.76215772048027</v>
+        <v>232.08511622912914</v>
       </c>
       <c r="N150">
         <f t="shared" ca="1" si="27"/>
-        <v>232.34623968892544</v>
+        <v>232.82827772071096</v>
       </c>
       <c r="O150">
         <f t="shared" ca="1" si="27"/>
-        <v>232.11716784564706</v>
+        <v>232.57187239929897</v>
       </c>
     </row>
   </sheetData>
@@ -28492,16 +28497,16 @@
       <c r="G1" s="52">
         <v>84</v>
       </c>
-      <c r="I1" s="250" t="s">
+      <c r="I1" s="252" t="s">
         <v>348</v>
       </c>
-      <c r="J1" s="250"/>
-      <c r="K1" s="250"/>
-      <c r="L1" s="250"/>
-      <c r="M1" s="250"/>
-      <c r="N1" s="250"/>
-      <c r="O1" s="250"/>
-      <c r="P1" s="250"/>
+      <c r="J1" s="252"/>
+      <c r="K1" s="252"/>
+      <c r="L1" s="252"/>
+      <c r="M1" s="252"/>
+      <c r="N1" s="252"/>
+      <c r="O1" s="252"/>
+      <c r="P1" s="252"/>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="67" t="s">
@@ -28525,25 +28530,25 @@
       <c r="G2" s="95">
         <v>81</v>
       </c>
-      <c r="I2" s="250"/>
-      <c r="J2" s="250"/>
-      <c r="K2" s="250"/>
-      <c r="L2" s="250"/>
-      <c r="M2" s="250"/>
-      <c r="N2" s="250"/>
-      <c r="O2" s="250"/>
-      <c r="P2" s="250"/>
+      <c r="I2" s="252"/>
+      <c r="J2" s="252"/>
+      <c r="K2" s="252"/>
+      <c r="L2" s="252"/>
+      <c r="M2" s="252"/>
+      <c r="N2" s="252"/>
+      <c r="O2" s="252"/>
+      <c r="P2" s="252"/>
     </row>
     <row r="3" spans="1:16">
-      <c r="J3" s="252" t="s">
+      <c r="J3" s="254" t="s">
         <v>350</v>
       </c>
-      <c r="K3" s="252"/>
-      <c r="L3" s="252"/>
-      <c r="M3" s="252"/>
-      <c r="N3" s="252"/>
-      <c r="O3" s="252"/>
-      <c r="P3" s="252"/>
+      <c r="K3" s="254"/>
+      <c r="L3" s="254"/>
+      <c r="M3" s="254"/>
+      <c r="N3" s="254"/>
+      <c r="O3" s="254"/>
+      <c r="P3" s="254"/>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="207"/>
@@ -28553,13 +28558,13 @@
       <c r="C4" s="209" t="s">
         <v>127</v>
       </c>
-      <c r="J4" s="252"/>
-      <c r="K4" s="252"/>
-      <c r="L4" s="252"/>
-      <c r="M4" s="252"/>
-      <c r="N4" s="252"/>
-      <c r="O4" s="252"/>
-      <c r="P4" s="252"/>
+      <c r="J4" s="254"/>
+      <c r="K4" s="254"/>
+      <c r="L4" s="254"/>
+      <c r="M4" s="254"/>
+      <c r="N4" s="254"/>
+      <c r="O4" s="254"/>
+      <c r="P4" s="254"/>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="210" t="s">
@@ -28571,13 +28576,13 @@
       <c r="C5" s="209">
         <v>76</v>
       </c>
-      <c r="J5" s="252"/>
-      <c r="K5" s="252"/>
-      <c r="L5" s="252"/>
-      <c r="M5" s="252"/>
-      <c r="N5" s="252"/>
-      <c r="O5" s="252"/>
-      <c r="P5" s="252"/>
+      <c r="J5" s="254"/>
+      <c r="K5" s="254"/>
+      <c r="L5" s="254"/>
+      <c r="M5" s="254"/>
+      <c r="N5" s="254"/>
+      <c r="O5" s="254"/>
+      <c r="P5" s="254"/>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="210" t="s">
@@ -28635,30 +28640,30 @@
       </c>
     </row>
     <row r="25" spans="6:15">
-      <c r="F25" s="251" t="s">
+      <c r="F25" s="253" t="s">
         <v>349</v>
       </c>
-      <c r="G25" s="251"/>
-      <c r="H25" s="251"/>
-      <c r="I25" s="251"/>
-      <c r="J25" s="251"/>
-      <c r="K25" s="251"/>
-      <c r="L25" s="251"/>
-      <c r="M25" s="251"/>
-      <c r="N25" s="251"/>
-      <c r="O25" s="251"/>
+      <c r="G25" s="253"/>
+      <c r="H25" s="253"/>
+      <c r="I25" s="253"/>
+      <c r="J25" s="253"/>
+      <c r="K25" s="253"/>
+      <c r="L25" s="253"/>
+      <c r="M25" s="253"/>
+      <c r="N25" s="253"/>
+      <c r="O25" s="253"/>
     </row>
     <row r="26" spans="6:15">
-      <c r="F26" s="251"/>
-      <c r="G26" s="251"/>
-      <c r="H26" s="251"/>
-      <c r="I26" s="251"/>
-      <c r="J26" s="251"/>
-      <c r="K26" s="251"/>
-      <c r="L26" s="251"/>
-      <c r="M26" s="251"/>
-      <c r="N26" s="251"/>
-      <c r="O26" s="251"/>
+      <c r="F26" s="253"/>
+      <c r="G26" s="253"/>
+      <c r="H26" s="253"/>
+      <c r="I26" s="253"/>
+      <c r="J26" s="253"/>
+      <c r="K26" s="253"/>
+      <c r="L26" s="253"/>
+      <c r="M26" s="253"/>
+      <c r="N26" s="253"/>
+      <c r="O26" s="253"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -28702,17 +28707,17 @@
       <c r="D1" s="213" t="s">
         <v>354</v>
       </c>
-      <c r="E1" s="253" t="s">
+      <c r="E1" s="255" t="s">
         <v>359</v>
       </c>
-      <c r="F1" s="253"/>
-      <c r="G1" s="253"/>
-      <c r="H1" s="253"/>
-      <c r="I1" s="253"/>
-      <c r="J1" s="253"/>
-      <c r="K1" s="253"/>
-      <c r="L1" s="253"/>
-      <c r="M1" s="253"/>
+      <c r="F1" s="255"/>
+      <c r="G1" s="255"/>
+      <c r="H1" s="255"/>
+      <c r="I1" s="255"/>
+      <c r="J1" s="255"/>
+      <c r="K1" s="255"/>
+      <c r="L1" s="255"/>
+      <c r="M1" s="255"/>
     </row>
     <row r="2" spans="1:13" ht="39.6" customHeight="1">
       <c r="A2" s="213" t="s">
@@ -28721,15 +28726,15 @@
       <c r="B2" s="213"/>
       <c r="C2" s="213"/>
       <c r="D2" s="213"/>
-      <c r="E2" s="253"/>
-      <c r="F2" s="253"/>
-      <c r="G2" s="253"/>
-      <c r="H2" s="253"/>
-      <c r="I2" s="253"/>
-      <c r="J2" s="253"/>
-      <c r="K2" s="253"/>
-      <c r="L2" s="253"/>
-      <c r="M2" s="253"/>
+      <c r="E2" s="255"/>
+      <c r="F2" s="255"/>
+      <c r="G2" s="255"/>
+      <c r="H2" s="255"/>
+      <c r="I2" s="255"/>
+      <c r="J2" s="255"/>
+      <c r="K2" s="255"/>
+      <c r="L2" s="255"/>
+      <c r="M2" s="255"/>
     </row>
     <row r="3" spans="1:13" ht="39.6" customHeight="1">
       <c r="A3" s="213" t="s">
@@ -28790,18 +28795,18 @@
       <c r="B1" s="114" t="s">
         <v>361</v>
       </c>
-      <c r="G1" s="251" t="s">
+      <c r="G1" s="253" t="s">
         <v>362</v>
       </c>
-      <c r="H1" s="251"/>
-      <c r="I1" s="251"/>
-      <c r="J1" s="251"/>
-      <c r="K1" s="251"/>
-      <c r="L1" s="251"/>
-      <c r="M1" s="251"/>
-      <c r="N1" s="251"/>
-      <c r="O1" s="251"/>
-      <c r="P1" s="251"/>
+      <c r="H1" s="253"/>
+      <c r="I1" s="253"/>
+      <c r="J1" s="253"/>
+      <c r="K1" s="253"/>
+      <c r="L1" s="253"/>
+      <c r="M1" s="253"/>
+      <c r="N1" s="253"/>
+      <c r="O1" s="253"/>
+      <c r="P1" s="253"/>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="214">
@@ -28813,16 +28818,16 @@
       <c r="C2">
         <v>200</v>
       </c>
-      <c r="G2" s="251"/>
-      <c r="H2" s="251"/>
-      <c r="I2" s="251"/>
-      <c r="J2" s="251"/>
-      <c r="K2" s="251"/>
-      <c r="L2" s="251"/>
-      <c r="M2" s="251"/>
-      <c r="N2" s="251"/>
-      <c r="O2" s="251"/>
-      <c r="P2" s="251"/>
+      <c r="G2" s="253"/>
+      <c r="H2" s="253"/>
+      <c r="I2" s="253"/>
+      <c r="J2" s="253"/>
+      <c r="K2" s="253"/>
+      <c r="L2" s="253"/>
+      <c r="M2" s="253"/>
+      <c r="N2" s="253"/>
+      <c r="O2" s="253"/>
+      <c r="P2" s="253"/>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="214">
@@ -28992,7 +28997,9 @@
   <sheetPr codeName="Sheet15"/>
   <dimension ref="A1:P31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
@@ -29112,75 +29119,75 @@
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="254" t="s">
+      <c r="A24" s="256" t="s">
         <v>365</v>
       </c>
-      <c r="B24" s="254"/>
-      <c r="C24" s="254"/>
-      <c r="D24" s="254"/>
-      <c r="E24" s="254"/>
-      <c r="F24" s="254"/>
-      <c r="G24" s="254"/>
+      <c r="B24" s="256"/>
+      <c r="C24" s="256"/>
+      <c r="D24" s="256"/>
+      <c r="E24" s="256"/>
+      <c r="F24" s="256"/>
+      <c r="G24" s="256"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="254"/>
-      <c r="B25" s="254"/>
-      <c r="C25" s="254"/>
-      <c r="D25" s="254"/>
-      <c r="E25" s="254"/>
-      <c r="F25" s="254"/>
-      <c r="G25" s="254"/>
+      <c r="A25" s="256"/>
+      <c r="B25" s="256"/>
+      <c r="C25" s="256"/>
+      <c r="D25" s="256"/>
+      <c r="E25" s="256"/>
+      <c r="F25" s="256"/>
+      <c r="G25" s="256"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="254"/>
-      <c r="B26" s="254"/>
-      <c r="C26" s="254"/>
-      <c r="D26" s="254"/>
-      <c r="E26" s="254"/>
-      <c r="F26" s="254"/>
-      <c r="G26" s="254"/>
+      <c r="A26" s="256"/>
+      <c r="B26" s="256"/>
+      <c r="C26" s="256"/>
+      <c r="D26" s="256"/>
+      <c r="E26" s="256"/>
+      <c r="F26" s="256"/>
+      <c r="G26" s="256"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="255" t="s">
+      <c r="A28" s="257" t="s">
         <v>366</v>
       </c>
-      <c r="B28" s="255"/>
-      <c r="C28" s="255"/>
-      <c r="D28" s="255"/>
-      <c r="E28" s="255"/>
-      <c r="F28" s="255"/>
-      <c r="G28" s="255"/>
-      <c r="H28" s="255"/>
+      <c r="B28" s="257"/>
+      <c r="C28" s="257"/>
+      <c r="D28" s="257"/>
+      <c r="E28" s="257"/>
+      <c r="F28" s="257"/>
+      <c r="G28" s="257"/>
+      <c r="H28" s="257"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="255"/>
-      <c r="B29" s="255"/>
-      <c r="C29" s="255"/>
-      <c r="D29" s="255"/>
-      <c r="E29" s="255"/>
-      <c r="F29" s="255"/>
-      <c r="G29" s="255"/>
-      <c r="H29" s="255"/>
+      <c r="A29" s="257"/>
+      <c r="B29" s="257"/>
+      <c r="C29" s="257"/>
+      <c r="D29" s="257"/>
+      <c r="E29" s="257"/>
+      <c r="F29" s="257"/>
+      <c r="G29" s="257"/>
+      <c r="H29" s="257"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="255"/>
-      <c r="B30" s="255"/>
-      <c r="C30" s="255"/>
-      <c r="D30" s="255"/>
-      <c r="E30" s="255"/>
-      <c r="F30" s="255"/>
-      <c r="G30" s="255"/>
-      <c r="H30" s="255"/>
+      <c r="A30" s="257"/>
+      <c r="B30" s="257"/>
+      <c r="C30" s="257"/>
+      <c r="D30" s="257"/>
+      <c r="E30" s="257"/>
+      <c r="F30" s="257"/>
+      <c r="G30" s="257"/>
+      <c r="H30" s="257"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="255"/>
-      <c r="B31" s="255"/>
-      <c r="C31" s="255"/>
-      <c r="D31" s="255"/>
-      <c r="E31" s="255"/>
-      <c r="F31" s="255"/>
-      <c r="G31" s="255"/>
-      <c r="H31" s="255"/>
+      <c r="A31" s="257"/>
+      <c r="B31" s="257"/>
+      <c r="C31" s="257"/>
+      <c r="D31" s="257"/>
+      <c r="E31" s="257"/>
+      <c r="F31" s="257"/>
+      <c r="G31" s="257"/>
+      <c r="H31" s="257"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -29299,46 +29306,46 @@
       </c>
     </row>
     <row r="25" spans="7:14">
-      <c r="G25" s="247" t="s">
+      <c r="G25" s="249" t="s">
         <v>367</v>
       </c>
-      <c r="H25" s="247"/>
-      <c r="I25" s="247"/>
-      <c r="J25" s="247"/>
-      <c r="K25" s="247"/>
-      <c r="L25" s="247"/>
-      <c r="M25" s="247"/>
-      <c r="N25" s="247"/>
+      <c r="H25" s="249"/>
+      <c r="I25" s="249"/>
+      <c r="J25" s="249"/>
+      <c r="K25" s="249"/>
+      <c r="L25" s="249"/>
+      <c r="M25" s="249"/>
+      <c r="N25" s="249"/>
     </row>
     <row r="26" spans="7:14">
-      <c r="G26" s="247"/>
-      <c r="H26" s="247"/>
-      <c r="I26" s="247"/>
-      <c r="J26" s="247"/>
-      <c r="K26" s="247"/>
-      <c r="L26" s="247"/>
-      <c r="M26" s="247"/>
-      <c r="N26" s="247"/>
+      <c r="G26" s="249"/>
+      <c r="H26" s="249"/>
+      <c r="I26" s="249"/>
+      <c r="J26" s="249"/>
+      <c r="K26" s="249"/>
+      <c r="L26" s="249"/>
+      <c r="M26" s="249"/>
+      <c r="N26" s="249"/>
     </row>
     <row r="27" spans="7:14">
-      <c r="G27" s="247"/>
-      <c r="H27" s="247"/>
-      <c r="I27" s="247"/>
-      <c r="J27" s="247"/>
-      <c r="K27" s="247"/>
-      <c r="L27" s="247"/>
-      <c r="M27" s="247"/>
-      <c r="N27" s="247"/>
+      <c r="G27" s="249"/>
+      <c r="H27" s="249"/>
+      <c r="I27" s="249"/>
+      <c r="J27" s="249"/>
+      <c r="K27" s="249"/>
+      <c r="L27" s="249"/>
+      <c r="M27" s="249"/>
+      <c r="N27" s="249"/>
     </row>
     <row r="28" spans="7:14">
-      <c r="G28" s="247"/>
-      <c r="H28" s="247"/>
-      <c r="I28" s="247"/>
-      <c r="J28" s="247"/>
-      <c r="K28" s="247"/>
-      <c r="L28" s="247"/>
-      <c r="M28" s="247"/>
-      <c r="N28" s="247"/>
+      <c r="G28" s="249"/>
+      <c r="H28" s="249"/>
+      <c r="I28" s="249"/>
+      <c r="J28" s="249"/>
+      <c r="K28" s="249"/>
+      <c r="L28" s="249"/>
+      <c r="M28" s="249"/>
+      <c r="N28" s="249"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -29355,8 +29362,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:X29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O19" sqref="O19:Q21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -29644,7 +29651,7 @@
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="257"/>
+      <c r="A9" s="224"/>
       <c r="E9" s="218" t="s">
         <v>376</v>
       </c>
@@ -29680,7 +29687,7 @@
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="257"/>
+      <c r="A10" s="224"/>
       <c r="E10" s="218" t="s">
         <v>377</v>
       </c>
@@ -29716,7 +29723,7 @@
       </c>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="257"/>
+      <c r="A11" s="224"/>
       <c r="E11" s="218" t="s">
         <v>378</v>
       </c>
@@ -29752,7 +29759,7 @@
       </c>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="258">
+      <c r="A12" s="225">
         <v>1</v>
       </c>
       <c r="E12" s="218" t="s">
@@ -29790,7 +29797,7 @@
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="257">
+      <c r="A13" s="224">
         <v>1</v>
       </c>
       <c r="E13" s="218" t="s">
@@ -29828,7 +29835,7 @@
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="257"/>
+      <c r="A14" s="224"/>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="114"/>
@@ -29890,11 +29897,11 @@
         <f>MATCH(N4,F10:I10)</f>
         <v>3</v>
       </c>
-      <c r="O19" s="256" t="s">
+      <c r="O19" s="258" t="s">
         <v>395</v>
       </c>
-      <c r="P19" s="256"/>
-      <c r="Q19" s="256"/>
+      <c r="P19" s="258"/>
+      <c r="Q19" s="258"/>
     </row>
     <row r="20" spans="1:24">
       <c r="A20" s="114" t="s">
@@ -29904,9 +29911,9 @@
         <f t="shared" ca="1" si="0"/>
         <v>5</v>
       </c>
-      <c r="O20" s="256"/>
-      <c r="P20" s="256"/>
-      <c r="Q20" s="256"/>
+      <c r="O20" s="258"/>
+      <c r="P20" s="258"/>
+      <c r="Q20" s="258"/>
     </row>
     <row r="21" spans="1:24">
       <c r="A21" s="114" t="s">
@@ -29916,9 +29923,9 @@
         <f t="shared" ca="1" si="0"/>
         <v>6</v>
       </c>
-      <c r="O21" s="256"/>
-      <c r="P21" s="256"/>
-      <c r="Q21" s="256"/>
+      <c r="O21" s="258"/>
+      <c r="P21" s="258"/>
+      <c r="Q21" s="258"/>
     </row>
     <row r="22" spans="1:24">
       <c r="A22" s="114" t="s">
@@ -29955,19 +29962,19 @@
         <f t="shared" ca="1" si="0"/>
         <v>10</v>
       </c>
-      <c r="N25" s="247" t="s">
+      <c r="N25" s="249" t="s">
         <v>381</v>
       </c>
-      <c r="O25" s="247"/>
-      <c r="P25" s="247"/>
-      <c r="Q25" s="247"/>
-      <c r="R25" s="247"/>
-      <c r="S25" s="247"/>
-      <c r="T25" s="247"/>
-      <c r="U25" s="247"/>
-      <c r="V25" s="247"/>
-      <c r="W25" s="247"/>
-      <c r="X25" s="247"/>
+      <c r="O25" s="249"/>
+      <c r="P25" s="249"/>
+      <c r="Q25" s="249"/>
+      <c r="R25" s="249"/>
+      <c r="S25" s="249"/>
+      <c r="T25" s="249"/>
+      <c r="U25" s="249"/>
+      <c r="V25" s="249"/>
+      <c r="W25" s="249"/>
+      <c r="X25" s="249"/>
     </row>
     <row r="26" spans="1:24">
       <c r="A26" s="114" t="s">
@@ -29977,17 +29984,17 @@
         <f t="shared" ca="1" si="0"/>
         <v>11</v>
       </c>
-      <c r="N26" s="247"/>
-      <c r="O26" s="247"/>
-      <c r="P26" s="247"/>
-      <c r="Q26" s="247"/>
-      <c r="R26" s="247"/>
-      <c r="S26" s="247"/>
-      <c r="T26" s="247"/>
-      <c r="U26" s="247"/>
-      <c r="V26" s="247"/>
-      <c r="W26" s="247"/>
-      <c r="X26" s="247"/>
+      <c r="N26" s="249"/>
+      <c r="O26" s="249"/>
+      <c r="P26" s="249"/>
+      <c r="Q26" s="249"/>
+      <c r="R26" s="249"/>
+      <c r="S26" s="249"/>
+      <c r="T26" s="249"/>
+      <c r="U26" s="249"/>
+      <c r="V26" s="249"/>
+      <c r="W26" s="249"/>
+      <c r="X26" s="249"/>
     </row>
     <row r="27" spans="1:24">
       <c r="A27" s="114" t="s">
@@ -29997,45 +30004,45 @@
         <f t="shared" ca="1" si="0"/>
         <v>12</v>
       </c>
-      <c r="N27" s="247"/>
-      <c r="O27" s="247"/>
-      <c r="P27" s="247"/>
-      <c r="Q27" s="247"/>
-      <c r="R27" s="247"/>
-      <c r="S27" s="247"/>
-      <c r="T27" s="247"/>
-      <c r="U27" s="247"/>
-      <c r="V27" s="247"/>
-      <c r="W27" s="247"/>
-      <c r="X27" s="247"/>
+      <c r="N27" s="249"/>
+      <c r="O27" s="249"/>
+      <c r="P27" s="249"/>
+      <c r="Q27" s="249"/>
+      <c r="R27" s="249"/>
+      <c r="S27" s="249"/>
+      <c r="T27" s="249"/>
+      <c r="U27" s="249"/>
+      <c r="V27" s="249"/>
+      <c r="W27" s="249"/>
+      <c r="X27" s="249"/>
     </row>
     <row r="28" spans="1:24">
       <c r="A28" s="114"/>
       <c r="B28" s="218"/>
-      <c r="N28" s="247"/>
-      <c r="O28" s="247"/>
-      <c r="P28" s="247"/>
-      <c r="Q28" s="247"/>
-      <c r="R28" s="247"/>
-      <c r="S28" s="247"/>
-      <c r="T28" s="247"/>
-      <c r="U28" s="247"/>
-      <c r="V28" s="247"/>
-      <c r="W28" s="247"/>
-      <c r="X28" s="247"/>
+      <c r="N28" s="249"/>
+      <c r="O28" s="249"/>
+      <c r="P28" s="249"/>
+      <c r="Q28" s="249"/>
+      <c r="R28" s="249"/>
+      <c r="S28" s="249"/>
+      <c r="T28" s="249"/>
+      <c r="U28" s="249"/>
+      <c r="V28" s="249"/>
+      <c r="W28" s="249"/>
+      <c r="X28" s="249"/>
     </row>
     <row r="29" spans="1:24">
-      <c r="N29" s="247"/>
-      <c r="O29" s="247"/>
-      <c r="P29" s="247"/>
-      <c r="Q29" s="247"/>
-      <c r="R29" s="247"/>
-      <c r="S29" s="247"/>
-      <c r="T29" s="247"/>
-      <c r="U29" s="247"/>
-      <c r="V29" s="247"/>
-      <c r="W29" s="247"/>
-      <c r="X29" s="247"/>
+      <c r="N29" s="249"/>
+      <c r="O29" s="249"/>
+      <c r="P29" s="249"/>
+      <c r="Q29" s="249"/>
+      <c r="R29" s="249"/>
+      <c r="S29" s="249"/>
+      <c r="T29" s="249"/>
+      <c r="U29" s="249"/>
+      <c r="V29" s="249"/>
+      <c r="W29" s="249"/>
+      <c r="X29" s="249"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -33258,7 +33265,7 @@
   <dimension ref="A1:AK155"/>
   <sheetViews>
     <sheetView topLeftCell="E11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W6" sqref="W6"/>
+      <selection activeCell="W12" sqref="W12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -33267,37 +33274,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="14.4" customHeight="1">
-      <c r="A1" s="232" t="s">
+      <c r="A1" s="228" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="232" t="s">
+      <c r="B1" s="228" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="232" t="s">
+      <c r="C1" s="228" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="232" t="s">
+      <c r="D1" s="228" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="235"/>
-      <c r="F1" s="236"/>
-      <c r="G1" s="236"/>
-      <c r="H1" s="236"/>
-      <c r="I1" s="236"/>
-      <c r="J1" s="236"/>
-      <c r="K1" s="236"/>
-      <c r="L1" s="236"/>
-      <c r="M1" s="236"/>
-      <c r="N1" s="236"/>
-      <c r="O1" s="236"/>
-      <c r="P1" s="237"/>
-      <c r="Q1" s="232" t="s">
+      <c r="E1" s="231"/>
+      <c r="F1" s="232"/>
+      <c r="G1" s="232"/>
+      <c r="H1" s="232"/>
+      <c r="I1" s="232"/>
+      <c r="J1" s="232"/>
+      <c r="K1" s="232"/>
+      <c r="L1" s="232"/>
+      <c r="M1" s="232"/>
+      <c r="N1" s="232"/>
+      <c r="O1" s="232"/>
+      <c r="P1" s="233"/>
+      <c r="Q1" s="228" t="s">
         <v>4</v>
       </c>
-      <c r="R1" s="232" t="s">
+      <c r="R1" s="228" t="s">
         <v>5</v>
       </c>
-      <c r="S1" s="232" t="s">
+      <c r="S1" s="228" t="s">
         <v>6</v>
       </c>
       <c r="T1" s="114" t="s">
@@ -33308,10 +33315,10 @@
       </c>
     </row>
     <row r="2" spans="1:31" ht="86.4">
-      <c r="A2" s="233"/>
-      <c r="B2" s="233"/>
-      <c r="C2" s="233"/>
-      <c r="D2" s="233"/>
+      <c r="A2" s="229"/>
+      <c r="B2" s="229"/>
+      <c r="C2" s="229"/>
+      <c r="D2" s="229"/>
       <c r="E2" s="115" t="s">
         <v>7</v>
       </c>
@@ -33348,9 +33355,9 @@
       <c r="P2" s="115" t="s">
         <v>18</v>
       </c>
-      <c r="Q2" s="233"/>
-      <c r="R2" s="233"/>
-      <c r="S2" s="233"/>
+      <c r="Q2" s="229"/>
+      <c r="R2" s="229"/>
+      <c r="S2" s="229"/>
       <c r="T2" s="114" t="s">
         <v>174</v>
       </c>
@@ -33540,7 +33547,7 @@
         <v>优秀</v>
       </c>
       <c r="W5" s="114">
-        <f t="shared" ref="W4:W5" si="0">COUNTIF(S2:S18,"&gt;85")</f>
+        <f t="shared" ref="W5" si="0">COUNTIF(S2:S18,"&gt;85")</f>
         <v>7</v>
       </c>
     </row>
@@ -35015,41 +35022,41 @@
       </c>
     </row>
     <row r="34" spans="1:21">
-      <c r="D34" s="238" t="s">
+      <c r="D34" s="234" t="s">
         <v>250</v>
       </c>
-      <c r="E34" s="238"/>
-      <c r="F34" s="238"/>
-      <c r="G34" s="238"/>
-      <c r="H34" s="238"/>
-      <c r="I34" s="238"/>
-      <c r="J34" s="238"/>
-      <c r="K34" s="238"/>
-      <c r="L34" s="239" t="s">
+      <c r="E34" s="234"/>
+      <c r="F34" s="234"/>
+      <c r="G34" s="234"/>
+      <c r="H34" s="234"/>
+      <c r="I34" s="234"/>
+      <c r="J34" s="234"/>
+      <c r="K34" s="234"/>
+      <c r="L34" s="235" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="35" spans="1:21">
-      <c r="D35" s="238"/>
-      <c r="E35" s="238"/>
-      <c r="F35" s="238"/>
-      <c r="G35" s="238"/>
-      <c r="H35" s="238"/>
-      <c r="I35" s="238"/>
-      <c r="J35" s="238"/>
-      <c r="K35" s="238"/>
-      <c r="L35" s="239"/>
+      <c r="D35" s="234"/>
+      <c r="E35" s="234"/>
+      <c r="F35" s="234"/>
+      <c r="G35" s="234"/>
+      <c r="H35" s="234"/>
+      <c r="I35" s="234"/>
+      <c r="J35" s="234"/>
+      <c r="K35" s="234"/>
+      <c r="L35" s="235"/>
     </row>
     <row r="36" spans="1:21">
-      <c r="D36" s="238"/>
-      <c r="E36" s="238"/>
-      <c r="F36" s="238"/>
-      <c r="G36" s="238"/>
-      <c r="H36" s="238"/>
-      <c r="I36" s="238"/>
-      <c r="J36" s="238"/>
-      <c r="K36" s="238"/>
-      <c r="L36" s="239"/>
+      <c r="D36" s="234"/>
+      <c r="E36" s="234"/>
+      <c r="F36" s="234"/>
+      <c r="G36" s="234"/>
+      <c r="H36" s="234"/>
+      <c r="I36" s="234"/>
+      <c r="J36" s="234"/>
+      <c r="K36" s="234"/>
+      <c r="L36" s="235"/>
     </row>
     <row r="37" spans="1:21">
       <c r="D37" s="190"/>
@@ -35060,7 +35067,7 @@
       <c r="I37" s="190"/>
       <c r="J37" s="190"/>
       <c r="K37" s="190"/>
-      <c r="L37" s="239"/>
+      <c r="L37" s="235"/>
     </row>
     <row r="38" spans="1:21">
       <c r="D38" s="190"/>
@@ -35071,7 +35078,7 @@
       <c r="I38" s="190"/>
       <c r="J38" s="190"/>
       <c r="K38" s="190"/>
-      <c r="L38" s="239"/>
+      <c r="L38" s="235"/>
     </row>
     <row r="39" spans="1:21">
       <c r="D39" s="190"/>
@@ -35082,7 +35089,7 @@
       <c r="I39" s="190"/>
       <c r="J39" s="190"/>
       <c r="K39" s="190"/>
-      <c r="L39" s="239"/>
+      <c r="L39" s="235"/>
     </row>
     <row r="40" spans="1:21">
       <c r="D40" s="190"/>
@@ -35096,7 +35103,7 @@
       <c r="I40" s="190"/>
       <c r="J40" s="190"/>
       <c r="K40" s="190"/>
-      <c r="L40" s="239"/>
+      <c r="L40" s="235"/>
     </row>
     <row r="41" spans="1:21">
       <c r="D41" s="190"/>
@@ -35114,7 +35121,7 @@
         <v>15</v>
       </c>
       <c r="K41" s="190"/>
-      <c r="L41" s="239"/>
+      <c r="L41" s="235"/>
       <c r="O41">
         <v>1</v>
       </c>
@@ -35140,7 +35147,7 @@
         <v>25</v>
       </c>
       <c r="K42" s="190"/>
-      <c r="L42" s="239"/>
+      <c r="L42" s="235"/>
       <c r="O42">
         <v>2</v>
       </c>
@@ -35162,7 +35169,7 @@
       <c r="I43" s="190"/>
       <c r="J43" s="190"/>
       <c r="K43" s="190"/>
-      <c r="L43" s="239"/>
+      <c r="L43" s="235"/>
       <c r="O43">
         <v>3</v>
       </c>
@@ -35187,7 +35194,7 @@
         <v>375</v>
       </c>
       <c r="K44" s="190"/>
-      <c r="L44" s="239"/>
+      <c r="L44" s="235"/>
       <c r="O44">
         <v>4</v>
       </c>
@@ -35209,7 +35216,7 @@
       <c r="I45" s="190"/>
       <c r="J45" s="190"/>
       <c r="K45" s="190"/>
-      <c r="L45" s="239"/>
+      <c r="L45" s="235"/>
       <c r="O45">
         <v>5</v>
       </c>
@@ -35231,7 +35238,7 @@
       <c r="I46" s="190"/>
       <c r="J46" s="190"/>
       <c r="K46" s="190"/>
-      <c r="L46" s="239"/>
+      <c r="L46" s="235"/>
       <c r="O46">
         <v>6</v>
       </c>
@@ -35253,7 +35260,7 @@
       <c r="I47" s="190"/>
       <c r="J47" s="190"/>
       <c r="K47" s="190"/>
-      <c r="L47" s="239"/>
+      <c r="L47" s="235"/>
       <c r="O47">
         <v>7</v>
       </c>
@@ -35292,39 +35299,39 @@
       </c>
     </row>
     <row r="50" spans="4:23">
-      <c r="D50" s="225" t="s">
+      <c r="D50" s="237" t="s">
         <v>285</v>
       </c>
-      <c r="E50" s="225"/>
-      <c r="F50" s="225"/>
-      <c r="G50" s="225"/>
+      <c r="E50" s="237"/>
+      <c r="F50" s="237"/>
+      <c r="G50" s="237"/>
     </row>
     <row r="51" spans="4:23">
-      <c r="D51" s="225"/>
-      <c r="E51" s="225"/>
-      <c r="F51" s="225"/>
-      <c r="G51" s="225"/>
+      <c r="D51" s="237"/>
+      <c r="E51" s="237"/>
+      <c r="F51" s="237"/>
+      <c r="G51" s="237"/>
     </row>
     <row r="52" spans="4:23">
-      <c r="D52" s="226" t="str">
+      <c r="D52" s="238" t="str">
         <f>IF(O49&gt;=S49,"0","1")</f>
         <v>1</v>
       </c>
-      <c r="E52" s="226"/>
-      <c r="F52" s="226"/>
-      <c r="G52" s="226"/>
+      <c r="E52" s="238"/>
+      <c r="F52" s="238"/>
+      <c r="G52" s="238"/>
     </row>
     <row r="53" spans="4:23">
-      <c r="D53" s="226"/>
-      <c r="E53" s="226"/>
-      <c r="F53" s="226"/>
-      <c r="G53" s="226"/>
+      <c r="D53" s="238"/>
+      <c r="E53" s="238"/>
+      <c r="F53" s="238"/>
+      <c r="G53" s="238"/>
     </row>
     <row r="54" spans="4:23">
-      <c r="D54" s="226"/>
-      <c r="E54" s="226"/>
-      <c r="F54" s="226"/>
-      <c r="G54" s="226"/>
+      <c r="D54" s="238"/>
+      <c r="E54" s="238"/>
+      <c r="F54" s="238"/>
+      <c r="G54" s="238"/>
     </row>
     <row r="55" spans="4:23">
       <c r="K55" s="188"/>
@@ -35737,14 +35744,14 @@
       </c>
     </row>
     <row r="63" spans="4:23">
-      <c r="D63" s="229" t="s">
+      <c r="D63" s="241" t="s">
         <v>254</v>
       </c>
-      <c r="E63" s="229"/>
-      <c r="F63" s="229"/>
-      <c r="G63" s="229"/>
-      <c r="H63" s="229"/>
-      <c r="I63" s="229"/>
+      <c r="E63" s="241"/>
+      <c r="F63" s="241"/>
+      <c r="G63" s="241"/>
+      <c r="H63" s="241"/>
+      <c r="I63" s="241"/>
       <c r="K63" s="188">
         <v>8</v>
       </c>
@@ -35798,12 +35805,12 @@
       </c>
     </row>
     <row r="64" spans="4:23">
-      <c r="D64" s="229"/>
-      <c r="E64" s="229"/>
-      <c r="F64" s="229"/>
-      <c r="G64" s="229"/>
-      <c r="H64" s="229"/>
-      <c r="I64" s="229"/>
+      <c r="D64" s="241"/>
+      <c r="E64" s="241"/>
+      <c r="F64" s="241"/>
+      <c r="G64" s="241"/>
+      <c r="H64" s="241"/>
+      <c r="I64" s="241"/>
       <c r="K64" s="188">
         <v>9</v>
       </c>
@@ -36065,28 +36072,28 @@
         <v>12</v>
       </c>
       <c r="L68" s="189"/>
-      <c r="N68" s="234" t="s">
+      <c r="N68" s="230" t="s">
         <v>176</v>
       </c>
-      <c r="O68" s="234"/>
-      <c r="P68" s="234"/>
-      <c r="Q68" s="234"/>
-      <c r="R68" s="234"/>
-      <c r="S68" s="234"/>
-      <c r="T68" s="234"/>
-      <c r="U68" s="234"/>
-      <c r="V68" s="234"/>
+      <c r="O68" s="230"/>
+      <c r="P68" s="230"/>
+      <c r="Q68" s="230"/>
+      <c r="R68" s="230"/>
+      <c r="S68" s="230"/>
+      <c r="T68" s="230"/>
+      <c r="U68" s="230"/>
+      <c r="V68" s="230"/>
     </row>
     <row r="69" spans="3:37" ht="14.4" customHeight="1">
-      <c r="N69" s="234"/>
-      <c r="O69" s="234"/>
-      <c r="P69" s="234"/>
-      <c r="Q69" s="234"/>
-      <c r="R69" s="234"/>
-      <c r="S69" s="234"/>
-      <c r="T69" s="234"/>
-      <c r="U69" s="234"/>
-      <c r="V69" s="234"/>
+      <c r="N69" s="230"/>
+      <c r="O69" s="230"/>
+      <c r="P69" s="230"/>
+      <c r="Q69" s="230"/>
+      <c r="R69" s="230"/>
+      <c r="S69" s="230"/>
+      <c r="T69" s="230"/>
+      <c r="U69" s="230"/>
+      <c r="V69" s="230"/>
     </row>
     <row r="70" spans="3:37">
       <c r="N70" s="188" t="s">
@@ -36174,19 +36181,19 @@
       <c r="V72" s="188" t="s">
         <v>178</v>
       </c>
-      <c r="AA72" s="230" t="s">
+      <c r="AA72" s="226" t="s">
         <v>238</v>
       </c>
-      <c r="AB72" s="230"/>
-      <c r="AC72" s="230"/>
-      <c r="AD72" s="230"/>
-      <c r="AE72" s="230"/>
-      <c r="AF72" s="230"/>
-      <c r="AG72" s="230"/>
-      <c r="AH72" s="230"/>
-      <c r="AI72" s="230"/>
-      <c r="AJ72" s="230"/>
-      <c r="AK72" s="230"/>
+      <c r="AB72" s="226"/>
+      <c r="AC72" s="226"/>
+      <c r="AD72" s="226"/>
+      <c r="AE72" s="226"/>
+      <c r="AF72" s="226"/>
+      <c r="AG72" s="226"/>
+      <c r="AH72" s="226"/>
+      <c r="AI72" s="226"/>
+      <c r="AJ72" s="226"/>
+      <c r="AK72" s="226"/>
     </row>
     <row r="73" spans="3:37">
       <c r="N73" s="188" t="s">
@@ -36216,17 +36223,17 @@
       <c r="V73" s="188" t="s">
         <v>178</v>
       </c>
-      <c r="AA73" s="230"/>
-      <c r="AB73" s="230"/>
-      <c r="AC73" s="230"/>
-      <c r="AD73" s="230"/>
-      <c r="AE73" s="230"/>
-      <c r="AF73" s="230"/>
-      <c r="AG73" s="230"/>
-      <c r="AH73" s="230"/>
-      <c r="AI73" s="230"/>
-      <c r="AJ73" s="230"/>
-      <c r="AK73" s="230"/>
+      <c r="AA73" s="226"/>
+      <c r="AB73" s="226"/>
+      <c r="AC73" s="226"/>
+      <c r="AD73" s="226"/>
+      <c r="AE73" s="226"/>
+      <c r="AF73" s="226"/>
+      <c r="AG73" s="226"/>
+      <c r="AH73" s="226"/>
+      <c r="AI73" s="226"/>
+      <c r="AJ73" s="226"/>
+      <c r="AK73" s="226"/>
     </row>
     <row r="74" spans="3:37">
       <c r="N74" s="188" t="s">
@@ -36256,17 +36263,17 @@
       <c r="V74" s="188" t="s">
         <v>178</v>
       </c>
-      <c r="AA74" s="230"/>
-      <c r="AB74" s="230"/>
-      <c r="AC74" s="230"/>
-      <c r="AD74" s="230"/>
-      <c r="AE74" s="230"/>
-      <c r="AF74" s="230"/>
-      <c r="AG74" s="230"/>
-      <c r="AH74" s="230"/>
-      <c r="AI74" s="230"/>
-      <c r="AJ74" s="230"/>
-      <c r="AK74" s="230"/>
+      <c r="AA74" s="226"/>
+      <c r="AB74" s="226"/>
+      <c r="AC74" s="226"/>
+      <c r="AD74" s="226"/>
+      <c r="AE74" s="226"/>
+      <c r="AF74" s="226"/>
+      <c r="AG74" s="226"/>
+      <c r="AH74" s="226"/>
+      <c r="AI74" s="226"/>
+      <c r="AJ74" s="226"/>
+      <c r="AK74" s="226"/>
     </row>
     <row r="75" spans="3:37">
       <c r="N75" s="188" t="s">
@@ -36296,17 +36303,17 @@
       <c r="V75" s="188" t="s">
         <v>178</v>
       </c>
-      <c r="AA75" s="230"/>
-      <c r="AB75" s="230"/>
-      <c r="AC75" s="230"/>
-      <c r="AD75" s="230"/>
-      <c r="AE75" s="230"/>
-      <c r="AF75" s="230"/>
-      <c r="AG75" s="230"/>
-      <c r="AH75" s="230"/>
-      <c r="AI75" s="230"/>
-      <c r="AJ75" s="230"/>
-      <c r="AK75" s="230"/>
+      <c r="AA75" s="226"/>
+      <c r="AB75" s="226"/>
+      <c r="AC75" s="226"/>
+      <c r="AD75" s="226"/>
+      <c r="AE75" s="226"/>
+      <c r="AF75" s="226"/>
+      <c r="AG75" s="226"/>
+      <c r="AH75" s="226"/>
+      <c r="AI75" s="226"/>
+      <c r="AJ75" s="226"/>
+      <c r="AK75" s="226"/>
     </row>
     <row r="76" spans="3:37">
       <c r="N76" s="188" t="s">
@@ -36336,17 +36343,17 @@
       <c r="V76" s="188" t="s">
         <v>178</v>
       </c>
-      <c r="AA76" s="230"/>
-      <c r="AB76" s="230"/>
-      <c r="AC76" s="230"/>
-      <c r="AD76" s="230"/>
-      <c r="AE76" s="230"/>
-      <c r="AF76" s="230"/>
-      <c r="AG76" s="230"/>
-      <c r="AH76" s="230"/>
-      <c r="AI76" s="230"/>
-      <c r="AJ76" s="230"/>
-      <c r="AK76" s="230"/>
+      <c r="AA76" s="226"/>
+      <c r="AB76" s="226"/>
+      <c r="AC76" s="226"/>
+      <c r="AD76" s="226"/>
+      <c r="AE76" s="226"/>
+      <c r="AF76" s="226"/>
+      <c r="AG76" s="226"/>
+      <c r="AH76" s="226"/>
+      <c r="AI76" s="226"/>
+      <c r="AJ76" s="226"/>
+      <c r="AK76" s="226"/>
     </row>
     <row r="77" spans="3:37">
       <c r="N77" s="188" t="s">
@@ -36376,17 +36383,17 @@
       <c r="V77" s="188" t="s">
         <v>178</v>
       </c>
-      <c r="AA77" s="230"/>
-      <c r="AB77" s="230"/>
-      <c r="AC77" s="230"/>
-      <c r="AD77" s="230"/>
-      <c r="AE77" s="230"/>
-      <c r="AF77" s="230"/>
-      <c r="AG77" s="230"/>
-      <c r="AH77" s="230"/>
-      <c r="AI77" s="230"/>
-      <c r="AJ77" s="230"/>
-      <c r="AK77" s="230"/>
+      <c r="AA77" s="226"/>
+      <c r="AB77" s="226"/>
+      <c r="AC77" s="226"/>
+      <c r="AD77" s="226"/>
+      <c r="AE77" s="226"/>
+      <c r="AF77" s="226"/>
+      <c r="AG77" s="226"/>
+      <c r="AH77" s="226"/>
+      <c r="AI77" s="226"/>
+      <c r="AJ77" s="226"/>
+      <c r="AK77" s="226"/>
     </row>
     <row r="78" spans="3:37">
       <c r="N78" s="188" t="s">
@@ -36418,22 +36425,22 @@
       </c>
     </row>
     <row r="80" spans="3:37">
-      <c r="C80" s="225" t="s">
+      <c r="C80" s="237" t="s">
         <v>253</v>
       </c>
-      <c r="D80" s="225"/>
-      <c r="E80" s="225"/>
-      <c r="F80" s="225"/>
-      <c r="G80" s="225"/>
-      <c r="H80" s="225"/>
+      <c r="D80" s="237"/>
+      <c r="E80" s="237"/>
+      <c r="F80" s="237"/>
+      <c r="G80" s="237"/>
+      <c r="H80" s="237"/>
     </row>
     <row r="81" spans="3:21">
-      <c r="C81" s="225"/>
-      <c r="D81" s="225"/>
-      <c r="E81" s="225"/>
-      <c r="F81" s="225"/>
-      <c r="G81" s="225"/>
-      <c r="H81" s="225"/>
+      <c r="C81" s="237"/>
+      <c r="D81" s="237"/>
+      <c r="E81" s="237"/>
+      <c r="F81" s="237"/>
+      <c r="G81" s="237"/>
+      <c r="H81" s="237"/>
     </row>
     <row r="82" spans="3:21">
       <c r="F82" s="194">
@@ -36448,33 +36455,33 @@
       </c>
     </row>
     <row r="83" spans="3:21" ht="14.4" customHeight="1">
-      <c r="J83" s="227" t="s">
+      <c r="J83" s="239" t="s">
         <v>237</v>
       </c>
-      <c r="K83" s="227"/>
-      <c r="L83" s="227"/>
-      <c r="M83" s="227"/>
-      <c r="N83" s="227"/>
-      <c r="O83" s="227"/>
-      <c r="P83" s="227"/>
-      <c r="Q83" s="227"/>
-      <c r="U83" s="231" t="s">
+      <c r="K83" s="239"/>
+      <c r="L83" s="239"/>
+      <c r="M83" s="239"/>
+      <c r="N83" s="239"/>
+      <c r="O83" s="239"/>
+      <c r="P83" s="239"/>
+      <c r="Q83" s="239"/>
+      <c r="U83" s="227" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="84" spans="3:21">
-      <c r="J84" s="227"/>
-      <c r="K84" s="227"/>
-      <c r="L84" s="227"/>
-      <c r="M84" s="227"/>
-      <c r="N84" s="227"/>
-      <c r="O84" s="227"/>
-      <c r="P84" s="227"/>
-      <c r="Q84" s="227"/>
+      <c r="J84" s="239"/>
+      <c r="K84" s="239"/>
+      <c r="L84" s="239"/>
+      <c r="M84" s="239"/>
+      <c r="N84" s="239"/>
+      <c r="O84" s="239"/>
+      <c r="P84" s="239"/>
+      <c r="Q84" s="239"/>
       <c r="S84" s="114" t="s">
         <v>243</v>
       </c>
-      <c r="U84" s="231"/>
+      <c r="U84" s="227"/>
     </row>
     <row r="85" spans="3:21">
       <c r="K85" s="114" t="s">
@@ -36501,7 +36508,7 @@
       <c r="S85" t="s">
         <v>223</v>
       </c>
-      <c r="U85" s="231"/>
+      <c r="U85" s="227"/>
     </row>
     <row r="86" spans="3:21">
       <c r="K86" s="114" t="s">
@@ -36528,7 +36535,7 @@
       <c r="S86" t="s">
         <v>225</v>
       </c>
-      <c r="U86" s="231"/>
+      <c r="U86" s="227"/>
     </row>
     <row r="87" spans="3:21">
       <c r="K87" s="114" t="s">
@@ -36555,16 +36562,16 @@
       <c r="S87" t="s">
         <v>223</v>
       </c>
-      <c r="U87" s="231"/>
+      <c r="U87" s="227"/>
     </row>
     <row r="88" spans="3:21">
-      <c r="C88" s="228" t="s">
+      <c r="C88" s="240" t="s">
         <v>252</v>
       </c>
-      <c r="D88" s="228"/>
-      <c r="E88" s="228"/>
-      <c r="F88" s="228"/>
-      <c r="G88" s="228"/>
+      <c r="D88" s="240"/>
+      <c r="E88" s="240"/>
+      <c r="F88" s="240"/>
+      <c r="G88" s="240"/>
       <c r="K88" s="114" t="s">
         <v>226</v>
       </c>
@@ -36589,14 +36596,14 @@
       <c r="S88" t="s">
         <v>225</v>
       </c>
-      <c r="U88" s="231"/>
+      <c r="U88" s="227"/>
     </row>
     <row r="89" spans="3:21">
-      <c r="C89" s="228"/>
-      <c r="D89" s="228"/>
-      <c r="E89" s="228"/>
-      <c r="F89" s="228"/>
-      <c r="G89" s="228"/>
+      <c r="C89" s="240"/>
+      <c r="D89" s="240"/>
+      <c r="E89" s="240"/>
+      <c r="F89" s="240"/>
+      <c r="G89" s="240"/>
       <c r="K89" s="114" t="s">
         <v>224</v>
       </c>
@@ -36621,7 +36628,7 @@
       <c r="S89" t="s">
         <v>223</v>
       </c>
-      <c r="U89" s="231"/>
+      <c r="U89" s="227"/>
     </row>
     <row r="90" spans="3:21">
       <c r="D90" s="114" t="s">
@@ -36658,7 +36665,7 @@
       <c r="S90" t="s">
         <v>225</v>
       </c>
-      <c r="U90" s="231"/>
+      <c r="U90" s="227"/>
     </row>
     <row r="91" spans="3:21">
       <c r="D91" s="114" t="s">
@@ -36695,7 +36702,7 @@
       <c r="S91" t="s">
         <v>223</v>
       </c>
-      <c r="U91" s="231"/>
+      <c r="U91" s="227"/>
     </row>
     <row r="92" spans="3:21">
       <c r="D92" s="114" t="s">
@@ -36732,7 +36739,7 @@
       <c r="S92" t="s">
         <v>225</v>
       </c>
-      <c r="U92" s="231"/>
+      <c r="U92" s="227"/>
     </row>
     <row r="93" spans="3:21">
       <c r="D93" s="114" t="s">
@@ -36769,7 +36776,7 @@
       <c r="S93" t="s">
         <v>223</v>
       </c>
-      <c r="U93" s="231"/>
+      <c r="U93" s="227"/>
     </row>
     <row r="94" spans="3:21">
       <c r="D94" s="114" t="s">
@@ -36806,7 +36813,7 @@
       <c r="S94" t="s">
         <v>225</v>
       </c>
-      <c r="U94" s="231"/>
+      <c r="U94" s="227"/>
     </row>
     <row r="95" spans="3:21">
       <c r="D95" s="114" t="s">
@@ -36843,7 +36850,7 @@
       <c r="S95" t="s">
         <v>223</v>
       </c>
-      <c r="U95" s="231"/>
+      <c r="U95" s="227"/>
     </row>
     <row r="96" spans="3:21">
       <c r="D96" s="114" t="s">
@@ -36859,7 +36866,7 @@
       <c r="K96" t="s">
         <v>227</v>
       </c>
-      <c r="U96" s="231"/>
+      <c r="U96" s="227"/>
     </row>
     <row r="97" spans="1:19">
       <c r="D97" s="114" t="s">
@@ -36962,29 +36969,29 @@
       </c>
     </row>
     <row r="109" spans="1:19">
-      <c r="A109" s="225" t="s">
+      <c r="A109" s="237" t="s">
         <v>262</v>
       </c>
-      <c r="B109" s="225"/>
-      <c r="C109" s="225"/>
-      <c r="D109" s="225"/>
-      <c r="E109" s="225"/>
-      <c r="F109" s="225"/>
-      <c r="G109" s="225"/>
-      <c r="H109" s="225"/>
+      <c r="B109" s="237"/>
+      <c r="C109" s="237"/>
+      <c r="D109" s="237"/>
+      <c r="E109" s="237"/>
+      <c r="F109" s="237"/>
+      <c r="G109" s="237"/>
+      <c r="H109" s="237"/>
       <c r="K109" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="110" spans="1:19">
-      <c r="A110" s="225"/>
-      <c r="B110" s="225"/>
-      <c r="C110" s="225"/>
-      <c r="D110" s="225"/>
-      <c r="E110" s="225"/>
-      <c r="F110" s="225"/>
-      <c r="G110" s="225"/>
-      <c r="H110" s="225"/>
+      <c r="A110" s="237"/>
+      <c r="B110" s="237"/>
+      <c r="C110" s="237"/>
+      <c r="D110" s="237"/>
+      <c r="E110" s="237"/>
+      <c r="F110" s="237"/>
+      <c r="G110" s="237"/>
+      <c r="H110" s="237"/>
       <c r="K110" t="s">
         <v>229</v>
       </c>
@@ -37675,15 +37682,15 @@
       </c>
       <c r="N147">
         <f ca="1">RANDBETWEEN(1,6)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O147">
         <f t="shared" ref="O147:Q147" ca="1" si="10">RANDBETWEEN(1,6)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P147">
         <f t="shared" ca="1" si="10"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q147">
         <f t="shared" ca="1" si="10"/>
@@ -37697,12 +37704,12 @@
       <c r="A148" s="114" t="s">
         <v>158</v>
       </c>
-      <c r="D148" s="224" t="s">
+      <c r="D148" s="236" t="s">
         <v>261</v>
       </c>
-      <c r="E148" s="224"/>
-      <c r="F148" s="224"/>
-      <c r="G148" s="224"/>
+      <c r="E148" s="236"/>
+      <c r="F148" s="236"/>
+      <c r="G148" s="236"/>
       <c r="K148" t="s">
         <v>223</v>
       </c>
@@ -37712,15 +37719,15 @@
       </c>
       <c r="O148">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P148">
         <f t="shared" ca="1" si="11"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q148">
         <f t="shared" ca="1" si="11"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S148" s="114" t="s">
         <v>269</v>
@@ -37730,28 +37737,28 @@
       <c r="A149" s="114" t="s">
         <v>159</v>
       </c>
-      <c r="D149" s="224"/>
-      <c r="E149" s="224"/>
-      <c r="F149" s="224"/>
-      <c r="G149" s="224"/>
+      <c r="D149" s="236"/>
+      <c r="E149" s="236"/>
+      <c r="F149" s="236"/>
+      <c r="G149" s="236"/>
       <c r="K149" t="s">
         <v>225</v>
       </c>
       <c r="N149">
         <f t="shared" ca="1" si="11"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O149">
         <f t="shared" ca="1" si="11"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P149">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="Q149">
         <f t="shared" ca="1" si="11"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S149" s="114" t="s">
         <v>270</v>
@@ -37761,28 +37768,28 @@
       <c r="A150" s="114" t="s">
         <v>160</v>
       </c>
-      <c r="D150" s="224"/>
-      <c r="E150" s="224"/>
-      <c r="F150" s="224"/>
-      <c r="G150" s="224"/>
+      <c r="D150" s="236"/>
+      <c r="E150" s="236"/>
+      <c r="F150" s="236"/>
+      <c r="G150" s="236"/>
       <c r="K150" t="s">
         <v>223</v>
       </c>
       <c r="N150">
         <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O150">
         <f t="shared" ca="1" si="11"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P150">
         <f t="shared" ca="1" si="11"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q150">
         <f t="shared" ca="1" si="11"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S150" s="114" t="s">
         <v>271</v>
@@ -37797,19 +37804,19 @@
       </c>
       <c r="N151">
         <f t="shared" ca="1" si="11"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O151">
         <f t="shared" ca="1" si="11"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P151">
         <f t="shared" ca="1" si="11"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q151">
         <f t="shared" ca="1" si="11"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S151" s="114" t="s">
         <v>272</v>
@@ -37836,7 +37843,7 @@
       </c>
       <c r="Q152">
         <f t="shared" ca="1" si="11"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S152" s="114" t="s">
         <v>273</v>
@@ -37851,19 +37858,19 @@
       </c>
       <c r="N153">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O153">
         <f t="shared" ca="1" si="11"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P153">
         <f t="shared" ca="1" si="11"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q153">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S153" s="114" t="s">
         <v>274</v>
@@ -37875,11 +37882,11 @@
       </c>
       <c r="N154">
         <f t="shared" ca="1" si="11"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O154">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="P154">
         <f t="shared" ca="1" si="11"/>
@@ -37906,6 +37913,14 @@
     <sortCondition ref="U3:U33"/>
   </sortState>
   <mergeCells count="21">
+    <mergeCell ref="D148:G150"/>
+    <mergeCell ref="A109:H110"/>
+    <mergeCell ref="D50:G51"/>
+    <mergeCell ref="D52:G54"/>
+    <mergeCell ref="J83:Q84"/>
+    <mergeCell ref="C88:G89"/>
+    <mergeCell ref="C80:H81"/>
+    <mergeCell ref="D63:I64"/>
     <mergeCell ref="AA72:AK77"/>
     <mergeCell ref="U83:U96"/>
     <mergeCell ref="A1:A2"/>
@@ -37919,14 +37934,6 @@
     <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="R1:R2"/>
     <mergeCell ref="S1:S2"/>
-    <mergeCell ref="D148:G150"/>
-    <mergeCell ref="A109:H110"/>
-    <mergeCell ref="D50:G51"/>
-    <mergeCell ref="D52:G54"/>
-    <mergeCell ref="J83:Q84"/>
-    <mergeCell ref="C88:G89"/>
-    <mergeCell ref="C80:H81"/>
-    <mergeCell ref="D63:I64"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <dataValidations count="1">
@@ -37945,10 +37952,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42855167-5C17-4158-A157-B60E7540E219}">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:T38"/>
+  <dimension ref="A1:T44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11:C13"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="I47" sqref="I47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -38150,10 +38157,10 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="43.2" customHeight="1">
-      <c r="F8" s="241" t="s">
+      <c r="F8" s="243" t="s">
         <v>304</v>
       </c>
-      <c r="G8" s="241"/>
+      <c r="G8" s="243"/>
       <c r="H8" s="202"/>
     </row>
     <row r="9" spans="1:9">
@@ -38219,6 +38226,10 @@
       </c>
     </row>
     <row r="14" spans="1:9">
+      <c r="F14">
+        <f>MATCH(B1,$B$1:$E$1,0)</f>
+        <v>1</v>
+      </c>
       <c r="H14">
         <v>5</v>
       </c>
@@ -38243,39 +38254,54 @@
       </c>
     </row>
     <row r="19" spans="1:20">
-      <c r="L19" s="240" t="s">
+      <c r="L19" s="242" t="s">
         <v>299</v>
       </c>
-      <c r="M19" s="240"/>
-      <c r="N19" s="240"/>
-      <c r="O19" s="240"/>
-      <c r="P19" s="240"/>
-      <c r="Q19" s="240"/>
-      <c r="R19" s="240"/>
-      <c r="S19" s="240"/>
-      <c r="T19" s="240"/>
+      <c r="M19" s="242"/>
+      <c r="N19" s="242"/>
+      <c r="O19" s="242"/>
+      <c r="P19" s="242"/>
+      <c r="Q19" s="242"/>
+      <c r="R19" s="242"/>
+      <c r="S19" s="242"/>
+      <c r="T19" s="242"/>
     </row>
     <row r="20" spans="1:20">
-      <c r="L20" s="240"/>
-      <c r="M20" s="240"/>
-      <c r="N20" s="240"/>
-      <c r="O20" s="240"/>
-      <c r="P20" s="240"/>
-      <c r="Q20" s="240"/>
-      <c r="R20" s="240"/>
-      <c r="S20" s="240"/>
-      <c r="T20" s="240"/>
+      <c r="A20" s="114" t="s">
+        <v>396</v>
+      </c>
+      <c r="B20">
+        <f>VLOOKUP(A20,A2:B7,2,FALSE)</f>
+        <v>86</v>
+      </c>
+      <c r="C20">
+        <f>VLOOKUP(B20,B2:C7,2,FALSE)</f>
+        <v>98</v>
+      </c>
+      <c r="L20" s="242"/>
+      <c r="M20" s="242"/>
+      <c r="N20" s="242"/>
+      <c r="O20" s="242"/>
+      <c r="P20" s="242"/>
+      <c r="Q20" s="242"/>
+      <c r="R20" s="242"/>
+      <c r="S20" s="242"/>
+      <c r="T20" s="242"/>
     </row>
     <row r="21" spans="1:20">
-      <c r="L21" s="240"/>
-      <c r="M21" s="240"/>
-      <c r="N21" s="240"/>
-      <c r="O21" s="240"/>
-      <c r="P21" s="240"/>
-      <c r="Q21" s="240"/>
-      <c r="R21" s="240"/>
-      <c r="S21" s="240"/>
-      <c r="T21" s="240"/>
+      <c r="B21">
+        <f>VLOOKUP(A20,A2:E7,5,FALSE)</f>
+        <v>87</v>
+      </c>
+      <c r="L21" s="242"/>
+      <c r="M21" s="242"/>
+      <c r="N21" s="242"/>
+      <c r="O21" s="242"/>
+      <c r="P21" s="242"/>
+      <c r="Q21" s="242"/>
+      <c r="R21" s="242"/>
+      <c r="S21" s="242"/>
+      <c r="T21" s="242"/>
     </row>
     <row r="23" spans="1:20" ht="43.2">
       <c r="F23" s="2" t="s">
@@ -38298,11 +38324,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="30" customHeight="1">
-      <c r="F29" s="242" t="s">
+      <c r="F29" s="244" t="s">
         <v>368</v>
       </c>
-      <c r="G29" s="242"/>
-      <c r="H29" s="242"/>
+      <c r="G29" s="244"/>
+      <c r="H29" s="244"/>
       <c r="K29">
         <f>N(C17)</f>
         <v>3</v>
@@ -38312,9 +38338,9 @@
       </c>
     </row>
     <row r="30" spans="1:20">
-      <c r="F30" s="242"/>
-      <c r="G30" s="242"/>
-      <c r="H30" s="242"/>
+      <c r="F30" s="244"/>
+      <c r="G30" s="244"/>
+      <c r="H30" s="244"/>
       <c r="M30">
         <v>5</v>
       </c>
@@ -38474,6 +38500,18 @@
       </c>
       <c r="L38">
         <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13">
+      <c r="H43">
+        <f ca="1">RAND()</f>
+        <v>0.55326462153391887</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13">
+      <c r="H44">
+        <f ca="1">RANDBETWEEN(1,6)</f>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -38530,17 +38568,17 @@
       <c r="G1" s="205" t="s">
         <v>310</v>
       </c>
-      <c r="H1" s="243" t="s" ph="1">
+      <c r="H1" s="245" t="s" ph="1">
         <v>385</v>
       </c>
-      <c r="I1" s="243" ph="1"/>
-      <c r="J1" s="243" ph="1"/>
-      <c r="K1" s="243" ph="1"/>
-      <c r="L1" s="243" ph="1"/>
-      <c r="M1" s="243" ph="1"/>
-      <c r="N1" s="243" ph="1"/>
-      <c r="O1" s="243" ph="1"/>
-      <c r="P1" s="243" ph="1"/>
+      <c r="I1" s="245" ph="1"/>
+      <c r="J1" s="245" ph="1"/>
+      <c r="K1" s="245" ph="1"/>
+      <c r="L1" s="245" ph="1"/>
+      <c r="M1" s="245" ph="1"/>
+      <c r="N1" s="245" ph="1"/>
+      <c r="O1" s="245" ph="1"/>
+      <c r="P1" s="245" ph="1"/>
     </row>
     <row r="2" spans="1:19">
       <c r="A2" s="204" t="s">
@@ -38561,15 +38599,15 @@
       <c r="G2" s="206">
         <v>40</v>
       </c>
-      <c r="H2" s="243" ph="1"/>
-      <c r="I2" s="243" ph="1"/>
-      <c r="J2" s="243" ph="1"/>
-      <c r="K2" s="243" ph="1"/>
-      <c r="L2" s="243" ph="1"/>
-      <c r="M2" s="243" ph="1"/>
-      <c r="N2" s="243" ph="1"/>
-      <c r="O2" s="243" ph="1"/>
-      <c r="P2" s="243" ph="1"/>
+      <c r="H2" s="245" ph="1"/>
+      <c r="I2" s="245" ph="1"/>
+      <c r="J2" s="245" ph="1"/>
+      <c r="K2" s="245" ph="1"/>
+      <c r="L2" s="245" ph="1"/>
+      <c r="M2" s="245" ph="1"/>
+      <c r="N2" s="245" ph="1"/>
+      <c r="O2" s="245" ph="1"/>
+      <c r="P2" s="245" ph="1"/>
     </row>
     <row r="3" spans="1:19">
       <c r="A3" s="204" t="s">
@@ -38590,15 +38628,15 @@
       <c r="G3" s="206">
         <v>40</v>
       </c>
-      <c r="H3" s="243" ph="1"/>
-      <c r="I3" s="243" ph="1"/>
-      <c r="J3" s="243" ph="1"/>
-      <c r="K3" s="243" ph="1"/>
-      <c r="L3" s="243" ph="1"/>
-      <c r="M3" s="243" ph="1"/>
-      <c r="N3" s="243" ph="1"/>
-      <c r="O3" s="243" ph="1"/>
-      <c r="P3" s="243" ph="1"/>
+      <c r="H3" s="245" ph="1"/>
+      <c r="I3" s="245" ph="1"/>
+      <c r="J3" s="245" ph="1"/>
+      <c r="K3" s="245" ph="1"/>
+      <c r="L3" s="245" ph="1"/>
+      <c r="M3" s="245" ph="1"/>
+      <c r="N3" s="245" ph="1"/>
+      <c r="O3" s="245" ph="1"/>
+      <c r="P3" s="245" ph="1"/>
     </row>
     <row r="4" spans="1:19">
       <c r="A4" s="204" t="s">
@@ -38619,15 +38657,15 @@
       <c r="G4" s="206">
         <v>40</v>
       </c>
-      <c r="H4" s="243" ph="1"/>
-      <c r="I4" s="243" ph="1"/>
-      <c r="J4" s="243" ph="1"/>
-      <c r="K4" s="243" ph="1"/>
-      <c r="L4" s="243" ph="1"/>
-      <c r="M4" s="243" ph="1"/>
-      <c r="N4" s="243" ph="1"/>
-      <c r="O4" s="243" ph="1"/>
-      <c r="P4" s="243" ph="1"/>
+      <c r="H4" s="245" ph="1"/>
+      <c r="I4" s="245" ph="1"/>
+      <c r="J4" s="245" ph="1"/>
+      <c r="K4" s="245" ph="1"/>
+      <c r="L4" s="245" ph="1"/>
+      <c r="M4" s="245" ph="1"/>
+      <c r="N4" s="245" ph="1"/>
+      <c r="O4" s="245" ph="1"/>
+      <c r="P4" s="245" ph="1"/>
     </row>
     <row r="5" spans="1:19">
       <c r="A5" s="204" t="s">
@@ -38648,15 +38686,15 @@
       <c r="G5" s="206">
         <v>40</v>
       </c>
-      <c r="H5" s="243" ph="1"/>
-      <c r="I5" s="243" ph="1"/>
-      <c r="J5" s="243" ph="1"/>
-      <c r="K5" s="243" ph="1"/>
-      <c r="L5" s="243" ph="1"/>
-      <c r="M5" s="243" ph="1"/>
-      <c r="N5" s="243" ph="1"/>
-      <c r="O5" s="243" ph="1"/>
-      <c r="P5" s="243" ph="1"/>
+      <c r="H5" s="245" ph="1"/>
+      <c r="I5" s="245" ph="1"/>
+      <c r="J5" s="245" ph="1"/>
+      <c r="K5" s="245" ph="1"/>
+      <c r="L5" s="245" ph="1"/>
+      <c r="M5" s="245" ph="1"/>
+      <c r="N5" s="245" ph="1"/>
+      <c r="O5" s="245" ph="1"/>
+      <c r="P5" s="245" ph="1"/>
     </row>
     <row r="6" spans="1:19">
       <c r="A6" s="204" t="s">
@@ -38811,33 +38849,33 @@
       </c>
     </row>
     <row r="13" spans="1:19">
-      <c r="A13" s="244" t="s">
+      <c r="A13" s="246" t="s">
         <v>311</v>
       </c>
-      <c r="B13" s="244"/>
-      <c r="C13" s="244"/>
-      <c r="D13" s="244"/>
-      <c r="E13" s="244"/>
-      <c r="F13" s="244"/>
+      <c r="B13" s="246"/>
+      <c r="C13" s="246"/>
+      <c r="D13" s="246"/>
+      <c r="E13" s="246"/>
+      <c r="F13" s="246"/>
       <c r="S13" s="220">
         <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:19">
-      <c r="A14" s="244"/>
-      <c r="B14" s="244"/>
-      <c r="C14" s="244"/>
-      <c r="D14" s="244"/>
-      <c r="E14" s="244"/>
-      <c r="F14" s="244"/>
+      <c r="A14" s="246"/>
+      <c r="B14" s="246"/>
+      <c r="C14" s="246"/>
+      <c r="D14" s="246"/>
+      <c r="E14" s="246"/>
+      <c r="F14" s="246"/>
     </row>
     <row r="15" spans="1:19">
-      <c r="A15" s="244"/>
-      <c r="B15" s="244"/>
-      <c r="C15" s="244"/>
-      <c r="D15" s="244"/>
-      <c r="E15" s="244"/>
-      <c r="F15" s="244"/>
+      <c r="A15" s="246"/>
+      <c r="B15" s="246"/>
+      <c r="C15" s="246"/>
+      <c r="D15" s="246"/>
+      <c r="E15" s="246"/>
+      <c r="F15" s="246"/>
     </row>
     <row r="17" spans="5:67">
       <c r="BK17" s="221" t="s">
@@ -38882,11 +38920,11 @@
       </c>
     </row>
     <row r="21" spans="5:67">
-      <c r="E21" s="247" t="s" ph="1">
+      <c r="E21" s="249" t="s" ph="1">
         <v>384</v>
       </c>
-      <c r="F21" s="247" ph="1"/>
-      <c r="G21" s="247" ph="1"/>
+      <c r="F21" s="249" ph="1"/>
+      <c r="G21" s="249" ph="1"/>
       <c r="BK21" s="222" t="s">
         <v>389</v>
       </c>
@@ -38904,76 +38942,76 @@
       </c>
     </row>
     <row r="22" spans="5:67">
-      <c r="E22" s="247" ph="1"/>
-      <c r="F22" s="247" ph="1"/>
-      <c r="G22" s="247" ph="1"/>
+      <c r="E22" s="249" ph="1"/>
+      <c r="F22" s="249" ph="1"/>
+      <c r="G22" s="249" ph="1"/>
     </row>
     <row r="23" spans="5:67">
-      <c r="E23" s="247" ph="1"/>
-      <c r="F23" s="247" ph="1"/>
-      <c r="G23" s="247" ph="1"/>
+      <c r="E23" s="249" ph="1"/>
+      <c r="F23" s="249" ph="1"/>
+      <c r="G23" s="249" ph="1"/>
     </row>
     <row r="27" spans="5:67">
-      <c r="G27" s="246" t="s">
+      <c r="G27" s="248" t="s">
         <v>382</v>
       </c>
-      <c r="H27" s="246"/>
-      <c r="I27" s="246"/>
-      <c r="J27" s="246"/>
-      <c r="K27" s="246"/>
-      <c r="L27" s="246"/>
-      <c r="M27" s="246"/>
-      <c r="N27" s="246"/>
-      <c r="O27" s="246"/>
-      <c r="P27" s="246"/>
-      <c r="Q27" s="246"/>
-      <c r="R27" s="246"/>
+      <c r="H27" s="248"/>
+      <c r="I27" s="248"/>
+      <c r="J27" s="248"/>
+      <c r="K27" s="248"/>
+      <c r="L27" s="248"/>
+      <c r="M27" s="248"/>
+      <c r="N27" s="248"/>
+      <c r="O27" s="248"/>
+      <c r="P27" s="248"/>
+      <c r="Q27" s="248"/>
+      <c r="R27" s="248"/>
     </row>
     <row r="28" spans="5:67">
-      <c r="G28" s="246"/>
-      <c r="H28" s="246"/>
-      <c r="I28" s="246"/>
-      <c r="J28" s="246"/>
-      <c r="K28" s="246"/>
-      <c r="L28" s="246"/>
-      <c r="M28" s="246"/>
-      <c r="N28" s="246"/>
-      <c r="O28" s="246"/>
-      <c r="P28" s="246"/>
-      <c r="Q28" s="246"/>
-      <c r="R28" s="246"/>
+      <c r="G28" s="248"/>
+      <c r="H28" s="248"/>
+      <c r="I28" s="248"/>
+      <c r="J28" s="248"/>
+      <c r="K28" s="248"/>
+      <c r="L28" s="248"/>
+      <c r="M28" s="248"/>
+      <c r="N28" s="248"/>
+      <c r="O28" s="248"/>
+      <c r="P28" s="248"/>
+      <c r="Q28" s="248"/>
+      <c r="R28" s="248"/>
     </row>
     <row r="29" spans="5:67">
-      <c r="G29" s="246"/>
-      <c r="H29" s="246"/>
-      <c r="I29" s="246"/>
-      <c r="J29" s="246"/>
-      <c r="K29" s="246"/>
-      <c r="L29" s="246"/>
-      <c r="M29" s="246"/>
-      <c r="N29" s="246"/>
-      <c r="O29" s="246"/>
-      <c r="P29" s="246"/>
-      <c r="Q29" s="246"/>
-      <c r="R29" s="246"/>
+      <c r="G29" s="248"/>
+      <c r="H29" s="248"/>
+      <c r="I29" s="248"/>
+      <c r="J29" s="248"/>
+      <c r="K29" s="248"/>
+      <c r="L29" s="248"/>
+      <c r="M29" s="248"/>
+      <c r="N29" s="248"/>
+      <c r="O29" s="248"/>
+      <c r="P29" s="248"/>
+      <c r="Q29" s="248"/>
+      <c r="R29" s="248"/>
     </row>
     <row r="30" spans="5:67">
-      <c r="I30" s="245" t="s">
+      <c r="I30" s="247" t="s">
         <v>312</v>
       </c>
-      <c r="J30" s="245"/>
-      <c r="K30" s="245"/>
-      <c r="L30" s="245"/>
-      <c r="M30" s="245"/>
-      <c r="N30" s="245"/>
+      <c r="J30" s="247"/>
+      <c r="K30" s="247"/>
+      <c r="L30" s="247"/>
+      <c r="M30" s="247"/>
+      <c r="N30" s="247"/>
     </row>
     <row r="31" spans="5:67">
-      <c r="I31" s="245"/>
-      <c r="J31" s="245"/>
-      <c r="K31" s="245"/>
-      <c r="L31" s="245"/>
-      <c r="M31" s="245"/>
-      <c r="N31" s="245"/>
+      <c r="I31" s="247"/>
+      <c r="J31" s="247"/>
+      <c r="K31" s="247"/>
+      <c r="L31" s="247"/>
+      <c r="M31" s="247"/>
+      <c r="N31" s="247"/>
     </row>
     <row r="36" spans="1:3">
       <c r="B36" s="114" t="s">
@@ -39182,30 +39220,30 @@
       </c>
     </row>
     <row r="23" spans="5:14">
-      <c r="E23" s="248" t="s">
+      <c r="E23" s="250" t="s">
         <v>327</v>
       </c>
-      <c r="F23" s="248"/>
-      <c r="G23" s="248"/>
-      <c r="H23" s="248"/>
-      <c r="I23" s="248"/>
-      <c r="J23" s="248"/>
-      <c r="K23" s="248"/>
-      <c r="L23" s="248"/>
-      <c r="M23" s="248"/>
-      <c r="N23" s="248"/>
+      <c r="F23" s="250"/>
+      <c r="G23" s="250"/>
+      <c r="H23" s="250"/>
+      <c r="I23" s="250"/>
+      <c r="J23" s="250"/>
+      <c r="K23" s="250"/>
+      <c r="L23" s="250"/>
+      <c r="M23" s="250"/>
+      <c r="N23" s="250"/>
     </row>
     <row r="24" spans="5:14">
-      <c r="E24" s="248"/>
-      <c r="F24" s="248"/>
-      <c r="G24" s="248"/>
-      <c r="H24" s="248"/>
-      <c r="I24" s="248"/>
-      <c r="J24" s="248"/>
-      <c r="K24" s="248"/>
-      <c r="L24" s="248"/>
-      <c r="M24" s="248"/>
-      <c r="N24" s="248"/>
+      <c r="E24" s="250"/>
+      <c r="F24" s="250"/>
+      <c r="G24" s="250"/>
+      <c r="H24" s="250"/>
+      <c r="I24" s="250"/>
+      <c r="J24" s="250"/>
+      <c r="K24" s="250"/>
+      <c r="L24" s="250"/>
+      <c r="M24" s="250"/>
+      <c r="N24" s="250"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -39240,19 +39278,19 @@
       <c r="C1" s="114" t="s">
         <v>330</v>
       </c>
-      <c r="F1" s="249" t="s">
+      <c r="F1" s="251" t="s">
         <v>343</v>
       </c>
-      <c r="G1" s="249"/>
-      <c r="H1" s="249"/>
-      <c r="I1" s="249"/>
-      <c r="J1" s="249"/>
-      <c r="K1" s="249"/>
-      <c r="L1" s="249"/>
-      <c r="M1" s="249"/>
-      <c r="N1" s="249"/>
-      <c r="O1" s="249"/>
-      <c r="P1" s="249"/>
+      <c r="G1" s="251"/>
+      <c r="H1" s="251"/>
+      <c r="I1" s="251"/>
+      <c r="J1" s="251"/>
+      <c r="K1" s="251"/>
+      <c r="L1" s="251"/>
+      <c r="M1" s="251"/>
+      <c r="N1" s="251"/>
+      <c r="O1" s="251"/>
+      <c r="P1" s="251"/>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="114" t="s">
@@ -39264,17 +39302,17 @@
       <c r="C2">
         <v>2.8</v>
       </c>
-      <c r="F2" s="249"/>
-      <c r="G2" s="249"/>
-      <c r="H2" s="249"/>
-      <c r="I2" s="249"/>
-      <c r="J2" s="249"/>
-      <c r="K2" s="249"/>
-      <c r="L2" s="249"/>
-      <c r="M2" s="249"/>
-      <c r="N2" s="249"/>
-      <c r="O2" s="249"/>
-      <c r="P2" s="249"/>
+      <c r="F2" s="251"/>
+      <c r="G2" s="251"/>
+      <c r="H2" s="251"/>
+      <c r="I2" s="251"/>
+      <c r="J2" s="251"/>
+      <c r="K2" s="251"/>
+      <c r="L2" s="251"/>
+      <c r="M2" s="251"/>
+      <c r="N2" s="251"/>
+      <c r="O2" s="251"/>
+      <c r="P2" s="251"/>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="114" t="s">
@@ -39286,17 +39324,17 @@
       <c r="C3">
         <v>3.8</v>
       </c>
-      <c r="F3" s="249"/>
-      <c r="G3" s="249"/>
-      <c r="H3" s="249"/>
-      <c r="I3" s="249"/>
-      <c r="J3" s="249"/>
-      <c r="K3" s="249"/>
-      <c r="L3" s="249"/>
-      <c r="M3" s="249"/>
-      <c r="N3" s="249"/>
-      <c r="O3" s="249"/>
-      <c r="P3" s="249"/>
+      <c r="F3" s="251"/>
+      <c r="G3" s="251"/>
+      <c r="H3" s="251"/>
+      <c r="I3" s="251"/>
+      <c r="J3" s="251"/>
+      <c r="K3" s="251"/>
+      <c r="L3" s="251"/>
+      <c r="M3" s="251"/>
+      <c r="N3" s="251"/>
+      <c r="O3" s="251"/>
+      <c r="P3" s="251"/>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="114" t="s">
